--- a/Covid_19_Plots/data/COVID-19-total-announced-deaths.xlsx
+++ b/Covid_19_Plots/data/COVID-19-total-announced-deaths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\23 May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\25 May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B276F74-AF8F-488A-9B29-B936AAC4FBE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CBD853-6493-4527-8535-D1BAED773849}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD585DB0-984B-4C27-BD59-92043CE3C6B4}"/>
+    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{8BEB2997-66E4-4B38-A415-05FC96273E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="501">
   <si>
     <t>Title:</t>
   </si>
@@ -1546,10 +1546,10 @@
     <t>YEOVIL DISTRICT HOSPITAL NHS FOUNDATION TRUST</t>
   </si>
   <si>
-    <t>All data up to 5pm 22 May 2020</t>
+    <t>All data up to 5pm 24 May 2020</t>
   </si>
   <si>
-    <t>23 May 2020</t>
+    <t>25 May 2020</t>
   </si>
 </sst>
 </file>
@@ -2393,43 +2393,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>810713</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165190</xdr:rowOff>
+      <xdr:colOff>1006928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25310</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>93485</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227774</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>105047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3FBF93-C023-4870-9AEF-C4DB6ED097A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94BFFDF-042F-44E2-AABB-5B1B99D2989D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="947873" y="2672170"/>
-          <a:ext cx="10652217" cy="6694855"/>
+          <a:off x="1144088" y="2705100"/>
+          <a:ext cx="9589761" cy="5717177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2441,7 +2458,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
       <sheetName val="Clean case list"/>
       <sheetName val="Dates"/>
       <sheetName val="Contents"/>
@@ -2460,7 +2476,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2762,10 +2777,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E1386-F43F-4641-8440-53064B2B6E87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB7D27-5137-459B-A25C-EEEF8131EFEA}">
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3582,11 +3599,11 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{12A613E2-A264-4A2A-91CD-630D0C4002B4}"/>
-    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{47F0F2AB-57E4-4B3F-8426-D7C47CECCB0B}"/>
-    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{5D31FF7B-2E8E-49A8-AAF6-EAF90EB8799E}"/>
-    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{C5DCB970-98DD-439C-8732-7BE9370BA88B}"/>
-    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{5B579711-F1EC-413D-A194-7AD1961C1862}"/>
+    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{4CF1B563-3F88-4AFD-8666-DA7035E8C25D}"/>
+    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{2A657305-8CA3-4279-BB58-A932ED92B1B7}"/>
+    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{66B1A4B2-F474-4581-BBCF-835B436C8388}"/>
+    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{BE6A1AC3-1403-455D-9B40-A662E0168C60}"/>
+    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{C41B0C93-FC84-4BAE-8E46-F834CD016628}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3594,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093448C4-CB94-4D21-AF9E-136C4CD1FBC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4929A5-D55C-4C60-BACF-B335661A6473}">
   <dimension ref="A1:CT13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -4878,10 +4895,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6D94BE-601B-4DE3-B039-48F86CF99821}">
-  <dimension ref="A1:DB25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B781B317-EE21-4892-A3E2-0774FF984A3D}">
+  <dimension ref="A1:DD25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4889,17 +4908,17 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
-    <col min="5" max="87" width="15.44140625" style="27" customWidth="1"/>
-    <col min="88" max="88" width="2.5546875" style="27" customWidth="1"/>
-    <col min="89" max="89" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
     <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.44140625" style="27" customWidth="1"/>
-    <col min="92" max="98" width="15.33203125" style="27" customWidth="1"/>
-    <col min="99" max="16384" width="9.109375" style="27"/>
+    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
+    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
+    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
+    <col min="94" max="100" width="15.33203125" style="27" customWidth="1"/>
+    <col min="101" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:91" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -4997,12 +5016,14 @@
       <c r="CG2" s="3"/>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
-      <c r="CJ2" s="10"/>
-      <c r="CK2" s="10"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
       <c r="CL2" s="10"/>
       <c r="CM2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
     </row>
-    <row r="3" spans="1:91" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5094,12 +5115,14 @@
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
-      <c r="CJ3" s="10"/>
-      <c r="CK3" s="10"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
       <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
     </row>
-    <row r="4" spans="1:91" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -5191,12 +5214,14 @@
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
       <c r="CL4" s="10"/>
       <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
     </row>
-    <row r="5" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -5288,12 +5313,14 @@
       <c r="CG5" s="3"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
       <c r="CL5" s="10"/>
       <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
     </row>
-    <row r="6" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -5385,12 +5412,14 @@
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
       <c r="CL6" s="10"/>
       <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
     </row>
-    <row r="7" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -5482,12 +5511,14 @@
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
-      <c r="CJ7" s="10"/>
-      <c r="CK7" s="10"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
+      <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
     </row>
-    <row r="8" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -5579,12 +5610,14 @@
       <c r="CG8" s="3"/>
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
-      <c r="CJ8" s="10"/>
-      <c r="CK8" s="10"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
       <c r="CL8" s="10"/>
       <c r="CM8" s="10"/>
+      <c r="CN8" s="10"/>
+      <c r="CO8" s="10"/>
     </row>
-    <row r="9" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -5676,12 +5709,14 @@
       <c r="CG9" s="3"/>
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
-      <c r="CJ9" s="10"/>
-      <c r="CK9" s="10"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
       <c r="CL9" s="10"/>
       <c r="CM9" s="10"/>
+      <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
     </row>
-    <row r="10" spans="1:91" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -5773,12 +5808,14 @@
       <c r="CG10" s="3"/>
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
-      <c r="CJ10" s="10"/>
-      <c r="CK10" s="10"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
       <c r="CL10" s="10"/>
       <c r="CM10" s="10"/>
+      <c r="CN10" s="10"/>
+      <c r="CO10" s="10"/>
     </row>
-    <row r="11" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5866,12 +5903,14 @@
       <c r="CG11" s="3"/>
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
-      <c r="CJ11" s="10"/>
-      <c r="CK11" s="10"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
       <c r="CL11" s="10"/>
       <c r="CM11" s="10"/>
+      <c r="CN11" s="10"/>
+      <c r="CO11" s="10"/>
     </row>
-    <row r="12" spans="1:91" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -5961,12 +6000,14 @@
       <c r="CG12" s="25"/>
       <c r="CH12" s="25"/>
       <c r="CI12" s="25"/>
-      <c r="CJ12" s="26"/>
-      <c r="CK12" s="26"/>
+      <c r="CJ12" s="25"/>
+      <c r="CK12" s="25"/>
       <c r="CL12" s="26"/>
       <c r="CM12" s="26"/>
+      <c r="CN12" s="26"/>
+      <c r="CO12" s="26"/>
     </row>
-    <row r="13" spans="1:91" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6054,12 +6095,14 @@
       <c r="CG13" s="25"/>
       <c r="CH13" s="25"/>
       <c r="CI13" s="25"/>
-      <c r="CJ13" s="26"/>
-      <c r="CK13" s="26"/>
+      <c r="CJ13" s="25"/>
+      <c r="CK13" s="25"/>
       <c r="CL13" s="26"/>
       <c r="CM13" s="26"/>
+      <c r="CN13" s="26"/>
+      <c r="CO13" s="26"/>
     </row>
-    <row r="14" spans="1:91" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -6149,12 +6192,14 @@
       <c r="CG14" s="25"/>
       <c r="CH14" s="25"/>
       <c r="CI14" s="25"/>
-      <c r="CJ14" s="26"/>
-      <c r="CK14" s="26"/>
+      <c r="CJ14" s="25"/>
+      <c r="CK14" s="25"/>
       <c r="CL14" s="26"/>
       <c r="CM14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
     </row>
-    <row r="15" spans="1:91" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6384,15 +6429,18 @@
         <v>30</v>
       </c>
       <c r="CC15" s="40"/>
-      <c r="CE15" s="40" t="s">
+      <c r="CG15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="CJ15" s="28"/>
-      <c r="CK15" s="28"/>
+      <c r="CK15" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="CL15" s="28"/>
       <c r="CM15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CO15" s="28"/>
     </row>
-    <row r="16" spans="1:91" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -6650,14 +6698,20 @@
       <c r="CI16" s="43">
         <v>43973</v>
       </c>
-      <c r="CK16" s="43" t="s">
+      <c r="CJ16" s="43">
+        <v>43974</v>
+      </c>
+      <c r="CK16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CM16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CO16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -6702,7 +6756,7 @@
         <v>14</v>
       </c>
       <c r="Q17" s="47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R17" s="47">
         <v>23</v>
@@ -6747,7 +6801,7 @@
         <v>349</v>
       </c>
       <c r="AF17" s="47">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG17" s="47">
         <v>437</v>
@@ -6786,19 +6840,19 @@
         <v>784</v>
       </c>
       <c r="AS17" s="47">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AT17" s="47">
         <v>771</v>
       </c>
       <c r="AU17" s="47">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AV17" s="47">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW17" s="47">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AX17" s="47">
         <v>683</v>
@@ -6822,25 +6876,25 @@
         <v>479</v>
       </c>
       <c r="BE17" s="47">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="BF17" s="47">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="BG17" s="47">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="BH17" s="47">
         <v>381</v>
       </c>
       <c r="BI17" s="47">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BJ17" s="47">
         <v>343</v>
       </c>
       <c r="BK17" s="47">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BL17" s="47">
         <v>319</v>
@@ -6849,81 +6903,87 @@
         <v>302</v>
       </c>
       <c r="BN17" s="47">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BO17" s="47">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BP17" s="47">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BQ17" s="47">
+        <v>251</v>
+      </c>
+      <c r="BR17" s="47">
+        <v>247</v>
+      </c>
+      <c r="BS17" s="47">
         <v>249</v>
       </c>
-      <c r="BR17" s="47">
-        <v>245</v>
-      </c>
-      <c r="BS17" s="47">
-        <v>248</v>
-      </c>
       <c r="BT17" s="47">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BU17" s="47">
         <v>201</v>
       </c>
       <c r="BV17" s="47">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BW17" s="47">
         <v>188</v>
       </c>
       <c r="BX17" s="47">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BY17" s="47">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BZ17" s="47">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA17" s="47">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CB17" s="47">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="CC17" s="47">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="CD17" s="47">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="CE17" s="47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CF17" s="47">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="CG17" s="47">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="CH17" s="47">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="CI17" s="47">
-        <v>30</v>
-      </c>
-      <c r="CJ17" s="40"/>
-      <c r="CK17" s="48">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="CJ17" s="47">
+        <v>56</v>
+      </c>
+      <c r="CK17" s="47">
+        <v>19</v>
       </c>
       <c r="CL17" s="40"/>
       <c r="CM17" s="48">
-        <v>25545</v>
+        <v>0</v>
+      </c>
+      <c r="CN17" s="40"/>
+      <c r="CO17" s="48">
+        <v>25751</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -7026,8 +7086,10 @@
       <c r="CZ18" s="49"/>
       <c r="DA18" s="49"/>
       <c r="DB18" s="49"/>
+      <c r="DC18" s="49"/>
+      <c r="DD18" s="49"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -7118,7 +7180,7 @@
         <v>38</v>
       </c>
       <c r="AF19" s="53">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG19" s="53">
         <v>42</v>
@@ -7244,7 +7306,7 @@
         <v>30</v>
       </c>
       <c r="BV19" s="53">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BW19" s="53">
         <v>21</v>
@@ -7253,22 +7315,22 @@
         <v>18</v>
       </c>
       <c r="BY19" s="53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BZ19" s="53">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CA19" s="53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CB19" s="53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CC19" s="53">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CD19" s="53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE19" s="53">
         <v>16</v>
@@ -7277,22 +7339,28 @@
         <v>14</v>
       </c>
       <c r="CG19" s="53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CH19" s="53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CI19" s="53">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="CJ19" s="53">
+        <v>5</v>
       </c>
       <c r="CK19" s="53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM19" s="53">
-        <v>2958</v>
+        <v>0</v>
+      </c>
+      <c r="CO19" s="53">
+        <v>2992</v>
       </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -7542,22 +7610,28 @@
         <v>12</v>
       </c>
       <c r="CG20" s="58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CH20" s="58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CI20" s="58">
+        <v>5</v>
+      </c>
+      <c r="CJ20" s="58">
         <v>4</v>
       </c>
-      <c r="CK20" s="57">
-        <v>0</v>
+      <c r="CK20" s="58">
+        <v>1</v>
       </c>
       <c r="CM20" s="57">
-        <v>5873</v>
+        <v>0</v>
+      </c>
+      <c r="CO20" s="57">
+        <v>5882</v>
       </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -7726,22 +7800,22 @@
         <v>77</v>
       </c>
       <c r="BF21" s="58">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BG21" s="58">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BH21" s="58">
         <v>72</v>
       </c>
       <c r="BI21" s="58">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BJ21" s="58">
         <v>74</v>
       </c>
       <c r="BK21" s="58">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BL21" s="58">
         <v>53</v>
@@ -7750,7 +7824,7 @@
         <v>53</v>
       </c>
       <c r="BN21" s="58">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BO21" s="58">
         <v>51</v>
@@ -7759,13 +7833,13 @@
         <v>50</v>
       </c>
       <c r="BQ21" s="58">
+        <v>60</v>
+      </c>
+      <c r="BR21" s="58">
         <v>58</v>
       </c>
-      <c r="BR21" s="58">
-        <v>57</v>
-      </c>
       <c r="BS21" s="58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BT21" s="58">
         <v>48</v>
@@ -7780,10 +7854,10 @@
         <v>41</v>
       </c>
       <c r="BX21" s="58">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BY21" s="58">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BZ21" s="58">
         <v>38</v>
@@ -7792,7 +7866,7 @@
         <v>32</v>
       </c>
       <c r="CB21" s="58">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CC21" s="58">
         <v>34</v>
@@ -7801,28 +7875,34 @@
         <v>30</v>
       </c>
       <c r="CE21" s="58">
+        <v>33</v>
+      </c>
+      <c r="CF21" s="58">
         <v>31</v>
       </c>
-      <c r="CF21" s="58">
-        <v>26</v>
-      </c>
       <c r="CG21" s="58">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CH21" s="58">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CI21" s="58">
-        <v>4</v>
-      </c>
-      <c r="CK21" s="57">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="CJ21" s="58">
+        <v>14</v>
+      </c>
+      <c r="CK21" s="58">
+        <v>3</v>
       </c>
       <c r="CM21" s="57">
-        <v>5003</v>
+        <v>0</v>
+      </c>
+      <c r="CO21" s="57">
+        <v>5067</v>
       </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -8018,7 +8098,7 @@
         <v>64</v>
       </c>
       <c r="BO22" s="58">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BP22" s="58">
         <v>39</v>
@@ -8027,13 +8107,13 @@
         <v>48</v>
       </c>
       <c r="BR22" s="58">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BS22" s="58">
         <v>50</v>
       </c>
       <c r="BT22" s="58">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BU22" s="58">
         <v>38</v>
@@ -8063,7 +8143,7 @@
         <v>35</v>
       </c>
       <c r="CD22" s="58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CE22" s="58">
         <v>26</v>
@@ -8075,19 +8155,25 @@
         <v>20</v>
       </c>
       <c r="CH22" s="58">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CI22" s="58">
-        <v>6</v>
-      </c>
-      <c r="CK22" s="57">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="CJ22" s="58">
+        <v>14</v>
+      </c>
+      <c r="CK22" s="58">
+        <v>7</v>
       </c>
       <c r="CM22" s="57">
-        <v>3651</v>
+        <v>0</v>
+      </c>
+      <c r="CO22" s="57">
+        <v>3691</v>
       </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -8133,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R23" s="58">
         <v>1</v>
@@ -8217,19 +8303,19 @@
         <v>118</v>
       </c>
       <c r="AS23" s="58">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AT23" s="58">
         <v>135</v>
       </c>
       <c r="AU23" s="58">
+        <v>126</v>
+      </c>
+      <c r="AV23" s="58">
         <v>125</v>
       </c>
-      <c r="AV23" s="58">
-        <v>124</v>
-      </c>
       <c r="AW23" s="58">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AX23" s="58">
         <v>114</v>
@@ -8253,13 +8339,13 @@
         <v>75</v>
       </c>
       <c r="BE23" s="58">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BF23" s="58">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BG23" s="58">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BH23" s="58">
         <v>65</v>
@@ -8328,7 +8414,7 @@
         <v>30</v>
       </c>
       <c r="CD23" s="58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CE23" s="58">
         <v>26</v>
@@ -8337,22 +8423,28 @@
         <v>31</v>
       </c>
       <c r="CG23" s="58">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CH23" s="58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CI23" s="58">
-        <v>7</v>
-      </c>
-      <c r="CK23" s="57">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="CJ23" s="58">
+        <v>12</v>
+      </c>
+      <c r="CK23" s="58">
+        <v>2</v>
       </c>
       <c r="CM23" s="57">
-        <v>3938</v>
+        <v>0</v>
+      </c>
+      <c r="CO23" s="57">
+        <v>3976</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -8551,7 +8643,7 @@
         <v>35</v>
       </c>
       <c r="BP24" s="58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BQ24" s="58">
         <v>35</v>
@@ -8593,7 +8685,7 @@
         <v>18</v>
       </c>
       <c r="CD24" s="58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CE24" s="58">
         <v>17</v>
@@ -8602,22 +8694,28 @@
         <v>12</v>
       </c>
       <c r="CG24" s="58">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CH24" s="58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CI24" s="58">
-        <v>4</v>
-      </c>
-      <c r="CK24" s="57">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="CJ24" s="58">
+        <v>3</v>
+      </c>
+      <c r="CK24" s="58">
+        <v>2</v>
       </c>
       <c r="CM24" s="57">
-        <v>2967</v>
+        <v>0</v>
+      </c>
+      <c r="CO24" s="57">
+        <v>2982</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -8864,7 +8962,7 @@
         <v>4</v>
       </c>
       <c r="CF25" s="63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG25" s="63">
         <v>1</v>
@@ -8873,13 +8971,19 @@
         <v>8</v>
       </c>
       <c r="CI25" s="63">
-        <v>3</v>
-      </c>
-      <c r="CK25" s="62">
+        <v>4</v>
+      </c>
+      <c r="CJ25" s="63">
+        <v>4</v>
+      </c>
+      <c r="CK25" s="63">
         <v>0</v>
       </c>
       <c r="CM25" s="62">
-        <v>1155</v>
+        <v>0</v>
+      </c>
+      <c r="CO25" s="62">
+        <v>1161</v>
       </c>
     </row>
   </sheetData>
@@ -8896,7 +9000,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="BX16:CI25">
+  <conditionalFormatting sqref="BX16:CK25">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>TODAY()-BX$16&lt;6</formula>
     </cfRule>
@@ -8907,8 +9011,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F18DCC3-EC64-4802-880A-711B5A1CF968}">
-  <dimension ref="A1:DB26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878EF2F9-8DDA-4A56-BD88-CB387A47DDF3}">
+  <dimension ref="A1:DD26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -8918,16 +9022,16 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
-    <col min="5" max="87" width="15.44140625" style="27" customWidth="1"/>
-    <col min="88" max="88" width="2.5546875" style="27" customWidth="1"/>
-    <col min="89" max="89" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
     <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="98" width="15.33203125" style="27" customWidth="1"/>
-    <col min="99" max="16384" width="9.109375" style="27"/>
+    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
+    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
+    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
+    <col min="101" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:91" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -9023,12 +9127,14 @@
       <c r="CG2" s="3"/>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
-      <c r="CJ2" s="10"/>
-      <c r="CK2" s="10"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
       <c r="CL2" s="10"/>
       <c r="CM2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
     </row>
-    <row r="3" spans="1:91" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -9120,12 +9226,14 @@
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
-      <c r="CJ3" s="10"/>
-      <c r="CK3" s="10"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
       <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
     </row>
-    <row r="4" spans="1:91" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -9217,12 +9325,14 @@
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
       <c r="CL4" s="10"/>
       <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
     </row>
-    <row r="5" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -9314,12 +9424,14 @@
       <c r="CG5" s="3"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
       <c r="CL5" s="10"/>
       <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
     </row>
-    <row r="6" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -9411,12 +9523,14 @@
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
       <c r="CL6" s="10"/>
       <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
     </row>
-    <row r="7" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -9508,12 +9622,14 @@
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
-      <c r="CJ7" s="10"/>
-      <c r="CK7" s="10"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
+      <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
     </row>
-    <row r="8" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -9605,12 +9721,14 @@
       <c r="CG8" s="3"/>
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
-      <c r="CJ8" s="10"/>
-      <c r="CK8" s="10"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
       <c r="CL8" s="10"/>
       <c r="CM8" s="10"/>
+      <c r="CN8" s="10"/>
+      <c r="CO8" s="10"/>
     </row>
-    <row r="9" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -9702,12 +9820,14 @@
       <c r="CG9" s="3"/>
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
-      <c r="CJ9" s="10"/>
-      <c r="CK9" s="10"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
       <c r="CL9" s="10"/>
       <c r="CM9" s="10"/>
+      <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
     </row>
-    <row r="10" spans="1:91" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -9799,12 +9919,14 @@
       <c r="CG10" s="3"/>
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
-      <c r="CJ10" s="10"/>
-      <c r="CK10" s="10"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
       <c r="CL10" s="10"/>
       <c r="CM10" s="10"/>
+      <c r="CN10" s="10"/>
+      <c r="CO10" s="10"/>
     </row>
-    <row r="11" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -9892,12 +10014,14 @@
       <c r="CG11" s="3"/>
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
-      <c r="CJ11" s="10"/>
-      <c r="CK11" s="10"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
       <c r="CL11" s="10"/>
       <c r="CM11" s="10"/>
+      <c r="CN11" s="10"/>
+      <c r="CO11" s="10"/>
     </row>
-    <row r="12" spans="1:91" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -9987,12 +10111,14 @@
       <c r="CG12" s="25"/>
       <c r="CH12" s="25"/>
       <c r="CI12" s="25"/>
-      <c r="CJ12" s="26"/>
-      <c r="CK12" s="26"/>
+      <c r="CJ12" s="25"/>
+      <c r="CK12" s="25"/>
       <c r="CL12" s="26"/>
       <c r="CM12" s="26"/>
+      <c r="CN12" s="26"/>
+      <c r="CO12" s="26"/>
     </row>
-    <row r="13" spans="1:91" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -10080,12 +10206,14 @@
       <c r="CG13" s="25"/>
       <c r="CH13" s="25"/>
       <c r="CI13" s="25"/>
-      <c r="CJ13" s="26"/>
-      <c r="CK13" s="26"/>
+      <c r="CJ13" s="25"/>
+      <c r="CK13" s="25"/>
       <c r="CL13" s="26"/>
       <c r="CM13" s="26"/>
+      <c r="CN13" s="26"/>
+      <c r="CO13" s="26"/>
     </row>
-    <row r="14" spans="1:91" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -10175,12 +10303,14 @@
       <c r="CG14" s="25"/>
       <c r="CH14" s="25"/>
       <c r="CI14" s="25"/>
-      <c r="CJ14" s="26"/>
-      <c r="CK14" s="26"/>
+      <c r="CJ14" s="25"/>
+      <c r="CK14" s="25"/>
       <c r="CL14" s="26"/>
       <c r="CM14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10238,18 +10368,19 @@
       <c r="BZ15" s="3"/>
       <c r="CA15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CE15" s="3" t="s">
+      <c r="CG15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CG15" s="23"/>
       <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
-      <c r="CJ15" s="28"/>
-      <c r="CK15" s="28"/>
+      <c r="CJ15" s="23"/>
+      <c r="CK15" s="23"/>
       <c r="CL15" s="28"/>
       <c r="CM15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CO15" s="28"/>
     </row>
-    <row r="16" spans="1:91" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -10507,14 +10638,20 @@
       <c r="CI16" s="43">
         <v>43973</v>
       </c>
-      <c r="CK16" s="43" t="s">
+      <c r="CJ16" s="43">
+        <v>43974</v>
+      </c>
+      <c r="CK16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CM16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CO16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -10700,7 +10837,7 @@
         <v>34</v>
       </c>
       <c r="BL17" s="47">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BM17" s="47">
         <v>27</v>
@@ -10712,16 +10849,16 @@
         <v>23</v>
       </c>
       <c r="BP17" s="47">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BQ17" s="47">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BR17" s="47">
         <v>25</v>
       </c>
       <c r="BS17" s="47">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BT17" s="47">
         <v>27</v>
@@ -10742,45 +10879,51 @@
         <v>23</v>
       </c>
       <c r="BZ17" s="47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CA17" s="47">
         <v>19</v>
       </c>
       <c r="CB17" s="47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CC17" s="47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CD17" s="47">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CE17" s="47">
         <v>16</v>
       </c>
       <c r="CF17" s="47">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CG17" s="47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CH17" s="47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CI17" s="47">
-        <v>7</v>
-      </c>
-      <c r="CJ17" s="40"/>
-      <c r="CK17" s="48">
+        <v>10</v>
+      </c>
+      <c r="CJ17" s="47">
+        <v>2</v>
+      </c>
+      <c r="CK17" s="47">
         <v>0</v>
       </c>
       <c r="CL17" s="40"/>
       <c r="CM17" s="48">
-        <v>643</v>
+        <v>0</v>
+      </c>
+      <c r="CN17" s="40"/>
+      <c r="CO17" s="48">
+        <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -10883,8 +11026,10 @@
       <c r="CZ18" s="49"/>
       <c r="DA18" s="49"/>
       <c r="DB18" s="49"/>
+      <c r="DC18" s="49"/>
+      <c r="DD18" s="49"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -11131,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="CF19" s="53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG19" s="53">
         <v>0</v>
@@ -11140,16 +11285,22 @@
         <v>3</v>
       </c>
       <c r="CI19" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="CJ19" s="53">
+        <v>0</v>
       </c>
       <c r="CK19" s="53">
         <v>0</v>
       </c>
       <c r="CM19" s="53">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="CO19" s="53">
+        <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -11399,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="CG20" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH20" s="58">
         <v>1</v>
@@ -11407,14 +11558,20 @@
       <c r="CI20" s="58">
         <v>0</v>
       </c>
-      <c r="CK20" s="57">
+      <c r="CJ20" s="58">
+        <v>1</v>
+      </c>
+      <c r="CK20" s="58">
         <v>0</v>
       </c>
       <c r="CM20" s="57">
-        <v>147</v>
+        <v>0</v>
+      </c>
+      <c r="CO20" s="57">
+        <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -11601,7 +11758,7 @@
         <v>5</v>
       </c>
       <c r="BL21" s="58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BM21" s="58">
         <v>1</v>
@@ -11613,10 +11770,10 @@
         <v>4</v>
       </c>
       <c r="BP21" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ21" s="58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR21" s="58">
         <v>2</v>
@@ -11643,7 +11800,7 @@
         <v>10</v>
       </c>
       <c r="BZ21" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA21" s="58">
         <v>1</v>
@@ -11667,19 +11824,25 @@
         <v>1</v>
       </c>
       <c r="CH21" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CI21" s="58">
         <v>1</v>
       </c>
-      <c r="CK21" s="57">
+      <c r="CJ21" s="58">
+        <v>0</v>
+      </c>
+      <c r="CK21" s="58">
         <v>0</v>
       </c>
       <c r="CM21" s="57">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="CO21" s="57">
+        <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -11935,16 +12098,22 @@
         <v>1</v>
       </c>
       <c r="CI22" s="58">
-        <v>2</v>
-      </c>
-      <c r="CK22" s="57">
+        <v>3</v>
+      </c>
+      <c r="CJ22" s="58">
+        <v>0</v>
+      </c>
+      <c r="CK22" s="58">
         <v>0</v>
       </c>
       <c r="CM22" s="57">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="CO22" s="57">
+        <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -12179,13 +12348,13 @@
         <v>5</v>
       </c>
       <c r="CB23" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC23" s="58">
         <v>0</v>
       </c>
       <c r="CD23" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE23" s="58">
         <v>1</v>
@@ -12202,14 +12371,20 @@
       <c r="CI23" s="58">
         <v>0</v>
       </c>
-      <c r="CK23" s="57">
+      <c r="CJ23" s="58">
+        <v>0</v>
+      </c>
+      <c r="CK23" s="58">
         <v>0</v>
       </c>
       <c r="CM23" s="57">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="CO23" s="57">
+        <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -12417,7 +12592,7 @@
         <v>3</v>
       </c>
       <c r="BS24" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT24" s="58">
         <v>2</v>
@@ -12447,10 +12622,10 @@
         <v>2</v>
       </c>
       <c r="CC24" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD24" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE24" s="58">
         <v>2</v>
@@ -12459,22 +12634,28 @@
         <v>1</v>
       </c>
       <c r="CG24" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH24" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI24" s="58">
         <v>1</v>
       </c>
-      <c r="CK24" s="57">
+      <c r="CJ24" s="58">
+        <v>1</v>
+      </c>
+      <c r="CK24" s="58">
         <v>0</v>
       </c>
       <c r="CM24" s="57">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="CO24" s="57">
+        <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -12732,14 +12913,20 @@
       <c r="CI25" s="63">
         <v>2</v>
       </c>
-      <c r="CK25" s="62">
+      <c r="CJ25" s="63">
+        <v>0</v>
+      </c>
+      <c r="CK25" s="63">
         <v>0</v>
       </c>
       <c r="CM25" s="62">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="62">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
       <c r="BZ26" s="68"/>
       <c r="CA26" s="68"/>
     </row>
@@ -12757,7 +12944,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CI25">
+  <conditionalFormatting sqref="D16:CK25">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -12768,8 +12955,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AFC2F3-D472-4A5C-A088-FE03D1D72CC1}">
-  <dimension ref="A1:DB35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365FAC8-0E09-4847-BB6B-FEFD1FDE74A6}">
+  <dimension ref="A1:DD35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -12779,16 +12966,16 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" style="27" customWidth="1"/>
-    <col min="5" max="87" width="15.44140625" style="27" customWidth="1"/>
-    <col min="88" max="88" width="2.5546875" style="27" customWidth="1"/>
-    <col min="89" max="89" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
     <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="98" width="15.33203125" style="27" customWidth="1"/>
-    <col min="99" max="16384" width="9.109375" style="27"/>
+    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
+    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
+    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
+    <col min="101" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:91" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -12886,11 +13073,13 @@
       <c r="CG2" s="3"/>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
-      <c r="CJ2" s="10"/>
-      <c r="CK2" s="10"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="10"/>
       <c r="CM2" s="10"/>
+      <c r="CO2" s="10"/>
     </row>
-    <row r="3" spans="1:91" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -12982,11 +13171,13 @@
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
-      <c r="CJ3" s="10"/>
-      <c r="CK3" s="10"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
+      <c r="CO3" s="10"/>
     </row>
-    <row r="4" spans="1:91" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -13078,11 +13269,13 @@
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="10"/>
       <c r="CM4" s="10"/>
+      <c r="CO4" s="10"/>
     </row>
-    <row r="5" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -13174,11 +13367,13 @@
       <c r="CG5" s="3"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="10"/>
       <c r="CM5" s="10"/>
+      <c r="CO5" s="10"/>
     </row>
-    <row r="6" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -13270,11 +13465,13 @@
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="10"/>
       <c r="CM6" s="10"/>
+      <c r="CO6" s="10"/>
     </row>
-    <row r="7" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -13366,11 +13563,13 @@
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
-      <c r="CJ7" s="10"/>
-      <c r="CK7" s="10"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
+      <c r="CO7" s="10"/>
     </row>
-    <row r="8" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -13462,11 +13661,13 @@
       <c r="CG8" s="3"/>
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
-      <c r="CJ8" s="10"/>
-      <c r="CK8" s="10"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="10"/>
       <c r="CM8" s="10"/>
+      <c r="CO8" s="10"/>
     </row>
-    <row r="9" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -13558,11 +13759,13 @@
       <c r="CG9" s="3"/>
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
-      <c r="CJ9" s="10"/>
-      <c r="CK9" s="10"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="10"/>
       <c r="CM9" s="10"/>
+      <c r="CO9" s="10"/>
     </row>
-    <row r="10" spans="1:91" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -13654,11 +13857,13 @@
       <c r="CG10" s="3"/>
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
-      <c r="CJ10" s="10"/>
-      <c r="CK10" s="10"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
+      <c r="CL10" s="10"/>
       <c r="CM10" s="10"/>
+      <c r="CO10" s="10"/>
     </row>
-    <row r="11" spans="1:91" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13746,11 +13951,13 @@
       <c r="CG11" s="3"/>
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
-      <c r="CJ11" s="10"/>
-      <c r="CK11" s="35"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="10"/>
       <c r="CM11" s="35"/>
+      <c r="CO11" s="35"/>
     </row>
-    <row r="12" spans="1:91" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>48</v>
@@ -13840,11 +14047,13 @@
       <c r="CG12" s="25"/>
       <c r="CH12" s="25"/>
       <c r="CI12" s="25"/>
-      <c r="CJ12" s="26"/>
-      <c r="CK12" s="26"/>
+      <c r="CJ12" s="25"/>
+      <c r="CK12" s="25"/>
+      <c r="CL12" s="26"/>
       <c r="CM12" s="26"/>
+      <c r="CO12" s="26"/>
     </row>
-    <row r="13" spans="1:91" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -13932,11 +14141,13 @@
       <c r="CG13" s="25"/>
       <c r="CH13" s="25"/>
       <c r="CI13" s="25"/>
-      <c r="CJ13" s="26"/>
-      <c r="CK13" s="26"/>
+      <c r="CJ13" s="25"/>
+      <c r="CK13" s="25"/>
+      <c r="CL13" s="26"/>
       <c r="CM13" s="26"/>
+      <c r="CO13" s="26"/>
     </row>
-    <row r="14" spans="1:91" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -14026,11 +14237,13 @@
       <c r="CG14" s="25"/>
       <c r="CH14" s="25"/>
       <c r="CI14" s="25"/>
-      <c r="CJ14" s="26"/>
-      <c r="CK14" s="26"/>
+      <c r="CJ14" s="25"/>
+      <c r="CK14" s="25"/>
+      <c r="CL14" s="26"/>
       <c r="CM14" s="26"/>
+      <c r="CO14" s="26"/>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14084,17 +14297,18 @@
       <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CE15" s="3" t="s">
+      <c r="CG15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CG15" s="23"/>
       <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
-      <c r="CJ15" s="28"/>
-      <c r="CK15" s="28"/>
+      <c r="CJ15" s="23"/>
+      <c r="CK15" s="23"/>
+      <c r="CL15" s="28"/>
       <c r="CM15" s="28"/>
+      <c r="CO15" s="28"/>
     </row>
-    <row r="16" spans="1:91" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>49</v>
@@ -14352,14 +14566,20 @@
       <c r="CI16" s="43">
         <v>43973</v>
       </c>
-      <c r="CK16" s="43" t="s">
+      <c r="CJ16" s="43">
+        <v>43974</v>
+      </c>
+      <c r="CK16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CM16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CO16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>35</v>
       </c>
@@ -14404,7 +14624,7 @@
         <v>14</v>
       </c>
       <c r="Q17" s="71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R17" s="71">
         <v>23</v>
@@ -14449,7 +14669,7 @@
         <v>349</v>
       </c>
       <c r="AF17" s="71">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG17" s="71">
         <v>437</v>
@@ -14488,19 +14708,19 @@
         <v>784</v>
       </c>
       <c r="AS17" s="71">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AT17" s="71">
         <v>771</v>
       </c>
       <c r="AU17" s="71">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AV17" s="71">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW17" s="71">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AX17" s="71">
         <v>683</v>
@@ -14524,25 +14744,25 @@
         <v>479</v>
       </c>
       <c r="BE17" s="71">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="BF17" s="71">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="BG17" s="71">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="BH17" s="71">
         <v>381</v>
       </c>
       <c r="BI17" s="71">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BJ17" s="71">
         <v>343</v>
       </c>
       <c r="BK17" s="71">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BL17" s="71">
         <v>319</v>
@@ -14551,79 +14771,85 @@
         <v>302</v>
       </c>
       <c r="BN17" s="71">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BO17" s="71">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BP17" s="71">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BQ17" s="71">
+        <v>251</v>
+      </c>
+      <c r="BR17" s="71">
+        <v>247</v>
+      </c>
+      <c r="BS17" s="71">
         <v>249</v>
       </c>
-      <c r="BR17" s="71">
-        <v>245</v>
-      </c>
-      <c r="BS17" s="71">
-        <v>248</v>
-      </c>
       <c r="BT17" s="71">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BU17" s="71">
         <v>201</v>
       </c>
       <c r="BV17" s="71">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BW17" s="71">
         <v>188</v>
       </c>
       <c r="BX17" s="71">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BY17" s="71">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BZ17" s="71">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA17" s="71">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CB17" s="71">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="CC17" s="71">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="CD17" s="71">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="CE17" s="71">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CF17" s="71">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="CG17" s="71">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="CH17" s="71">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="CI17" s="71">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="CJ17" s="71">
+        <v>56</v>
       </c>
       <c r="CK17" s="71">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CM17" s="71">
-        <v>25545</v>
+        <v>0</v>
+      </c>
+      <c r="CO17" s="71">
+        <v>25751</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -14726,8 +14952,10 @@
       <c r="CZ18" s="49"/>
       <c r="DA18" s="49"/>
       <c r="DB18" s="49"/>
+      <c r="DC18" s="49"/>
+      <c r="DD18" s="49"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="72" t="s">
         <v>50</v>
@@ -14985,14 +15213,20 @@
       <c r="CI19" s="53">
         <v>0</v>
       </c>
+      <c r="CJ19" s="53">
+        <v>0</v>
+      </c>
       <c r="CK19" s="53">
         <v>0</v>
       </c>
       <c r="CM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="53">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="74" t="s">
         <v>51</v>
@@ -15250,14 +15484,20 @@
       <c r="CI20" s="57">
         <v>0</v>
       </c>
+      <c r="CJ20" s="57">
+        <v>0</v>
+      </c>
       <c r="CK20" s="57">
         <v>0</v>
       </c>
       <c r="CM20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="57">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="74" t="s">
         <v>52</v>
@@ -15348,7 +15588,7 @@
         <v>30</v>
       </c>
       <c r="AF21" s="58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG21" s="58">
         <v>38</v>
@@ -15507,22 +15747,28 @@
         <v>7</v>
       </c>
       <c r="CG21" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CH21" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CI21" s="57">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="CJ21" s="57">
+        <v>4</v>
       </c>
       <c r="CK21" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM21" s="57">
-        <v>2026</v>
+        <v>0</v>
+      </c>
+      <c r="CO21" s="57">
+        <v>2036</v>
       </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="74" t="s">
         <v>53</v>
@@ -15658,13 +15904,13 @@
         <v>316</v>
       </c>
       <c r="AU22" s="58">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AV22" s="58">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AW22" s="58">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AX22" s="58">
         <v>257</v>
@@ -15688,13 +15934,13 @@
         <v>162</v>
       </c>
       <c r="BE22" s="58">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BF22" s="58">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BG22" s="58">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BH22" s="58">
         <v>155</v>
@@ -15706,7 +15952,7 @@
         <v>123</v>
       </c>
       <c r="BK22" s="58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL22" s="58">
         <v>113</v>
@@ -15715,16 +15961,16 @@
         <v>103</v>
       </c>
       <c r="BN22" s="58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BO22" s="58">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BP22" s="58">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BQ22" s="58">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BR22" s="58">
         <v>93</v>
@@ -15733,61 +15979,67 @@
         <v>102</v>
       </c>
       <c r="BT22" s="58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BU22" s="58">
         <v>76</v>
       </c>
       <c r="BV22" s="58">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BW22" s="58">
         <v>57</v>
       </c>
       <c r="BX22" s="58">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BY22" s="58">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BZ22" s="58">
         <v>54</v>
       </c>
       <c r="CA22" s="58">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CB22" s="58">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="CC22" s="58">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CD22" s="58">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CE22" s="58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CF22" s="58">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CG22" s="57">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CH22" s="57">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="CI22" s="57">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="CJ22" s="57">
+        <v>14</v>
       </c>
       <c r="CK22" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM22" s="57">
-        <v>9814</v>
+        <v>0</v>
+      </c>
+      <c r="CO22" s="57">
+        <v>9881</v>
       </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="74" t="s">
         <v>54</v>
@@ -15833,7 +16085,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R23" s="58">
         <v>9</v>
@@ -15917,7 +16169,7 @@
         <v>379</v>
       </c>
       <c r="AS23" s="58">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AT23" s="58">
         <v>372</v>
@@ -15956,16 +16208,16 @@
         <v>251</v>
       </c>
       <c r="BF23" s="58">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BG23" s="58">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BH23" s="58">
         <v>189</v>
       </c>
       <c r="BI23" s="58">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BJ23" s="58">
         <v>186</v>
@@ -15989,13 +16241,13 @@
         <v>140</v>
       </c>
       <c r="BQ23" s="58">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BR23" s="58">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BS23" s="58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BT23" s="58">
         <v>139</v>
@@ -16004,7 +16256,7 @@
         <v>112</v>
       </c>
       <c r="BV23" s="58">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BW23" s="58">
         <v>118</v>
@@ -16013,46 +16265,52 @@
         <v>96</v>
       </c>
       <c r="BY23" s="58">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BZ23" s="58">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CA23" s="58">
         <v>99</v>
       </c>
       <c r="CB23" s="58">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="CC23" s="58">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CD23" s="58">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="CE23" s="58">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CF23" s="58">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="CG23" s="57">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="CH23" s="57">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="CI23" s="57">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="CJ23" s="57">
+        <v>38</v>
       </c>
       <c r="CK23" s="57">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="CM23" s="57">
-        <v>13507</v>
+        <v>0</v>
+      </c>
+      <c r="CO23" s="57">
+        <v>13636</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="76" t="s">
         <v>55</v>
@@ -16142,10 +16400,12 @@
       <c r="CG24" s="62"/>
       <c r="CH24" s="62"/>
       <c r="CI24" s="62"/>
+      <c r="CJ24" s="62"/>
       <c r="CK24" s="62"/>
       <c r="CM24" s="62"/>
+      <c r="CO24" s="62"/>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
       <c r="C28" s="80"/>
     </row>
     <row r="35" spans="4:44" x14ac:dyDescent="0.3">
@@ -16197,7 +16457,7 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CI24">
+  <conditionalFormatting sqref="D16:CK24">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -16208,10 +16468,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6CE774-8984-4FB4-9D71-1E731661CEDF}">
-  <dimension ref="A1:DD248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CC4CE5-8236-4BCA-92B8-B11B5664E971}">
+  <dimension ref="A1:DF248"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16221,16 +16481,16 @@
     <col min="4" max="4" width="9.6640625" style="27" customWidth="1"/>
     <col min="5" max="5" width="91.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="89" width="15.44140625" style="27" customWidth="1"/>
-    <col min="90" max="90" width="2.6640625" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.44140625" style="27" customWidth="1"/>
+    <col min="7" max="91" width="15.44140625" style="27" customWidth="1"/>
     <col min="92" max="92" width="2.6640625" style="27" customWidth="1"/>
-    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.109375" style="27"/>
+    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
+    <col min="94" max="94" width="2.6640625" style="27" customWidth="1"/>
+    <col min="95" max="102" width="15.33203125" style="27" customWidth="1"/>
+    <col min="103" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:95" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:95" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -16330,12 +16590,14 @@
       <c r="CI2" s="21"/>
       <c r="CJ2" s="21"/>
       <c r="CK2" s="21"/>
-      <c r="CL2" s="10"/>
-      <c r="CM2" s="10"/>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
       <c r="CN2" s="10"/>
       <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
     </row>
-    <row r="3" spans="1:93" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -16429,12 +16691,14 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
-      <c r="CL3" s="10"/>
-      <c r="CM3" s="10"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
       <c r="CN3" s="10"/>
       <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
     </row>
-    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -16528,12 +16792,14 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
-      <c r="CL4" s="10"/>
-      <c r="CM4" s="10"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
       <c r="CN4" s="10"/>
       <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
     </row>
-    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -16627,12 +16893,14 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
       <c r="CN5" s="10"/>
       <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
     </row>
-    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -16726,12 +16994,14 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
       <c r="CN6" s="10"/>
       <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -16825,12 +17095,14 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="10"/>
-      <c r="CM7" s="10"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
+      <c r="CQ7" s="10"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -16924,12 +17196,14 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="10"/>
-      <c r="CM8" s="10"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
+      <c r="CQ8" s="10"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -17023,12 +17297,14 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="10"/>
-      <c r="CM9" s="10"/>
+      <c r="CL9" s="3"/>
+      <c r="CM9" s="3"/>
       <c r="CN9" s="10"/>
       <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
+      <c r="CQ9" s="10"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:95" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -17122,12 +17398,14 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
-      <c r="CL10" s="10"/>
-      <c r="CM10" s="35"/>
+      <c r="CL10" s="3"/>
+      <c r="CM10" s="3"/>
       <c r="CN10" s="10"/>
       <c r="CO10" s="35"/>
+      <c r="CP10" s="10"/>
+      <c r="CQ10" s="35"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -17217,12 +17495,14 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="10"/>
-      <c r="CM11" s="10"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
       <c r="CN11" s="10"/>
       <c r="CO11" s="10"/>
+      <c r="CP11" s="10"/>
+      <c r="CQ11" s="10"/>
     </row>
-    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:95" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>58</v>
@@ -17314,12 +17594,14 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="26"/>
-      <c r="CM12" s="26"/>
+      <c r="CL12" s="25"/>
+      <c r="CM12" s="25"/>
       <c r="CN12" s="26"/>
       <c r="CO12" s="26"/>
+      <c r="CP12" s="26"/>
+      <c r="CQ12" s="26"/>
     </row>
-    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:95" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -17409,12 +17691,14 @@
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
-      <c r="CL13" s="26"/>
-      <c r="CM13" s="26"/>
+      <c r="CL13" s="25"/>
+      <c r="CM13" s="25"/>
       <c r="CN13" s="26"/>
       <c r="CO13" s="26"/>
+      <c r="CP13" s="26"/>
+      <c r="CQ13" s="26"/>
     </row>
-    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:95" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -17506,12 +17790,14 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="26"/>
-      <c r="CM14" s="26"/>
+      <c r="CL14" s="25"/>
+      <c r="CM14" s="25"/>
       <c r="CN14" s="26"/>
       <c r="CO14" s="26"/>
+      <c r="CP14" s="26"/>
+      <c r="CQ14" s="26"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17591,18 +17877,19 @@
       <c r="CB15" s="3"/>
       <c r="CC15" s="3"/>
       <c r="CE15" s="3"/>
-      <c r="CG15" s="3" t="s">
+      <c r="CI15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CI15" s="3"/>
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
-      <c r="CL15" s="28"/>
-      <c r="CM15" s="28"/>
+      <c r="CL15" s="3"/>
+      <c r="CM15" s="3"/>
       <c r="CN15" s="28"/>
       <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
+      <c r="CQ15" s="28"/>
     </row>
-    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:95" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="86" t="s">
         <v>32</v>
@@ -17866,14 +18153,20 @@
       <c r="CK16" s="43">
         <v>43973</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CL16" s="43">
+        <v>43974</v>
+      </c>
+      <c r="CM16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CO16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CQ16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
@@ -17924,7 +18217,7 @@
         <v>14</v>
       </c>
       <c r="S17" s="71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T17" s="71">
         <v>23</v>
@@ -17969,7 +18262,7 @@
         <v>349</v>
       </c>
       <c r="AH17" s="71">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI17" s="71">
         <v>437</v>
@@ -18008,19 +18301,19 @@
         <v>784</v>
       </c>
       <c r="AU17" s="71">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AV17" s="71">
         <v>771</v>
       </c>
       <c r="AW17" s="71">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AX17" s="71">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AY17" s="71">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AZ17" s="71">
         <v>683</v>
@@ -18044,25 +18337,25 @@
         <v>479</v>
       </c>
       <c r="BG17" s="71">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="BH17" s="71">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="BI17" s="71">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="BJ17" s="71">
         <v>381</v>
       </c>
       <c r="BK17" s="71">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BL17" s="71">
         <v>343</v>
       </c>
       <c r="BM17" s="71">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BN17" s="71">
         <v>319</v>
@@ -18071,81 +18364,87 @@
         <v>302</v>
       </c>
       <c r="BP17" s="71">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BQ17" s="71">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BR17" s="71">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BS17" s="71">
+        <v>251</v>
+      </c>
+      <c r="BT17" s="71">
+        <v>247</v>
+      </c>
+      <c r="BU17" s="71">
         <v>249</v>
       </c>
-      <c r="BT17" s="71">
-        <v>245</v>
-      </c>
-      <c r="BU17" s="71">
-        <v>248</v>
-      </c>
       <c r="BV17" s="71">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BW17" s="71">
         <v>201</v>
       </c>
       <c r="BX17" s="71">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BY17" s="71">
         <v>188</v>
       </c>
       <c r="BZ17" s="71">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA17" s="71">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="CB17" s="71">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CC17" s="71">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CD17" s="71">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="CE17" s="71">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="CF17" s="71">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="CG17" s="71">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CH17" s="71">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="CI17" s="71">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="CJ17" s="71">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="CK17" s="71">
-        <v>30</v>
-      </c>
-      <c r="CL17" s="91"/>
+        <v>75</v>
+      </c>
+      <c r="CL17" s="71">
+        <v>56</v>
+      </c>
       <c r="CM17" s="71">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="CN17" s="91"/>
       <c r="CO17" s="71">
-        <v>25545</v>
-      </c>
-      <c r="CQ17" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="71">
+        <v>25751</v>
+      </c>
+      <c r="CS17" s="92"/>
     </row>
-    <row r="18" spans="1:108" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:110" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -18229,9 +18528,9 @@
       <c r="CI18" s="49"/>
       <c r="CJ18" s="49"/>
       <c r="CK18" s="49"/>
-      <c r="CL18" s="93"/>
+      <c r="CL18" s="49"/>
       <c r="CM18" s="49"/>
-      <c r="CN18" s="49"/>
+      <c r="CN18" s="93"/>
       <c r="CO18" s="49"/>
       <c r="CP18" s="49"/>
       <c r="CQ18" s="49"/>
@@ -18248,8 +18547,10 @@
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
+      <c r="DF18" s="49"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="94" t="s">
         <v>37</v>
@@ -18513,17 +18814,23 @@
       <c r="CK19" s="53">
         <v>0</v>
       </c>
-      <c r="CL19" s="98"/>
+      <c r="CL19" s="53">
+        <v>0</v>
+      </c>
       <c r="CM19" s="53">
         <v>0</v>
       </c>
-      <c r="CN19" s="99"/>
+      <c r="CN19" s="98"/>
       <c r="CO19" s="53">
-        <v>3</v>
-      </c>
-      <c r="CQ19" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="CP19" s="99"/>
+      <c r="CQ19" s="53">
+        <v>3</v>
+      </c>
+      <c r="CS19" s="92"/>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="100" t="s">
         <v>37</v>
@@ -18787,17 +19094,23 @@
       <c r="CK20" s="104">
         <v>0</v>
       </c>
-      <c r="CL20" s="99"/>
+      <c r="CL20" s="104">
+        <v>0</v>
+      </c>
       <c r="CM20" s="104">
         <v>0</v>
       </c>
       <c r="CN20" s="99"/>
       <c r="CO20" s="104">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="99"/>
+      <c r="CQ20" s="104">
         <v>21</v>
       </c>
-      <c r="CQ20" s="92"/>
+      <c r="CS20" s="92"/>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="100" t="s">
         <v>37</v>
@@ -19059,19 +19372,25 @@
         <v>1</v>
       </c>
       <c r="CK21" s="104">
-        <v>0</v>
-      </c>
-      <c r="CL21" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="CL21" s="104">
+        <v>1</v>
+      </c>
       <c r="CM21" s="104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN21" s="99"/>
       <c r="CO21" s="104">
-        <v>262</v>
-      </c>
-      <c r="CQ21" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="CP21" s="99"/>
+      <c r="CQ21" s="104">
+        <v>267</v>
+      </c>
+      <c r="CS21" s="92"/>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="100" t="s">
         <v>37</v>
@@ -19335,16 +19654,22 @@
       <c r="CK22" s="57">
         <v>0</v>
       </c>
-      <c r="CL22" s="99"/>
+      <c r="CL22" s="57">
+        <v>0</v>
+      </c>
       <c r="CM22" s="57">
         <v>0</v>
       </c>
       <c r="CN22" s="99"/>
       <c r="CO22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="99"/>
+      <c r="CQ22" s="57">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="100" t="s">
         <v>37</v>
@@ -19608,16 +19933,22 @@
       <c r="CK23" s="57">
         <v>0</v>
       </c>
-      <c r="CL23" s="99"/>
+      <c r="CL23" s="57">
+        <v>0</v>
+      </c>
       <c r="CM23" s="57">
         <v>0</v>
       </c>
       <c r="CN23" s="99"/>
       <c r="CO23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="99"/>
+      <c r="CQ23" s="57">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="100" t="s">
         <v>37</v>
@@ -19881,16 +20212,22 @@
       <c r="CK24" s="57">
         <v>0</v>
       </c>
-      <c r="CL24" s="99"/>
+      <c r="CL24" s="57">
+        <v>0</v>
+      </c>
       <c r="CM24" s="57">
         <v>0</v>
       </c>
       <c r="CN24" s="99"/>
       <c r="CO24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="99"/>
+      <c r="CQ24" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="100" t="s">
         <v>37</v>
@@ -20152,18 +20489,24 @@
         <v>1</v>
       </c>
       <c r="CK25" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL25" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL25" s="57">
+        <v>0</v>
+      </c>
       <c r="CM25" s="57">
         <v>0</v>
       </c>
       <c r="CN25" s="99"/>
       <c r="CO25" s="57">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="CP25" s="99"/>
+      <c r="CQ25" s="57">
+        <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="100" t="s">
         <v>37</v>
@@ -20427,16 +20770,22 @@
       <c r="CK26" s="57">
         <v>0</v>
       </c>
-      <c r="CL26" s="99"/>
+      <c r="CL26" s="57">
+        <v>0</v>
+      </c>
       <c r="CM26" s="57">
         <v>0</v>
       </c>
       <c r="CN26" s="99"/>
       <c r="CO26" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP26" s="99"/>
+      <c r="CQ26" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A27" s="27"/>
       <c r="B27" s="100" t="s">
         <v>37</v>
@@ -20700,16 +21049,22 @@
       <c r="CK27" s="57">
         <v>0</v>
       </c>
-      <c r="CL27" s="99"/>
+      <c r="CL27" s="57">
+        <v>2</v>
+      </c>
       <c r="CM27" s="57">
         <v>0</v>
       </c>
       <c r="CN27" s="99"/>
       <c r="CO27" s="57">
-        <v>316</v>
+        <v>0</v>
+      </c>
+      <c r="CP27" s="99"/>
+      <c r="CQ27" s="57">
+        <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="100" t="s">
         <v>37</v>
@@ -20973,16 +21328,22 @@
       <c r="CK28" s="57">
         <v>0</v>
       </c>
-      <c r="CL28" s="99"/>
+      <c r="CL28" s="57">
+        <v>0</v>
+      </c>
       <c r="CM28" s="57">
         <v>0</v>
       </c>
       <c r="CN28" s="99"/>
       <c r="CO28" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP28" s="99"/>
+      <c r="CQ28" s="57">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="100" t="s">
         <v>37</v>
@@ -21246,16 +21607,22 @@
       <c r="CK29" s="57">
         <v>0</v>
       </c>
-      <c r="CL29" s="99"/>
+      <c r="CL29" s="57">
+        <v>0</v>
+      </c>
       <c r="CM29" s="57">
         <v>0</v>
       </c>
       <c r="CN29" s="99"/>
       <c r="CO29" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP29" s="99"/>
+      <c r="CQ29" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="100" t="s">
         <v>37</v>
@@ -21519,16 +21886,22 @@
       <c r="CK30" s="57">
         <v>0</v>
       </c>
-      <c r="CL30" s="99"/>
+      <c r="CL30" s="57">
+        <v>0</v>
+      </c>
       <c r="CM30" s="57">
         <v>0</v>
       </c>
       <c r="CN30" s="99"/>
       <c r="CO30" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP30" s="99"/>
+      <c r="CQ30" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="100" t="s">
         <v>37</v>
@@ -21792,16 +22165,22 @@
       <c r="CK31" s="57">
         <v>0</v>
       </c>
-      <c r="CL31" s="99"/>
+      <c r="CL31" s="57">
+        <v>1</v>
+      </c>
       <c r="CM31" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN31" s="99"/>
       <c r="CO31" s="57">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="CP31" s="99"/>
+      <c r="CQ31" s="57">
+        <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
       <c r="B32" s="100" t="s">
         <v>37</v>
@@ -22024,7 +22403,7 @@
         <v>4</v>
       </c>
       <c r="BX32" s="57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BY32" s="57">
         <v>2</v>
@@ -22033,22 +22412,22 @@
         <v>0</v>
       </c>
       <c r="CA32" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB32" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC32" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD32" s="57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE32" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF32" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG32" s="57">
         <v>0</v>
@@ -22065,16 +22444,22 @@
       <c r="CK32" s="57">
         <v>0</v>
       </c>
-      <c r="CL32" s="99"/>
+      <c r="CL32" s="57">
+        <v>0</v>
+      </c>
       <c r="CM32" s="57">
         <v>0</v>
       </c>
       <c r="CN32" s="99"/>
       <c r="CO32" s="57">
-        <v>222</v>
+        <v>0</v>
+      </c>
+      <c r="CP32" s="99"/>
+      <c r="CQ32" s="57">
+        <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="100" t="s">
         <v>37</v>
@@ -22336,18 +22721,24 @@
         <v>0</v>
       </c>
       <c r="CK33" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL33" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL33" s="57">
+        <v>0</v>
+      </c>
       <c r="CM33" s="57">
         <v>0</v>
       </c>
       <c r="CN33" s="99"/>
       <c r="CO33" s="57">
-        <v>178</v>
+        <v>0</v>
+      </c>
+      <c r="CP33" s="99"/>
+      <c r="CQ33" s="57">
+        <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="100" t="s">
         <v>37</v>
@@ -22611,16 +23002,22 @@
       <c r="CK34" s="57">
         <v>0</v>
       </c>
-      <c r="CL34" s="99"/>
+      <c r="CL34" s="57">
+        <v>0</v>
+      </c>
       <c r="CM34" s="57">
         <v>0</v>
       </c>
       <c r="CN34" s="99"/>
       <c r="CO34" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP34" s="99"/>
+      <c r="CQ34" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="100" t="s">
         <v>37</v>
@@ -22884,16 +23281,22 @@
       <c r="CK35" s="57">
         <v>0</v>
       </c>
-      <c r="CL35" s="99"/>
+      <c r="CL35" s="57">
+        <v>0</v>
+      </c>
       <c r="CM35" s="57">
         <v>0</v>
       </c>
       <c r="CN35" s="99"/>
       <c r="CO35" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP35" s="99"/>
+      <c r="CQ35" s="57">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="100" t="s">
         <v>37</v>
@@ -23157,16 +23560,22 @@
       <c r="CK36" s="57">
         <v>0</v>
       </c>
-      <c r="CL36" s="99"/>
+      <c r="CL36" s="57">
+        <v>0</v>
+      </c>
       <c r="CM36" s="57">
         <v>0</v>
       </c>
       <c r="CN36" s="99"/>
       <c r="CO36" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP36" s="99"/>
+      <c r="CQ36" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="100" t="s">
         <v>37</v>
@@ -23430,16 +23839,22 @@
       <c r="CK37" s="57">
         <v>0</v>
       </c>
-      <c r="CL37" s="99"/>
+      <c r="CL37" s="57">
+        <v>0</v>
+      </c>
       <c r="CM37" s="57">
         <v>0</v>
       </c>
       <c r="CN37" s="99"/>
       <c r="CO37" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP37" s="99"/>
+      <c r="CQ37" s="57">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="100" t="s">
         <v>37</v>
@@ -23695,24 +24110,30 @@
         <v>5</v>
       </c>
       <c r="CI38" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ38" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK38" s="57">
-        <v>1</v>
-      </c>
-      <c r="CL38" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="CL38" s="57">
+        <v>0</v>
+      </c>
       <c r="CM38" s="57">
         <v>0</v>
       </c>
       <c r="CN38" s="99"/>
       <c r="CO38" s="57">
-        <v>188</v>
+        <v>0</v>
+      </c>
+      <c r="CP38" s="99"/>
+      <c r="CQ38" s="57">
+        <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="100" t="s">
         <v>37</v>
@@ -23976,16 +24397,22 @@
       <c r="CK39" s="57">
         <v>0</v>
       </c>
-      <c r="CL39" s="99"/>
+      <c r="CL39" s="57">
+        <v>0</v>
+      </c>
       <c r="CM39" s="57">
         <v>0</v>
       </c>
       <c r="CN39" s="99"/>
       <c r="CO39" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP39" s="99"/>
+      <c r="CQ39" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="100" t="s">
         <v>37</v>
@@ -24249,16 +24676,22 @@
       <c r="CK40" s="57">
         <v>0</v>
       </c>
-      <c r="CL40" s="99"/>
+      <c r="CL40" s="57">
+        <v>0</v>
+      </c>
       <c r="CM40" s="57">
         <v>0</v>
       </c>
       <c r="CN40" s="99"/>
       <c r="CO40" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP40" s="99"/>
+      <c r="CQ40" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="100" t="s">
         <v>37</v>
@@ -24522,16 +24955,22 @@
       <c r="CK41" s="57">
         <v>0</v>
       </c>
-      <c r="CL41" s="99"/>
+      <c r="CL41" s="57">
+        <v>0</v>
+      </c>
       <c r="CM41" s="57">
         <v>0</v>
       </c>
       <c r="CN41" s="99"/>
       <c r="CO41" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP41" s="99"/>
+      <c r="CQ41" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="100" t="s">
         <v>37</v>
@@ -24795,16 +25234,22 @@
       <c r="CK42" s="57">
         <v>0</v>
       </c>
-      <c r="CL42" s="99"/>
+      <c r="CL42" s="57">
+        <v>0</v>
+      </c>
       <c r="CM42" s="57">
         <v>0</v>
       </c>
       <c r="CN42" s="99"/>
       <c r="CO42" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP42" s="99"/>
+      <c r="CQ42" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="100" t="s">
         <v>37</v>
@@ -25068,16 +25513,22 @@
       <c r="CK43" s="57">
         <v>0</v>
       </c>
-      <c r="CL43" s="99"/>
+      <c r="CL43" s="57">
+        <v>0</v>
+      </c>
       <c r="CM43" s="57">
         <v>0</v>
       </c>
       <c r="CN43" s="99"/>
       <c r="CO43" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP43" s="99"/>
+      <c r="CQ43" s="57">
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
       <c r="B44" s="100" t="s">
         <v>37</v>
@@ -25341,16 +25792,22 @@
       <c r="CK44" s="57">
         <v>0</v>
       </c>
-      <c r="CL44" s="99"/>
+      <c r="CL44" s="57">
+        <v>0</v>
+      </c>
       <c r="CM44" s="57">
         <v>0</v>
       </c>
       <c r="CN44" s="99"/>
       <c r="CO44" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP44" s="99"/>
+      <c r="CQ44" s="57">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="100" t="s">
         <v>37</v>
@@ -25609,21 +26066,27 @@
         <v>0</v>
       </c>
       <c r="CJ45" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK45" s="57">
         <v>0</v>
       </c>
-      <c r="CL45" s="99"/>
+      <c r="CL45" s="57">
+        <v>0</v>
+      </c>
       <c r="CM45" s="57">
         <v>0</v>
       </c>
       <c r="CN45" s="99"/>
       <c r="CO45" s="57">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="CP45" s="99"/>
+      <c r="CQ45" s="57">
+        <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="100" t="s">
         <v>37</v>
@@ -25720,7 +26183,7 @@
         <v>3</v>
       </c>
       <c r="AH46" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI46" s="57">
         <v>6</v>
@@ -25867,7 +26330,7 @@
         <v>2</v>
       </c>
       <c r="CE46" s="57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF46" s="57">
         <v>2</v>
@@ -25887,16 +26350,22 @@
       <c r="CK46" s="57">
         <v>1</v>
       </c>
-      <c r="CL46" s="99"/>
+      <c r="CL46" s="57">
+        <v>0</v>
+      </c>
       <c r="CM46" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN46" s="99"/>
       <c r="CO46" s="57">
-        <v>343</v>
+        <v>0</v>
+      </c>
+      <c r="CP46" s="99"/>
+      <c r="CQ46" s="57">
+        <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="100" t="s">
         <v>37</v>
@@ -26137,7 +26606,7 @@
         <v>2</v>
       </c>
       <c r="CD47" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE47" s="57">
         <v>3</v>
@@ -26160,16 +26629,22 @@
       <c r="CK47" s="57">
         <v>0</v>
       </c>
-      <c r="CL47" s="99"/>
+      <c r="CL47" s="57">
+        <v>1</v>
+      </c>
       <c r="CM47" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN47" s="99"/>
       <c r="CO47" s="57">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="CP47" s="99"/>
+      <c r="CQ47" s="57">
+        <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="B48" s="100" t="s">
         <v>38</v>
@@ -26431,18 +26906,24 @@
         <v>1</v>
       </c>
       <c r="CK48" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL48" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL48" s="57">
+        <v>0</v>
+      </c>
       <c r="CM48" s="57">
         <v>0</v>
       </c>
       <c r="CN48" s="99"/>
       <c r="CO48" s="57">
-        <v>408</v>
+        <v>0</v>
+      </c>
+      <c r="CP48" s="99"/>
+      <c r="CQ48" s="57">
+        <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="100" t="s">
         <v>38</v>
@@ -26698,7 +27179,7 @@
         <v>0</v>
       </c>
       <c r="CI49" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ49" s="57">
         <v>0</v>
@@ -26706,16 +27187,22 @@
       <c r="CK49" s="57">
         <v>0</v>
       </c>
-      <c r="CL49" s="99"/>
+      <c r="CL49" s="57">
+        <v>1</v>
+      </c>
       <c r="CM49" s="57">
         <v>0</v>
       </c>
       <c r="CN49" s="99"/>
       <c r="CO49" s="57">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="CP49" s="99"/>
+      <c r="CQ49" s="57">
+        <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B50" s="100" t="s">
         <v>38</v>
       </c>
@@ -26978,16 +27465,22 @@
       <c r="CK50" s="57">
         <v>0</v>
       </c>
-      <c r="CL50" s="99"/>
+      <c r="CL50" s="57">
+        <v>0</v>
+      </c>
       <c r="CM50" s="57">
         <v>0</v>
       </c>
       <c r="CN50" s="99"/>
       <c r="CO50" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP50" s="99"/>
+      <c r="CQ50" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="105" t="s">
         <v>38</v>
@@ -27251,16 +27744,22 @@
       <c r="CK51" s="57">
         <v>0</v>
       </c>
-      <c r="CL51" s="99"/>
+      <c r="CL51" s="57">
+        <v>0</v>
+      </c>
       <c r="CM51" s="57">
         <v>0</v>
       </c>
       <c r="CN51" s="99"/>
       <c r="CO51" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP51" s="99"/>
+      <c r="CQ51" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="105" t="s">
         <v>38</v>
@@ -27524,16 +28023,22 @@
       <c r="CK52" s="57">
         <v>0</v>
       </c>
-      <c r="CL52" s="99"/>
+      <c r="CL52" s="57">
+        <v>0</v>
+      </c>
       <c r="CM52" s="57">
         <v>0</v>
       </c>
       <c r="CN52" s="99"/>
       <c r="CO52" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP52" s="99"/>
+      <c r="CQ52" s="57">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:108" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:110" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="105" t="s">
         <v>38</v>
@@ -27797,16 +28302,22 @@
       <c r="CK53" s="57">
         <v>0</v>
       </c>
-      <c r="CL53" s="99"/>
+      <c r="CL53" s="57">
+        <v>0</v>
+      </c>
       <c r="CM53" s="57">
         <v>0</v>
       </c>
       <c r="CN53" s="99"/>
       <c r="CO53" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP53" s="99"/>
+      <c r="CQ53" s="57">
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B54" s="105" t="s">
         <v>38</v>
       </c>
@@ -28069,16 +28580,22 @@
       <c r="CK54" s="57">
         <v>0</v>
       </c>
-      <c r="CL54" s="99"/>
+      <c r="CL54" s="57">
+        <v>0</v>
+      </c>
       <c r="CM54" s="57">
         <v>0</v>
       </c>
       <c r="CN54" s="99"/>
       <c r="CO54" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP54" s="99"/>
+      <c r="CQ54" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:108" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:110" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="100" t="s">
         <v>38</v>
       </c>
@@ -28341,61 +28858,37 @@
       <c r="CK55" s="57">
         <v>0</v>
       </c>
-      <c r="CL55" s="99"/>
+      <c r="CL55" s="57">
+        <v>0</v>
+      </c>
       <c r="CM55" s="57">
         <v>0</v>
       </c>
       <c r="CN55" s="99"/>
       <c r="CO55" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP55" s="99"/>
+      <c r="CQ55" s="57">
         <v>255</v>
       </c>
-      <c r="CP55" s="49">
-        <v>99</v>
-      </c>
-      <c r="CQ55" s="49">
-        <v>100</v>
-      </c>
-      <c r="CR55" s="49">
-        <v>101</v>
-      </c>
-      <c r="CS55" s="49">
-        <v>102</v>
-      </c>
-      <c r="CT55" s="49">
-        <v>103</v>
-      </c>
-      <c r="CU55" s="49">
-        <v>104</v>
-      </c>
-      <c r="CV55" s="49">
-        <v>105</v>
-      </c>
-      <c r="CW55" s="49">
-        <v>106</v>
-      </c>
-      <c r="CX55" s="49">
-        <v>107</v>
-      </c>
-      <c r="CY55" s="49">
-        <v>108</v>
-      </c>
-      <c r="CZ55" s="49">
-        <v>109</v>
-      </c>
-      <c r="DA55" s="49">
-        <v>110</v>
-      </c>
-      <c r="DB55" s="49">
-        <v>111</v>
-      </c>
-      <c r="DC55" s="49">
-        <v>112</v>
-      </c>
-      <c r="DD55" s="49">
-        <v>113</v>
-      </c>
+      <c r="CR55" s="49"/>
+      <c r="CS55" s="49"/>
+      <c r="CT55" s="49"/>
+      <c r="CU55" s="49"/>
+      <c r="CV55" s="49"/>
+      <c r="CW55" s="49"/>
+      <c r="CX55" s="49"/>
+      <c r="CY55" s="49"/>
+      <c r="CZ55" s="49"/>
+      <c r="DA55" s="49"/>
+      <c r="DB55" s="49"/>
+      <c r="DC55" s="49"/>
+      <c r="DD55" s="49"/>
+      <c r="DE55" s="49"/>
+      <c r="DF55" s="49"/>
     </row>
-    <row r="56" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="100" t="s">
         <v>38</v>
@@ -28659,16 +29152,22 @@
       <c r="CK56" s="57">
         <v>0</v>
       </c>
-      <c r="CL56" s="99"/>
+      <c r="CL56" s="57">
+        <v>0</v>
+      </c>
       <c r="CM56" s="57">
         <v>0</v>
       </c>
       <c r="CN56" s="99"/>
       <c r="CO56" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP56" s="99"/>
+      <c r="CQ56" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="100" t="s">
         <v>138</v>
@@ -28932,16 +29431,22 @@
       <c r="CK57" s="57">
         <v>0</v>
       </c>
-      <c r="CL57" s="99"/>
+      <c r="CL57" s="57">
+        <v>0</v>
+      </c>
       <c r="CM57" s="57">
         <v>0</v>
       </c>
       <c r="CN57" s="99"/>
       <c r="CO57" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP57" s="99"/>
+      <c r="CQ57" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="100" t="s">
         <v>38</v>
@@ -29205,16 +29710,22 @@
       <c r="CK58" s="57">
         <v>0</v>
       </c>
-      <c r="CL58" s="99"/>
+      <c r="CL58" s="57">
+        <v>0</v>
+      </c>
       <c r="CM58" s="57">
         <v>0</v>
       </c>
       <c r="CN58" s="99"/>
       <c r="CO58" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP58" s="99"/>
+      <c r="CQ58" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="100" t="s">
         <v>38</v>
@@ -29478,16 +29989,22 @@
       <c r="CK59" s="57">
         <v>0</v>
       </c>
-      <c r="CL59" s="99"/>
+      <c r="CL59" s="57">
+        <v>0</v>
+      </c>
       <c r="CM59" s="57">
         <v>0</v>
       </c>
       <c r="CN59" s="99"/>
       <c r="CO59" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP59" s="99"/>
+      <c r="CQ59" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="100" t="s">
         <v>38</v>
@@ -29751,16 +30268,22 @@
       <c r="CK60" s="57">
         <v>0</v>
       </c>
-      <c r="CL60" s="99"/>
+      <c r="CL60" s="57">
+        <v>0</v>
+      </c>
       <c r="CM60" s="57">
         <v>0</v>
       </c>
       <c r="CN60" s="99"/>
       <c r="CO60" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP60" s="99"/>
+      <c r="CQ60" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B61" s="100" t="s">
         <v>38</v>
       </c>
@@ -30023,16 +30546,22 @@
       <c r="CK61" s="57">
         <v>0</v>
       </c>
-      <c r="CL61" s="99"/>
+      <c r="CL61" s="57">
+        <v>0</v>
+      </c>
       <c r="CM61" s="57">
         <v>0</v>
       </c>
       <c r="CN61" s="99"/>
       <c r="CO61" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP61" s="99"/>
+      <c r="CQ61" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B62" s="100" t="s">
         <v>138</v>
       </c>
@@ -30295,16 +30824,22 @@
       <c r="CK62" s="57">
         <v>0</v>
       </c>
-      <c r="CL62" s="99"/>
+      <c r="CL62" s="57">
+        <v>0</v>
+      </c>
       <c r="CM62" s="57">
         <v>0</v>
       </c>
       <c r="CN62" s="99"/>
       <c r="CO62" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP62" s="99"/>
+      <c r="CQ62" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B63" s="100" t="s">
         <v>38</v>
       </c>
@@ -30567,16 +31102,22 @@
       <c r="CK63" s="57">
         <v>0</v>
       </c>
-      <c r="CL63" s="99"/>
+      <c r="CL63" s="57">
+        <v>2</v>
+      </c>
       <c r="CM63" s="57">
         <v>0</v>
       </c>
       <c r="CN63" s="99"/>
       <c r="CO63" s="57">
-        <v>411</v>
+        <v>0</v>
+      </c>
+      <c r="CP63" s="99"/>
+      <c r="CQ63" s="57">
+        <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B64" s="100" t="s">
         <v>38</v>
       </c>
@@ -30834,21 +31375,27 @@
         <v>3</v>
       </c>
       <c r="CJ64" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK64" s="57">
         <v>4</v>
       </c>
-      <c r="CL64" s="99"/>
+      <c r="CL64" s="57">
+        <v>0</v>
+      </c>
       <c r="CM64" s="57">
         <v>0</v>
       </c>
       <c r="CN64" s="99"/>
       <c r="CO64" s="57">
-        <v>488</v>
+        <v>0</v>
+      </c>
+      <c r="CP64" s="99"/>
+      <c r="CQ64" s="57">
+        <v>489</v>
       </c>
     </row>
-    <row r="65" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B65" s="100" t="s">
         <v>38</v>
       </c>
@@ -31111,16 +31658,22 @@
       <c r="CK65" s="57">
         <v>0</v>
       </c>
-      <c r="CL65" s="99"/>
+      <c r="CL65" s="57">
+        <v>0</v>
+      </c>
       <c r="CM65" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN65" s="99"/>
       <c r="CO65" s="57">
-        <v>157</v>
+        <v>0</v>
+      </c>
+      <c r="CP65" s="99"/>
+      <c r="CQ65" s="57">
+        <v>158</v>
       </c>
     </row>
-    <row r="66" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B66" s="100" t="s">
         <v>38</v>
       </c>
@@ -31375,7 +31928,7 @@
         <v>1</v>
       </c>
       <c r="CI66" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ66" s="57">
         <v>1</v>
@@ -31383,16 +31936,22 @@
       <c r="CK66" s="57">
         <v>0</v>
       </c>
-      <c r="CL66" s="99"/>
+      <c r="CL66" s="57">
+        <v>1</v>
+      </c>
       <c r="CM66" s="57">
         <v>0</v>
       </c>
       <c r="CN66" s="99"/>
       <c r="CO66" s="57">
-        <v>390</v>
+        <v>0</v>
+      </c>
+      <c r="CP66" s="99"/>
+      <c r="CQ66" s="57">
+        <v>392</v>
       </c>
     </row>
-    <row r="67" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B67" s="100" t="s">
         <v>38</v>
       </c>
@@ -31655,16 +32214,22 @@
       <c r="CK67" s="57">
         <v>0</v>
       </c>
-      <c r="CL67" s="99"/>
+      <c r="CL67" s="57">
+        <v>0</v>
+      </c>
       <c r="CM67" s="57">
         <v>0</v>
       </c>
       <c r="CN67" s="99"/>
       <c r="CO67" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP67" s="99"/>
+      <c r="CQ67" s="57">
         <v>576</v>
       </c>
     </row>
-    <row r="68" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B68" s="100" t="s">
         <v>38</v>
       </c>
@@ -31927,16 +32492,22 @@
       <c r="CK68" s="57">
         <v>0</v>
       </c>
-      <c r="CL68" s="99"/>
+      <c r="CL68" s="57">
+        <v>0</v>
+      </c>
       <c r="CM68" s="57">
         <v>0</v>
       </c>
       <c r="CN68" s="99"/>
       <c r="CO68" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP68" s="99"/>
+      <c r="CQ68" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B69" s="100" t="s">
         <v>38</v>
       </c>
@@ -32199,16 +32770,22 @@
       <c r="CK69" s="57">
         <v>0</v>
       </c>
-      <c r="CL69" s="99"/>
+      <c r="CL69" s="57">
+        <v>0</v>
+      </c>
       <c r="CM69" s="57">
         <v>0</v>
       </c>
       <c r="CN69" s="99"/>
       <c r="CO69" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP69" s="99"/>
+      <c r="CQ69" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B70" s="100" t="s">
         <v>38</v>
       </c>
@@ -32471,16 +33048,22 @@
       <c r="CK70" s="57">
         <v>0</v>
       </c>
-      <c r="CL70" s="99"/>
+      <c r="CL70" s="57">
+        <v>0</v>
+      </c>
       <c r="CM70" s="57">
         <v>0</v>
       </c>
       <c r="CN70" s="99"/>
       <c r="CO70" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP70" s="99"/>
+      <c r="CQ70" s="57">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B71" s="100" t="s">
         <v>38</v>
       </c>
@@ -32743,16 +33326,22 @@
       <c r="CK71" s="57">
         <v>0</v>
       </c>
-      <c r="CL71" s="99"/>
+      <c r="CL71" s="57">
+        <v>0</v>
+      </c>
       <c r="CM71" s="57">
         <v>0</v>
       </c>
       <c r="CN71" s="99"/>
       <c r="CO71" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP71" s="99"/>
+      <c r="CQ71" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B72" s="100" t="s">
         <v>38</v>
       </c>
@@ -33015,16 +33604,22 @@
       <c r="CK72" s="57">
         <v>0</v>
       </c>
-      <c r="CL72" s="99"/>
+      <c r="CL72" s="57">
+        <v>0</v>
+      </c>
       <c r="CM72" s="57">
         <v>0</v>
       </c>
       <c r="CN72" s="99"/>
       <c r="CO72" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP72" s="99"/>
+      <c r="CQ72" s="57">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B73" s="100" t="s">
         <v>38</v>
       </c>
@@ -33287,16 +33882,22 @@
       <c r="CK73" s="57">
         <v>0</v>
       </c>
-      <c r="CL73" s="99"/>
+      <c r="CL73" s="57">
+        <v>0</v>
+      </c>
       <c r="CM73" s="57">
         <v>0</v>
       </c>
       <c r="CN73" s="99"/>
       <c r="CO73" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP73" s="99"/>
+      <c r="CQ73" s="57">
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B74" s="100" t="s">
         <v>38</v>
       </c>
@@ -33559,16 +34160,22 @@
       <c r="CK74" s="57">
         <v>0</v>
       </c>
-      <c r="CL74" s="99"/>
+      <c r="CL74" s="57">
+        <v>0</v>
+      </c>
       <c r="CM74" s="57">
         <v>0</v>
       </c>
       <c r="CN74" s="99"/>
       <c r="CO74" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP74" s="99"/>
+      <c r="CQ74" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B75" s="100" t="s">
         <v>38</v>
       </c>
@@ -33831,16 +34438,22 @@
       <c r="CK75" s="57">
         <v>0</v>
       </c>
-      <c r="CL75" s="99"/>
+      <c r="CL75" s="57">
+        <v>0</v>
+      </c>
       <c r="CM75" s="57">
         <v>0</v>
       </c>
       <c r="CN75" s="99"/>
       <c r="CO75" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP75" s="99"/>
+      <c r="CQ75" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B76" s="100" t="s">
         <v>38</v>
       </c>
@@ -34103,16 +34716,22 @@
       <c r="CK76" s="57">
         <v>0</v>
       </c>
-      <c r="CL76" s="99"/>
+      <c r="CL76" s="57">
+        <v>0</v>
+      </c>
       <c r="CM76" s="57">
         <v>0</v>
       </c>
       <c r="CN76" s="99"/>
       <c r="CO76" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP76" s="99"/>
+      <c r="CQ76" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B77" s="100" t="s">
         <v>38</v>
       </c>
@@ -34375,16 +34994,22 @@
       <c r="CK77" s="57">
         <v>0</v>
       </c>
-      <c r="CL77" s="99"/>
+      <c r="CL77" s="57">
+        <v>0</v>
+      </c>
       <c r="CM77" s="57">
         <v>0</v>
       </c>
       <c r="CN77" s="99"/>
       <c r="CO77" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP77" s="99"/>
+      <c r="CQ77" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B78" s="100" t="s">
         <v>38</v>
       </c>
@@ -34647,16 +35272,22 @@
       <c r="CK78" s="57">
         <v>0</v>
       </c>
-      <c r="CL78" s="99"/>
+      <c r="CL78" s="57">
+        <v>0</v>
+      </c>
       <c r="CM78" s="57">
         <v>0</v>
       </c>
       <c r="CN78" s="99"/>
       <c r="CO78" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP78" s="99"/>
+      <c r="CQ78" s="57">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B79" s="100" t="s">
         <v>38</v>
       </c>
@@ -34919,16 +35550,22 @@
       <c r="CK79" s="57">
         <v>0</v>
       </c>
-      <c r="CL79" s="99"/>
+      <c r="CL79" s="57">
+        <v>0</v>
+      </c>
       <c r="CM79" s="57">
         <v>0</v>
       </c>
       <c r="CN79" s="99"/>
       <c r="CO79" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP79" s="99"/>
+      <c r="CQ79" s="57">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B80" s="100" t="s">
         <v>38</v>
       </c>
@@ -35191,16 +35828,22 @@
       <c r="CK80" s="57">
         <v>0</v>
       </c>
-      <c r="CL80" s="99"/>
+      <c r="CL80" s="57">
+        <v>0</v>
+      </c>
       <c r="CM80" s="57">
         <v>0</v>
       </c>
       <c r="CN80" s="99"/>
       <c r="CO80" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP80" s="99"/>
+      <c r="CQ80" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B81" s="100" t="s">
         <v>38</v>
       </c>
@@ -35463,16 +36106,22 @@
       <c r="CK81" s="57">
         <v>0</v>
       </c>
-      <c r="CL81" s="99"/>
+      <c r="CL81" s="57">
+        <v>0</v>
+      </c>
       <c r="CM81" s="57">
         <v>0</v>
       </c>
       <c r="CN81" s="99"/>
       <c r="CO81" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP81" s="99"/>
+      <c r="CQ81" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B82" s="100" t="s">
         <v>38</v>
       </c>
@@ -35735,16 +36384,22 @@
       <c r="CK82" s="57">
         <v>0</v>
       </c>
-      <c r="CL82" s="99"/>
+      <c r="CL82" s="57">
+        <v>0</v>
+      </c>
       <c r="CM82" s="57">
         <v>0</v>
       </c>
       <c r="CN82" s="99"/>
       <c r="CO82" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP82" s="99"/>
+      <c r="CQ82" s="57">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B83" s="100" t="s">
         <v>38</v>
       </c>
@@ -36007,16 +36662,22 @@
       <c r="CK83" s="57">
         <v>0</v>
       </c>
-      <c r="CL83" s="99"/>
+      <c r="CL83" s="57">
+        <v>0</v>
+      </c>
       <c r="CM83" s="57">
         <v>0</v>
       </c>
       <c r="CN83" s="99"/>
       <c r="CO83" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP83" s="99"/>
+      <c r="CQ83" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B84" s="100" t="s">
         <v>38</v>
       </c>
@@ -36279,16 +36940,22 @@
       <c r="CK84" s="57">
         <v>0</v>
       </c>
-      <c r="CL84" s="99"/>
+      <c r="CL84" s="57">
+        <v>0</v>
+      </c>
       <c r="CM84" s="57">
         <v>0</v>
       </c>
       <c r="CN84" s="99"/>
       <c r="CO84" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP84" s="99"/>
+      <c r="CQ84" s="57">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B85" s="100" t="s">
         <v>39</v>
       </c>
@@ -36543,7 +37210,7 @@
         <v>1</v>
       </c>
       <c r="CI85" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ85" s="57">
         <v>0</v>
@@ -36551,16 +37218,22 @@
       <c r="CK85" s="57">
         <v>0</v>
       </c>
-      <c r="CL85" s="99"/>
+      <c r="CL85" s="57">
+        <v>0</v>
+      </c>
       <c r="CM85" s="57">
         <v>0</v>
       </c>
       <c r="CN85" s="99"/>
       <c r="CO85" s="57">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="CP85" s="99"/>
+      <c r="CQ85" s="57">
+        <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B86" s="100" t="s">
         <v>39</v>
       </c>
@@ -36823,16 +37496,22 @@
       <c r="CK86" s="57">
         <v>0</v>
       </c>
-      <c r="CL86" s="99"/>
+      <c r="CL86" s="57">
+        <v>1</v>
+      </c>
       <c r="CM86" s="57">
         <v>0</v>
       </c>
       <c r="CN86" s="99"/>
       <c r="CO86" s="57">
-        <v>115</v>
+        <v>0</v>
+      </c>
+      <c r="CP86" s="99"/>
+      <c r="CQ86" s="57">
+        <v>116</v>
       </c>
     </row>
-    <row r="87" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B87" s="100" t="s">
         <v>39</v>
       </c>
@@ -37095,16 +37774,22 @@
       <c r="CK87" s="57">
         <v>0</v>
       </c>
-      <c r="CL87" s="99"/>
+      <c r="CL87" s="57">
+        <v>0</v>
+      </c>
       <c r="CM87" s="57">
         <v>0</v>
       </c>
       <c r="CN87" s="99"/>
       <c r="CO87" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP87" s="99"/>
+      <c r="CQ87" s="57">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B88" s="100" t="s">
         <v>39</v>
       </c>
@@ -37367,16 +38052,22 @@
       <c r="CK88" s="57">
         <v>0</v>
       </c>
-      <c r="CL88" s="99"/>
+      <c r="CL88" s="57">
+        <v>0</v>
+      </c>
       <c r="CM88" s="57">
         <v>0</v>
       </c>
       <c r="CN88" s="99"/>
       <c r="CO88" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP88" s="99"/>
+      <c r="CQ88" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B89" s="100" t="s">
         <v>39</v>
       </c>
@@ -37639,16 +38330,22 @@
       <c r="CK89" s="57">
         <v>0</v>
       </c>
-      <c r="CL89" s="99"/>
+      <c r="CL89" s="57">
+        <v>1</v>
+      </c>
       <c r="CM89" s="57">
         <v>0</v>
       </c>
       <c r="CN89" s="99"/>
       <c r="CO89" s="57">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="CP89" s="99"/>
+      <c r="CQ89" s="57">
+        <v>127</v>
       </c>
     </row>
-    <row r="90" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B90" s="100" t="s">
         <v>39</v>
       </c>
@@ -37900,27 +38597,33 @@
         <v>2</v>
       </c>
       <c r="CH90" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI90" s="57">
         <v>1</v>
       </c>
       <c r="CJ90" s="57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CK90" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL90" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="CL90" s="57">
+        <v>0</v>
+      </c>
       <c r="CM90" s="57">
         <v>0</v>
       </c>
       <c r="CN90" s="99"/>
       <c r="CO90" s="57">
-        <v>157</v>
+        <v>0</v>
+      </c>
+      <c r="CP90" s="99"/>
+      <c r="CQ90" s="57">
+        <v>164</v>
       </c>
     </row>
-    <row r="91" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B91" s="100" t="s">
         <v>39</v>
       </c>
@@ -38175,24 +38878,30 @@
         <v>1</v>
       </c>
       <c r="CI91" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ91" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK91" s="57">
         <v>0</v>
       </c>
-      <c r="CL91" s="99"/>
+      <c r="CL91" s="57">
+        <v>0</v>
+      </c>
       <c r="CM91" s="57">
         <v>0</v>
       </c>
       <c r="CN91" s="99"/>
       <c r="CO91" s="57">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="CP91" s="99"/>
+      <c r="CQ91" s="57">
+        <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B92" s="100" t="s">
         <v>39</v>
       </c>
@@ -38455,16 +39164,22 @@
       <c r="CK92" s="57">
         <v>0</v>
       </c>
-      <c r="CL92" s="99"/>
+      <c r="CL92" s="57">
+        <v>0</v>
+      </c>
       <c r="CM92" s="57">
         <v>0</v>
       </c>
       <c r="CN92" s="99"/>
       <c r="CO92" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP92" s="99"/>
+      <c r="CQ92" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B93" s="100" t="s">
         <v>39</v>
       </c>
@@ -38727,16 +39442,22 @@
       <c r="CK93" s="57">
         <v>0</v>
       </c>
-      <c r="CL93" s="99"/>
+      <c r="CL93" s="57">
+        <v>0</v>
+      </c>
       <c r="CM93" s="57">
         <v>0</v>
       </c>
       <c r="CN93" s="99"/>
       <c r="CO93" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP93" s="99"/>
+      <c r="CQ93" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B94" s="100" t="s">
         <v>39</v>
       </c>
@@ -38999,16 +39720,22 @@
       <c r="CK94" s="57">
         <v>0</v>
       </c>
-      <c r="CL94" s="99"/>
+      <c r="CL94" s="57">
+        <v>0</v>
+      </c>
       <c r="CM94" s="57">
         <v>0</v>
       </c>
       <c r="CN94" s="99"/>
       <c r="CO94" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP94" s="99"/>
+      <c r="CQ94" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B95" s="100" t="s">
         <v>39</v>
       </c>
@@ -39271,16 +39998,22 @@
       <c r="CK95" s="57">
         <v>0</v>
       </c>
-      <c r="CL95" s="99"/>
+      <c r="CL95" s="57">
+        <v>0</v>
+      </c>
       <c r="CM95" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN95" s="99"/>
       <c r="CO95" s="57">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="CP95" s="99"/>
+      <c r="CQ95" s="57">
+        <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B96" s="100" t="s">
         <v>39</v>
       </c>
@@ -39541,18 +40274,24 @@
         <v>1</v>
       </c>
       <c r="CK96" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL96" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL96" s="57">
+        <v>0</v>
+      </c>
       <c r="CM96" s="57">
         <v>0</v>
       </c>
       <c r="CN96" s="99"/>
       <c r="CO96" s="57">
-        <v>222</v>
+        <v>0</v>
+      </c>
+      <c r="CP96" s="99"/>
+      <c r="CQ96" s="57">
+        <v>223</v>
       </c>
     </row>
-    <row r="97" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B97" s="100" t="s">
         <v>39</v>
       </c>
@@ -39815,16 +40554,22 @@
       <c r="CK97" s="57">
         <v>0</v>
       </c>
-      <c r="CL97" s="99"/>
+      <c r="CL97" s="57">
+        <v>0</v>
+      </c>
       <c r="CM97" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN97" s="99"/>
       <c r="CO97" s="57">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="CP97" s="99"/>
+      <c r="CQ97" s="57">
+        <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B98" s="100" t="s">
         <v>39</v>
       </c>
@@ -40087,16 +40832,22 @@
       <c r="CK98" s="57">
         <v>0</v>
       </c>
-      <c r="CL98" s="99"/>
+      <c r="CL98" s="57">
+        <v>0</v>
+      </c>
       <c r="CM98" s="57">
         <v>0</v>
       </c>
       <c r="CN98" s="99"/>
       <c r="CO98" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP98" s="99"/>
+      <c r="CQ98" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B99" s="100" t="s">
         <v>39</v>
       </c>
@@ -40359,16 +41110,22 @@
       <c r="CK99" s="57">
         <v>0</v>
       </c>
-      <c r="CL99" s="99"/>
+      <c r="CL99" s="57">
+        <v>1</v>
+      </c>
       <c r="CM99" s="57">
         <v>0</v>
       </c>
       <c r="CN99" s="99"/>
       <c r="CO99" s="57">
-        <v>242</v>
+        <v>0</v>
+      </c>
+      <c r="CP99" s="99"/>
+      <c r="CQ99" s="57">
+        <v>243</v>
       </c>
     </row>
-    <row r="100" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B100" s="100" t="s">
         <v>39</v>
       </c>
@@ -40631,16 +41388,22 @@
       <c r="CK100" s="57">
         <v>0</v>
       </c>
-      <c r="CL100" s="99"/>
+      <c r="CL100" s="57">
+        <v>0</v>
+      </c>
       <c r="CM100" s="57">
         <v>0</v>
       </c>
       <c r="CN100" s="99"/>
       <c r="CO100" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP100" s="99"/>
+      <c r="CQ100" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B101" s="100" t="s">
         <v>39</v>
       </c>
@@ -40903,16 +41666,22 @@
       <c r="CK101" s="57">
         <v>0</v>
       </c>
-      <c r="CL101" s="99"/>
+      <c r="CL101" s="57">
+        <v>0</v>
+      </c>
       <c r="CM101" s="57">
         <v>0</v>
       </c>
       <c r="CN101" s="99"/>
       <c r="CO101" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP101" s="99"/>
+      <c r="CQ101" s="57">
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B102" s="100" t="s">
         <v>39</v>
       </c>
@@ -41173,18 +41942,24 @@
         <v>1</v>
       </c>
       <c r="CK102" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL102" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL102" s="57">
+        <v>1</v>
+      </c>
       <c r="CM102" s="57">
         <v>0</v>
       </c>
       <c r="CN102" s="99"/>
       <c r="CO102" s="57">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="CP102" s="99"/>
+      <c r="CQ102" s="57">
+        <v>116</v>
       </c>
     </row>
-    <row r="103" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B103" s="100" t="s">
         <v>39</v>
       </c>
@@ -41447,16 +42222,22 @@
       <c r="CK103" s="57">
         <v>1</v>
       </c>
-      <c r="CL103" s="99"/>
+      <c r="CL103" s="57">
+        <v>2</v>
+      </c>
       <c r="CM103" s="57">
         <v>0</v>
       </c>
       <c r="CN103" s="99"/>
       <c r="CO103" s="57">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="CP103" s="99"/>
+      <c r="CQ103" s="57">
+        <v>136</v>
       </c>
     </row>
-    <row r="104" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B104" s="100" t="s">
         <v>39</v>
       </c>
@@ -41719,16 +42500,22 @@
       <c r="CK104" s="57">
         <v>0</v>
       </c>
-      <c r="CL104" s="99"/>
+      <c r="CL104" s="57">
+        <v>0</v>
+      </c>
       <c r="CM104" s="57">
         <v>0</v>
       </c>
       <c r="CN104" s="99"/>
       <c r="CO104" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP104" s="99"/>
+      <c r="CQ104" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B105" s="100" t="s">
         <v>39</v>
       </c>
@@ -41991,16 +42778,22 @@
       <c r="CK105" s="57">
         <v>0</v>
       </c>
-      <c r="CL105" s="99"/>
+      <c r="CL105" s="57">
+        <v>0</v>
+      </c>
       <c r="CM105" s="57">
         <v>0</v>
       </c>
       <c r="CN105" s="99"/>
       <c r="CO105" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP105" s="99"/>
+      <c r="CQ105" s="57">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B106" s="100" t="s">
         <v>39</v>
       </c>
@@ -42263,16 +43056,22 @@
       <c r="CK106" s="57">
         <v>0</v>
       </c>
-      <c r="CL106" s="99"/>
+      <c r="CL106" s="57">
+        <v>0</v>
+      </c>
       <c r="CM106" s="57">
         <v>0</v>
       </c>
       <c r="CN106" s="99"/>
       <c r="CO106" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP106" s="99"/>
+      <c r="CQ106" s="57">
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B107" s="100" t="s">
         <v>39</v>
       </c>
@@ -42535,16 +43334,22 @@
       <c r="CK107" s="57">
         <v>0</v>
       </c>
-      <c r="CL107" s="99"/>
+      <c r="CL107" s="57">
+        <v>0</v>
+      </c>
       <c r="CM107" s="57">
         <v>0</v>
       </c>
       <c r="CN107" s="99"/>
       <c r="CO107" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP107" s="99"/>
+      <c r="CQ107" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B108" s="100" t="s">
         <v>39</v>
       </c>
@@ -42807,16 +43612,22 @@
       <c r="CK108" s="57">
         <v>0</v>
       </c>
-      <c r="CL108" s="99"/>
+      <c r="CL108" s="57">
+        <v>0</v>
+      </c>
       <c r="CM108" s="57">
         <v>0</v>
       </c>
       <c r="CN108" s="99"/>
       <c r="CO108" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP108" s="99"/>
+      <c r="CQ108" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B109" s="100" t="s">
         <v>39</v>
       </c>
@@ -43079,16 +43890,22 @@
       <c r="CK109" s="57">
         <v>0</v>
       </c>
-      <c r="CL109" s="99"/>
+      <c r="CL109" s="57">
+        <v>0</v>
+      </c>
       <c r="CM109" s="57">
         <v>0</v>
       </c>
       <c r="CN109" s="99"/>
       <c r="CO109" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP109" s="99"/>
+      <c r="CQ109" s="57">
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B110" s="100" t="s">
         <v>39</v>
       </c>
@@ -43349,18 +44166,24 @@
         <v>0</v>
       </c>
       <c r="CK110" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL110" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL110" s="57">
+        <v>2</v>
+      </c>
       <c r="CM110" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN110" s="99"/>
       <c r="CO110" s="57">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="CP110" s="99"/>
+      <c r="CQ110" s="57">
+        <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B111" s="100" t="s">
         <v>39</v>
       </c>
@@ -43534,22 +44357,22 @@
         <v>16</v>
       </c>
       <c r="BH111" s="57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BI111" s="57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ111" s="57">
         <v>11</v>
       </c>
       <c r="BK111" s="57">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BL111" s="57">
         <v>12</v>
       </c>
       <c r="BM111" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BN111" s="57">
         <v>7</v>
@@ -43558,7 +44381,7 @@
         <v>1</v>
       </c>
       <c r="BP111" s="57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BQ111" s="57">
         <v>2</v>
@@ -43570,7 +44393,7 @@
         <v>10</v>
       </c>
       <c r="BT111" s="57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BU111" s="57">
         <v>6</v>
@@ -43618,21 +44441,27 @@
         <v>4</v>
       </c>
       <c r="CJ111" s="57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK111" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL111" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL111" s="57">
+        <v>0</v>
+      </c>
       <c r="CM111" s="57">
         <v>0</v>
       </c>
       <c r="CN111" s="99"/>
       <c r="CO111" s="57">
-        <v>884</v>
+        <v>0</v>
+      </c>
+      <c r="CP111" s="99"/>
+      <c r="CQ111" s="57">
+        <v>896</v>
       </c>
     </row>
-    <row r="112" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B112" s="100" t="s">
         <v>39</v>
       </c>
@@ -43893,18 +44722,24 @@
         <v>0</v>
       </c>
       <c r="CK112" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL112" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL112" s="57">
+        <v>0</v>
+      </c>
       <c r="CM112" s="57">
         <v>0</v>
       </c>
       <c r="CN112" s="99"/>
       <c r="CO112" s="57">
-        <v>228</v>
+        <v>0</v>
+      </c>
+      <c r="CP112" s="99"/>
+      <c r="CQ112" s="57">
+        <v>229</v>
       </c>
     </row>
-    <row r="113" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B113" s="100" t="s">
         <v>39</v>
       </c>
@@ -44167,16 +45002,22 @@
       <c r="CK113" s="57">
         <v>0</v>
       </c>
-      <c r="CL113" s="99"/>
+      <c r="CL113" s="57">
+        <v>4</v>
+      </c>
       <c r="CM113" s="57">
         <v>0</v>
       </c>
       <c r="CN113" s="99"/>
       <c r="CO113" s="57">
-        <v>463</v>
+        <v>0</v>
+      </c>
+      <c r="CP113" s="99"/>
+      <c r="CQ113" s="57">
+        <v>467</v>
       </c>
     </row>
-    <row r="114" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B114" s="100" t="s">
         <v>39</v>
       </c>
@@ -44428,10 +45269,10 @@
         <v>2</v>
       </c>
       <c r="CH114" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI114" s="57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ114" s="57">
         <v>0</v>
@@ -44439,16 +45280,22 @@
       <c r="CK114" s="57">
         <v>0</v>
       </c>
-      <c r="CL114" s="99"/>
+      <c r="CL114" s="57">
+        <v>0</v>
+      </c>
       <c r="CM114" s="57">
         <v>0</v>
       </c>
       <c r="CN114" s="99"/>
       <c r="CO114" s="57">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="CP114" s="99"/>
+      <c r="CQ114" s="57">
+        <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B115" s="100" t="s">
         <v>39</v>
       </c>
@@ -44709,18 +45556,24 @@
         <v>1</v>
       </c>
       <c r="CK115" s="57">
-        <v>3</v>
-      </c>
-      <c r="CL115" s="99"/>
+        <v>7</v>
+      </c>
+      <c r="CL115" s="57">
+        <v>2</v>
+      </c>
       <c r="CM115" s="57">
         <v>0</v>
       </c>
       <c r="CN115" s="99"/>
       <c r="CO115" s="57">
-        <v>286</v>
+        <v>0</v>
+      </c>
+      <c r="CP115" s="99"/>
+      <c r="CQ115" s="57">
+        <v>292</v>
       </c>
     </row>
-    <row r="116" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B116" s="100" t="s">
         <v>39</v>
       </c>
@@ -44927,13 +45780,13 @@
         <v>1</v>
       </c>
       <c r="BS116" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT116" s="57">
         <v>2</v>
       </c>
       <c r="BU116" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV116" s="57">
         <v>0</v>
@@ -44948,10 +45801,10 @@
         <v>0</v>
       </c>
       <c r="BZ116" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA116" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB116" s="57">
         <v>0</v>
@@ -44960,7 +45813,7 @@
         <v>0</v>
       </c>
       <c r="CD116" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE116" s="57">
         <v>0</v>
@@ -44969,10 +45822,10 @@
         <v>0</v>
       </c>
       <c r="CG116" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH116" s="57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI116" s="57">
         <v>0</v>
@@ -44983,16 +45836,22 @@
       <c r="CK116" s="57">
         <v>0</v>
       </c>
-      <c r="CL116" s="99"/>
+      <c r="CL116" s="57">
+        <v>0</v>
+      </c>
       <c r="CM116" s="57">
         <v>0</v>
       </c>
       <c r="CN116" s="99"/>
       <c r="CO116" s="57">
-        <v>192</v>
+        <v>0</v>
+      </c>
+      <c r="CP116" s="99"/>
+      <c r="CQ116" s="57">
+        <v>205</v>
       </c>
     </row>
-    <row r="117" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B117" s="100" t="s">
         <v>39</v>
       </c>
@@ -45255,16 +46114,22 @@
       <c r="CK117" s="57">
         <v>0</v>
       </c>
-      <c r="CL117" s="99"/>
+      <c r="CL117" s="57">
+        <v>0</v>
+      </c>
       <c r="CM117" s="57">
         <v>0</v>
       </c>
       <c r="CN117" s="99"/>
       <c r="CO117" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP117" s="99"/>
+      <c r="CQ117" s="57">
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B118" s="100" t="s">
         <v>39</v>
       </c>
@@ -45527,16 +46392,22 @@
       <c r="CK118" s="57">
         <v>0</v>
       </c>
-      <c r="CL118" s="99"/>
+      <c r="CL118" s="57">
+        <v>0</v>
+      </c>
       <c r="CM118" s="57">
         <v>0</v>
       </c>
       <c r="CN118" s="99"/>
       <c r="CO118" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP118" s="99"/>
+      <c r="CQ118" s="57">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B119" s="100" t="s">
         <v>39</v>
       </c>
@@ -45799,16 +46670,22 @@
       <c r="CK119" s="57">
         <v>0</v>
       </c>
-      <c r="CL119" s="99"/>
+      <c r="CL119" s="57">
+        <v>0</v>
+      </c>
       <c r="CM119" s="57">
         <v>0</v>
       </c>
       <c r="CN119" s="99"/>
       <c r="CO119" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP119" s="99"/>
+      <c r="CQ119" s="57">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B120" s="100" t="s">
         <v>40</v>
       </c>
@@ -46071,16 +46948,22 @@
       <c r="CK120" s="57">
         <v>0</v>
       </c>
-      <c r="CL120" s="99"/>
+      <c r="CL120" s="57">
+        <v>0</v>
+      </c>
       <c r="CM120" s="57">
         <v>0</v>
       </c>
       <c r="CN120" s="99"/>
       <c r="CO120" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP120" s="99"/>
+      <c r="CQ120" s="57">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B121" s="100" t="s">
         <v>40</v>
       </c>
@@ -46343,16 +47226,22 @@
       <c r="CK121" s="57">
         <v>0</v>
       </c>
-      <c r="CL121" s="99"/>
+      <c r="CL121" s="57">
+        <v>1</v>
+      </c>
       <c r="CM121" s="57">
         <v>0</v>
       </c>
       <c r="CN121" s="99"/>
       <c r="CO121" s="57">
-        <v>113</v>
+        <v>0</v>
+      </c>
+      <c r="CP121" s="99"/>
+      <c r="CQ121" s="57">
+        <v>114</v>
       </c>
     </row>
-    <row r="122" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B122" s="100" t="s">
         <v>40</v>
       </c>
@@ -46615,7 +47504,9 @@
       <c r="CK122" s="57">
         <v>0</v>
       </c>
-      <c r="CL122" s="99"/>
+      <c r="CL122" s="57">
+        <v>0</v>
+      </c>
       <c r="CM122" s="57">
         <v>0</v>
       </c>
@@ -46623,8 +47514,12 @@
       <c r="CO122" s="57">
         <v>0</v>
       </c>
+      <c r="CP122" s="99"/>
+      <c r="CQ122" s="57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B123" s="100" t="s">
         <v>40</v>
       </c>
@@ -46887,16 +47782,22 @@
       <c r="CK123" s="57">
         <v>0</v>
       </c>
-      <c r="CL123" s="99"/>
+      <c r="CL123" s="57">
+        <v>0</v>
+      </c>
       <c r="CM123" s="57">
         <v>0</v>
       </c>
       <c r="CN123" s="99"/>
       <c r="CO123" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP123" s="99"/>
+      <c r="CQ123" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B124" s="100" t="s">
         <v>40</v>
       </c>
@@ -47159,16 +48060,22 @@
       <c r="CK124" s="57">
         <v>1</v>
       </c>
-      <c r="CL124" s="99"/>
+      <c r="CL124" s="57">
+        <v>1</v>
+      </c>
       <c r="CM124" s="57">
         <v>0</v>
       </c>
       <c r="CN124" s="99"/>
       <c r="CO124" s="57">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="CP124" s="99"/>
+      <c r="CQ124" s="57">
+        <v>191</v>
       </c>
     </row>
-    <row r="125" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B125" s="100" t="s">
         <v>40</v>
       </c>
@@ -47431,16 +48338,22 @@
       <c r="CK125" s="57">
         <v>0</v>
       </c>
-      <c r="CL125" s="99"/>
+      <c r="CL125" s="57">
+        <v>0</v>
+      </c>
       <c r="CM125" s="57">
         <v>0</v>
       </c>
       <c r="CN125" s="99"/>
       <c r="CO125" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP125" s="99"/>
+      <c r="CQ125" s="57">
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B126" s="100" t="s">
         <v>40</v>
       </c>
@@ -47703,16 +48616,22 @@
       <c r="CK126" s="57">
         <v>0</v>
       </c>
-      <c r="CL126" s="99"/>
+      <c r="CL126" s="57">
+        <v>0</v>
+      </c>
       <c r="CM126" s="57">
         <v>0</v>
       </c>
       <c r="CN126" s="99"/>
       <c r="CO126" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP126" s="99"/>
+      <c r="CQ126" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B127" s="100" t="s">
         <v>40</v>
       </c>
@@ -47973,18 +48892,24 @@
         <v>3</v>
       </c>
       <c r="CK127" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL127" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL127" s="57">
+        <v>1</v>
+      </c>
       <c r="CM127" s="57">
         <v>0</v>
       </c>
       <c r="CN127" s="99"/>
       <c r="CO127" s="57">
-        <v>223</v>
+        <v>0</v>
+      </c>
+      <c r="CP127" s="99"/>
+      <c r="CQ127" s="57">
+        <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B128" s="100" t="s">
         <v>40</v>
       </c>
@@ -48247,16 +49172,22 @@
       <c r="CK128" s="57">
         <v>0</v>
       </c>
-      <c r="CL128" s="99"/>
+      <c r="CL128" s="57">
+        <v>0</v>
+      </c>
       <c r="CM128" s="57">
         <v>0</v>
       </c>
       <c r="CN128" s="99"/>
       <c r="CO128" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP128" s="99"/>
+      <c r="CQ128" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B129" s="100" t="s">
         <v>40</v>
       </c>
@@ -48514,21 +49445,27 @@
         <v>4</v>
       </c>
       <c r="CJ129" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK129" s="57">
         <v>0</v>
       </c>
-      <c r="CL129" s="99"/>
+      <c r="CL129" s="57">
+        <v>0</v>
+      </c>
       <c r="CM129" s="57">
         <v>0</v>
       </c>
       <c r="CN129" s="99"/>
       <c r="CO129" s="57">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="CP129" s="99"/>
+      <c r="CQ129" s="57">
+        <v>172</v>
       </c>
     </row>
-    <row r="130" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B130" s="100" t="s">
         <v>40</v>
       </c>
@@ -48791,16 +49728,22 @@
       <c r="CK130" s="57">
         <v>0</v>
       </c>
-      <c r="CL130" s="99"/>
+      <c r="CL130" s="57">
+        <v>0</v>
+      </c>
       <c r="CM130" s="57">
         <v>0</v>
       </c>
       <c r="CN130" s="99"/>
       <c r="CO130" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP130" s="99"/>
+      <c r="CQ130" s="57">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B131" s="100" t="s">
         <v>40</v>
       </c>
@@ -49061,18 +50004,24 @@
         <v>1</v>
       </c>
       <c r="CK131" s="57">
-        <v>1</v>
-      </c>
-      <c r="CL131" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="CL131" s="57">
+        <v>0</v>
+      </c>
       <c r="CM131" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN131" s="99"/>
       <c r="CO131" s="57">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="CP131" s="99"/>
+      <c r="CQ131" s="57">
+        <v>62</v>
       </c>
     </row>
-    <row r="132" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B132" s="100" t="s">
         <v>40</v>
       </c>
@@ -49333,18 +50282,24 @@
         <v>2</v>
       </c>
       <c r="CK132" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL132" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="CL132" s="57">
+        <v>0</v>
+      </c>
       <c r="CM132" s="57">
         <v>0</v>
       </c>
       <c r="CN132" s="99"/>
       <c r="CO132" s="57">
-        <v>147</v>
+        <v>0</v>
+      </c>
+      <c r="CP132" s="99"/>
+      <c r="CQ132" s="57">
+        <v>150</v>
       </c>
     </row>
-    <row r="133" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B133" s="100" t="s">
         <v>40</v>
       </c>
@@ -49607,16 +50562,22 @@
       <c r="CK133" s="57">
         <v>0</v>
       </c>
-      <c r="CL133" s="99"/>
+      <c r="CL133" s="57">
+        <v>0</v>
+      </c>
       <c r="CM133" s="57">
         <v>0</v>
       </c>
       <c r="CN133" s="99"/>
       <c r="CO133" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP133" s="99"/>
+      <c r="CQ133" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B134" s="100" t="s">
         <v>40</v>
       </c>
@@ -49879,16 +50840,22 @@
       <c r="CK134" s="57">
         <v>0</v>
       </c>
-      <c r="CL134" s="99"/>
+      <c r="CL134" s="57">
+        <v>0</v>
+      </c>
       <c r="CM134" s="57">
         <v>0</v>
       </c>
       <c r="CN134" s="99"/>
       <c r="CO134" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP134" s="99"/>
+      <c r="CQ134" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B135" s="100" t="s">
         <v>40</v>
       </c>
@@ -50151,16 +51118,22 @@
       <c r="CK135" s="57">
         <v>0</v>
       </c>
-      <c r="CL135" s="99"/>
+      <c r="CL135" s="57">
+        <v>1</v>
+      </c>
       <c r="CM135" s="57">
         <v>0</v>
       </c>
       <c r="CN135" s="99"/>
       <c r="CO135" s="57">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="CP135" s="99"/>
+      <c r="CQ135" s="57">
+        <v>302</v>
       </c>
     </row>
-    <row r="136" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B136" s="100" t="s">
         <v>40</v>
       </c>
@@ -50423,16 +51396,22 @@
       <c r="CK136" s="57">
         <v>2</v>
       </c>
-      <c r="CL136" s="99"/>
+      <c r="CL136" s="57">
+        <v>2</v>
+      </c>
       <c r="CM136" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN136" s="99"/>
       <c r="CO136" s="57">
-        <v>272</v>
+        <v>0</v>
+      </c>
+      <c r="CP136" s="99"/>
+      <c r="CQ136" s="57">
+        <v>276</v>
       </c>
     </row>
-    <row r="137" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B137" s="100" t="s">
         <v>40</v>
       </c>
@@ -50695,16 +51674,22 @@
       <c r="CK137" s="57">
         <v>0</v>
       </c>
-      <c r="CL137" s="99"/>
+      <c r="CL137" s="57">
+        <v>0</v>
+      </c>
       <c r="CM137" s="57">
         <v>0</v>
       </c>
       <c r="CN137" s="99"/>
       <c r="CO137" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP137" s="99"/>
+      <c r="CQ137" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B138" s="100" t="s">
         <v>40</v>
       </c>
@@ -50950,7 +51935,7 @@
         <v>1</v>
       </c>
       <c r="CF138" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG138" s="57">
         <v>3</v>
@@ -50967,16 +51952,22 @@
       <c r="CK138" s="57">
         <v>0</v>
       </c>
-      <c r="CL138" s="99"/>
+      <c r="CL138" s="57">
+        <v>3</v>
+      </c>
       <c r="CM138" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN138" s="99"/>
       <c r="CO138" s="57">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="CP138" s="99"/>
+      <c r="CQ138" s="57">
+        <v>112</v>
       </c>
     </row>
-    <row r="139" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B139" s="100" t="s">
         <v>40</v>
       </c>
@@ -51237,18 +52228,24 @@
         <v>0</v>
       </c>
       <c r="CK139" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL139" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL139" s="57">
+        <v>1</v>
+      </c>
       <c r="CM139" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN139" s="99"/>
       <c r="CO139" s="57">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="CP139" s="99"/>
+      <c r="CQ139" s="57">
+        <v>95</v>
       </c>
     </row>
-    <row r="140" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B140" s="100" t="s">
         <v>40</v>
       </c>
@@ -51509,18 +52506,24 @@
         <v>1</v>
       </c>
       <c r="CK140" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL140" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL140" s="57">
+        <v>1</v>
+      </c>
       <c r="CM140" s="57">
         <v>0</v>
       </c>
       <c r="CN140" s="99"/>
       <c r="CO140" s="57">
-        <v>184</v>
+        <v>0</v>
+      </c>
+      <c r="CP140" s="99"/>
+      <c r="CQ140" s="57">
+        <v>186</v>
       </c>
     </row>
-    <row r="141" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B141" s="100" t="s">
         <v>40</v>
       </c>
@@ -51783,16 +52786,22 @@
       <c r="CK141" s="57">
         <v>0</v>
       </c>
-      <c r="CL141" s="99"/>
+      <c r="CL141" s="57">
+        <v>0</v>
+      </c>
       <c r="CM141" s="57">
         <v>0</v>
       </c>
       <c r="CN141" s="99"/>
       <c r="CO141" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP141" s="99"/>
+      <c r="CQ141" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B142" s="100" t="s">
         <v>40</v>
       </c>
@@ -52055,16 +53064,22 @@
       <c r="CK142" s="57">
         <v>0</v>
       </c>
-      <c r="CL142" s="99"/>
+      <c r="CL142" s="57">
+        <v>0</v>
+      </c>
       <c r="CM142" s="57">
         <v>0</v>
       </c>
       <c r="CN142" s="99"/>
       <c r="CO142" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP142" s="99"/>
+      <c r="CQ142" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B143" s="100" t="s">
         <v>40</v>
       </c>
@@ -52325,18 +53340,24 @@
         <v>3</v>
       </c>
       <c r="CK143" s="57">
-        <v>1</v>
-      </c>
-      <c r="CL143" s="99"/>
+        <v>4</v>
+      </c>
+      <c r="CL143" s="57">
+        <v>1</v>
+      </c>
       <c r="CM143" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN143" s="99"/>
       <c r="CO143" s="57">
-        <v>253</v>
+        <v>0</v>
+      </c>
+      <c r="CP143" s="99"/>
+      <c r="CQ143" s="57">
+        <v>258</v>
       </c>
     </row>
-    <row r="144" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B144" s="100" t="s">
         <v>40</v>
       </c>
@@ -52599,16 +53620,22 @@
       <c r="CK144" s="57">
         <v>0</v>
       </c>
-      <c r="CL144" s="99"/>
+      <c r="CL144" s="57">
+        <v>0</v>
+      </c>
       <c r="CM144" s="57">
         <v>0</v>
       </c>
       <c r="CN144" s="99"/>
       <c r="CO144" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP144" s="99"/>
+      <c r="CQ144" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B145" s="100" t="s">
         <v>40</v>
       </c>
@@ -52866,21 +53893,27 @@
         <v>1</v>
       </c>
       <c r="CJ145" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK145" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL145" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="CL145" s="57">
+        <v>0</v>
+      </c>
       <c r="CM145" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN145" s="99"/>
       <c r="CO145" s="57">
-        <v>312</v>
+        <v>0</v>
+      </c>
+      <c r="CP145" s="99"/>
+      <c r="CQ145" s="57">
+        <v>316</v>
       </c>
     </row>
-    <row r="146" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B146" s="100" t="s">
         <v>40</v>
       </c>
@@ -53143,16 +54176,22 @@
       <c r="CK146" s="57">
         <v>0</v>
       </c>
-      <c r="CL146" s="99"/>
+      <c r="CL146" s="57">
+        <v>0</v>
+      </c>
       <c r="CM146" s="57">
         <v>0</v>
       </c>
       <c r="CN146" s="99"/>
       <c r="CO146" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP146" s="99"/>
+      <c r="CQ146" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B147" s="100" t="s">
         <v>40</v>
       </c>
@@ -53413,18 +54452,24 @@
         <v>0</v>
       </c>
       <c r="CK147" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL147" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL147" s="57">
+        <v>0</v>
+      </c>
       <c r="CM147" s="57">
         <v>0</v>
       </c>
       <c r="CN147" s="99"/>
       <c r="CO147" s="57">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="CP147" s="99"/>
+      <c r="CQ147" s="57">
+        <v>110</v>
       </c>
     </row>
-    <row r="148" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B148" s="100" t="s">
         <v>40</v>
       </c>
@@ -53687,16 +54732,22 @@
       <c r="CK148" s="57">
         <v>1</v>
       </c>
-      <c r="CL148" s="99"/>
+      <c r="CL148" s="57">
+        <v>2</v>
+      </c>
       <c r="CM148" s="57">
         <v>0</v>
       </c>
       <c r="CN148" s="99"/>
       <c r="CO148" s="57">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="CP148" s="99"/>
+      <c r="CQ148" s="57">
+        <v>151</v>
       </c>
     </row>
-    <row r="149" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B149" s="100" t="s">
         <v>40</v>
       </c>
@@ -53897,7 +54948,7 @@
         <v>6</v>
       </c>
       <c r="BQ149" s="57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR149" s="57">
         <v>6</v>
@@ -53906,13 +54957,13 @@
         <v>3</v>
       </c>
       <c r="BT149" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU149" s="57">
         <v>2</v>
       </c>
       <c r="BV149" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW149" s="57">
         <v>4</v>
@@ -53959,16 +55010,22 @@
       <c r="CK149" s="57">
         <v>0</v>
       </c>
-      <c r="CL149" s="99"/>
+      <c r="CL149" s="57">
+        <v>0</v>
+      </c>
       <c r="CM149" s="57">
         <v>0</v>
       </c>
       <c r="CN149" s="99"/>
       <c r="CO149" s="57">
-        <v>198</v>
+        <v>0</v>
+      </c>
+      <c r="CP149" s="99"/>
+      <c r="CQ149" s="57">
+        <v>201</v>
       </c>
     </row>
-    <row r="150" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B150" s="100" t="s">
         <v>41</v>
       </c>
@@ -54231,16 +55288,22 @@
       <c r="CK150" s="57">
         <v>0</v>
       </c>
-      <c r="CL150" s="99"/>
+      <c r="CL150" s="57">
+        <v>0</v>
+      </c>
       <c r="CM150" s="57">
         <v>0</v>
       </c>
       <c r="CN150" s="99"/>
       <c r="CO150" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP150" s="99"/>
+      <c r="CQ150" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B151" s="100" t="s">
         <v>41</v>
       </c>
@@ -54498,21 +55561,27 @@
         <v>1</v>
       </c>
       <c r="CJ151" s="57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CK151" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL151" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL151" s="57">
+        <v>3</v>
+      </c>
       <c r="CM151" s="57">
         <v>0</v>
       </c>
       <c r="CN151" s="99"/>
       <c r="CO151" s="57">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="CP151" s="99"/>
+      <c r="CQ151" s="57">
+        <v>174</v>
       </c>
     </row>
-    <row r="152" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B152" s="100" t="s">
         <v>41</v>
       </c>
@@ -54775,16 +55844,22 @@
       <c r="CK152" s="57">
         <v>1</v>
       </c>
-      <c r="CL152" s="99"/>
+      <c r="CL152" s="57">
+        <v>0</v>
+      </c>
       <c r="CM152" s="57">
         <v>0</v>
       </c>
       <c r="CN152" s="99"/>
       <c r="CO152" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP152" s="99"/>
+      <c r="CQ152" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B153" s="100" t="s">
         <v>41</v>
       </c>
@@ -55047,16 +56122,22 @@
       <c r="CK153" s="57">
         <v>0</v>
       </c>
-      <c r="CL153" s="99"/>
+      <c r="CL153" s="57">
+        <v>0</v>
+      </c>
       <c r="CM153" s="57">
         <v>0</v>
       </c>
       <c r="CN153" s="99"/>
       <c r="CO153" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP153" s="99"/>
+      <c r="CQ153" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B154" s="100" t="s">
         <v>41</v>
       </c>
@@ -55107,7 +56188,7 @@
         <v>1</v>
       </c>
       <c r="S154" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154" s="57">
         <v>0</v>
@@ -55230,7 +56311,7 @@
         <v>4</v>
       </c>
       <c r="BH154" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI154" s="57">
         <v>0</v>
@@ -55302,7 +56383,7 @@
         <v>0</v>
       </c>
       <c r="CF154" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG154" s="57">
         <v>3</v>
@@ -55319,16 +56400,22 @@
       <c r="CK154" s="57">
         <v>0</v>
       </c>
-      <c r="CL154" s="99"/>
+      <c r="CL154" s="57">
+        <v>1</v>
+      </c>
       <c r="CM154" s="57">
         <v>0</v>
       </c>
       <c r="CN154" s="99"/>
       <c r="CO154" s="57">
-        <v>161</v>
+        <v>0</v>
+      </c>
+      <c r="CP154" s="99"/>
+      <c r="CQ154" s="57">
+        <v>165</v>
       </c>
     </row>
-    <row r="155" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B155" s="100" t="s">
         <v>41</v>
       </c>
@@ -55591,16 +56678,22 @@
       <c r="CK155" s="57">
         <v>0</v>
       </c>
-      <c r="CL155" s="99"/>
+      <c r="CL155" s="57">
+        <v>0</v>
+      </c>
       <c r="CM155" s="57">
         <v>0</v>
       </c>
       <c r="CN155" s="99"/>
       <c r="CO155" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP155" s="99"/>
+      <c r="CQ155" s="57">
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B156" s="100" t="s">
         <v>41</v>
       </c>
@@ -55863,16 +56956,22 @@
       <c r="CK156" s="57">
         <v>0</v>
       </c>
-      <c r="CL156" s="99"/>
+      <c r="CL156" s="57">
+        <v>0</v>
+      </c>
       <c r="CM156" s="57">
         <v>0</v>
       </c>
       <c r="CN156" s="99"/>
       <c r="CO156" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP156" s="99"/>
+      <c r="CQ156" s="57">
         <v>177</v>
       </c>
     </row>
-    <row r="157" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B157" s="100" t="s">
         <v>41</v>
       </c>
@@ -56135,16 +57234,22 @@
       <c r="CK157" s="57">
         <v>0</v>
       </c>
-      <c r="CL157" s="99"/>
+      <c r="CL157" s="57">
+        <v>0</v>
+      </c>
       <c r="CM157" s="57">
         <v>0</v>
       </c>
       <c r="CN157" s="99"/>
       <c r="CO157" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP157" s="99"/>
+      <c r="CQ157" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B158" s="100" t="s">
         <v>41</v>
       </c>
@@ -56399,7 +57504,7 @@
         <v>3</v>
       </c>
       <c r="CI158" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ158" s="57">
         <v>0</v>
@@ -56407,16 +57512,22 @@
       <c r="CK158" s="57">
         <v>3</v>
       </c>
-      <c r="CL158" s="99"/>
+      <c r="CL158" s="57">
+        <v>0</v>
+      </c>
       <c r="CM158" s="57">
         <v>0</v>
       </c>
       <c r="CN158" s="99"/>
       <c r="CO158" s="57">
-        <v>191</v>
+        <v>0</v>
+      </c>
+      <c r="CP158" s="99"/>
+      <c r="CQ158" s="57">
+        <v>192</v>
       </c>
     </row>
-    <row r="159" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B159" s="100" t="s">
         <v>41</v>
       </c>
@@ -56679,16 +57790,22 @@
       <c r="CK159" s="57">
         <v>0</v>
       </c>
-      <c r="CL159" s="99"/>
+      <c r="CL159" s="57">
+        <v>0</v>
+      </c>
       <c r="CM159" s="57">
         <v>0</v>
       </c>
       <c r="CN159" s="99"/>
       <c r="CO159" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP159" s="99"/>
+      <c r="CQ159" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B160" s="100" t="s">
         <v>41</v>
       </c>
@@ -56823,19 +57940,19 @@
         <v>22</v>
       </c>
       <c r="AU160" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV160" s="57">
         <v>11</v>
       </c>
       <c r="AW160" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX160" s="57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY160" s="57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ160" s="57">
         <v>14</v>
@@ -56859,13 +57976,13 @@
         <v>5</v>
       </c>
       <c r="BG160" s="57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BH160" s="57">
         <v>9</v>
       </c>
       <c r="BI160" s="57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BJ160" s="57">
         <v>5</v>
@@ -56946,21 +58063,27 @@
         <v>3</v>
       </c>
       <c r="CJ160" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK160" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL160" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL160" s="57">
+        <v>0</v>
+      </c>
       <c r="CM160" s="57">
         <v>0</v>
       </c>
       <c r="CN160" s="99"/>
       <c r="CO160" s="57">
-        <v>399</v>
+        <v>0</v>
+      </c>
+      <c r="CP160" s="99"/>
+      <c r="CQ160" s="57">
+        <v>408</v>
       </c>
     </row>
-    <row r="161" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B161" s="100" t="s">
         <v>41</v>
       </c>
@@ -57215,24 +58338,30 @@
         <v>7</v>
       </c>
       <c r="CI161" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CJ161" s="57">
         <v>0</v>
       </c>
       <c r="CK161" s="57">
-        <v>1</v>
-      </c>
-      <c r="CL161" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="CL161" s="57">
+        <v>1</v>
+      </c>
       <c r="CM161" s="57">
         <v>0</v>
       </c>
       <c r="CN161" s="99"/>
       <c r="CO161" s="57">
-        <v>363</v>
+        <v>0</v>
+      </c>
+      <c r="CP161" s="99"/>
+      <c r="CQ161" s="57">
+        <v>367</v>
       </c>
     </row>
-    <row r="162" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B162" s="100" t="s">
         <v>41</v>
       </c>
@@ -57495,16 +58624,22 @@
       <c r="CK162" s="57">
         <v>0</v>
       </c>
-      <c r="CL162" s="99"/>
+      <c r="CL162" s="57">
+        <v>0</v>
+      </c>
       <c r="CM162" s="57">
         <v>0</v>
       </c>
       <c r="CN162" s="99"/>
       <c r="CO162" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP162" s="99"/>
+      <c r="CQ162" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B163" s="100" t="s">
         <v>41</v>
       </c>
@@ -57765,18 +58900,24 @@
         <v>1</v>
       </c>
       <c r="CK163" s="57">
-        <v>1</v>
-      </c>
-      <c r="CL163" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="CL163" s="57">
+        <v>1</v>
+      </c>
       <c r="CM163" s="57">
         <v>0</v>
       </c>
       <c r="CN163" s="99"/>
       <c r="CO163" s="57">
-        <v>166</v>
+        <v>0</v>
+      </c>
+      <c r="CP163" s="99"/>
+      <c r="CQ163" s="57">
+        <v>168</v>
       </c>
     </row>
-    <row r="164" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B164" s="100" t="s">
         <v>41</v>
       </c>
@@ -58039,16 +59180,22 @@
       <c r="CK164" s="57">
         <v>0</v>
       </c>
-      <c r="CL164" s="99"/>
+      <c r="CL164" s="57">
+        <v>0</v>
+      </c>
       <c r="CM164" s="57">
         <v>0</v>
       </c>
       <c r="CN164" s="99"/>
       <c r="CO164" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP164" s="99"/>
+      <c r="CQ164" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B165" s="100" t="s">
         <v>41</v>
       </c>
@@ -58311,16 +59458,22 @@
       <c r="CK165" s="57">
         <v>0</v>
       </c>
-      <c r="CL165" s="99"/>
+      <c r="CL165" s="57">
+        <v>0</v>
+      </c>
       <c r="CM165" s="57">
         <v>0</v>
       </c>
       <c r="CN165" s="99"/>
       <c r="CO165" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP165" s="99"/>
+      <c r="CQ165" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B166" s="100" t="s">
         <v>41</v>
       </c>
@@ -58583,16 +59736,22 @@
       <c r="CK166" s="57">
         <v>0</v>
       </c>
-      <c r="CL166" s="99"/>
+      <c r="CL166" s="57">
+        <v>1</v>
+      </c>
       <c r="CM166" s="57">
         <v>0</v>
       </c>
       <c r="CN166" s="99"/>
       <c r="CO166" s="57">
-        <v>416</v>
+        <v>0</v>
+      </c>
+      <c r="CP166" s="99"/>
+      <c r="CQ166" s="57">
+        <v>417</v>
       </c>
     </row>
-    <row r="167" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B167" s="100" t="s">
         <v>41</v>
       </c>
@@ -58855,16 +60014,22 @@
       <c r="CK167" s="57">
         <v>0</v>
       </c>
-      <c r="CL167" s="99"/>
+      <c r="CL167" s="57">
+        <v>0</v>
+      </c>
       <c r="CM167" s="57">
         <v>0</v>
       </c>
       <c r="CN167" s="99"/>
       <c r="CO167" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP167" s="99"/>
+      <c r="CQ167" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B168" s="100" t="s">
         <v>41</v>
       </c>
@@ -59127,16 +60292,22 @@
       <c r="CK168" s="57">
         <v>0</v>
       </c>
-      <c r="CL168" s="99"/>
+      <c r="CL168" s="57">
+        <v>1</v>
+      </c>
       <c r="CM168" s="57">
         <v>0</v>
       </c>
       <c r="CN168" s="99"/>
       <c r="CO168" s="57">
-        <v>164</v>
+        <v>0</v>
+      </c>
+      <c r="CP168" s="99"/>
+      <c r="CQ168" s="57">
+        <v>165</v>
       </c>
     </row>
-    <row r="169" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B169" s="100" t="s">
         <v>41</v>
       </c>
@@ -59399,16 +60570,22 @@
       <c r="CK169" s="57">
         <v>0</v>
       </c>
-      <c r="CL169" s="99"/>
+      <c r="CL169" s="57">
+        <v>1</v>
+      </c>
       <c r="CM169" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN169" s="99"/>
       <c r="CO169" s="57">
-        <v>133</v>
+        <v>0</v>
+      </c>
+      <c r="CP169" s="99"/>
+      <c r="CQ169" s="57">
+        <v>135</v>
       </c>
     </row>
-    <row r="170" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B170" s="100" t="s">
         <v>41</v>
       </c>
@@ -59663,7 +60840,7 @@
         <v>1</v>
       </c>
       <c r="CI170" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ170" s="57">
         <v>1</v>
@@ -59671,16 +60848,22 @@
       <c r="CK170" s="57">
         <v>0</v>
       </c>
-      <c r="CL170" s="99"/>
+      <c r="CL170" s="57">
+        <v>1</v>
+      </c>
       <c r="CM170" s="57">
         <v>0</v>
       </c>
       <c r="CN170" s="99"/>
       <c r="CO170" s="57">
-        <v>181</v>
+        <v>0</v>
+      </c>
+      <c r="CP170" s="99"/>
+      <c r="CQ170" s="57">
+        <v>183</v>
       </c>
     </row>
-    <row r="171" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B171" s="100" t="s">
         <v>41</v>
       </c>
@@ -59935,7 +61118,7 @@
         <v>2</v>
       </c>
       <c r="CI171" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ171" s="57">
         <v>1</v>
@@ -59943,16 +61126,22 @@
       <c r="CK171" s="57">
         <v>0</v>
       </c>
-      <c r="CL171" s="99"/>
+      <c r="CL171" s="57">
+        <v>0</v>
+      </c>
       <c r="CM171" s="57">
         <v>0</v>
       </c>
       <c r="CN171" s="99"/>
       <c r="CO171" s="57">
-        <v>178</v>
+        <v>0</v>
+      </c>
+      <c r="CP171" s="99"/>
+      <c r="CQ171" s="57">
+        <v>179</v>
       </c>
     </row>
-    <row r="172" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B172" s="100" t="s">
         <v>41</v>
       </c>
@@ -60213,18 +61402,24 @@
         <v>0</v>
       </c>
       <c r="CK172" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL172" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL172" s="57">
+        <v>0</v>
+      </c>
       <c r="CM172" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN172" s="99"/>
       <c r="CO172" s="57">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="CP172" s="99"/>
+      <c r="CQ172" s="57">
+        <v>146</v>
       </c>
     </row>
-    <row r="173" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B173" s="100" t="s">
         <v>41</v>
       </c>
@@ -60487,16 +61682,22 @@
       <c r="CK173" s="57">
         <v>0</v>
       </c>
-      <c r="CL173" s="99"/>
+      <c r="CL173" s="57">
+        <v>0</v>
+      </c>
       <c r="CM173" s="57">
         <v>0</v>
       </c>
       <c r="CN173" s="99"/>
       <c r="CO173" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP173" s="99"/>
+      <c r="CQ173" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B174" s="100" t="s">
         <v>41</v>
       </c>
@@ -60759,16 +61960,22 @@
       <c r="CK174" s="57">
         <v>0</v>
       </c>
-      <c r="CL174" s="99"/>
+      <c r="CL174" s="57">
+        <v>0</v>
+      </c>
       <c r="CM174" s="57">
         <v>0</v>
       </c>
       <c r="CN174" s="99"/>
       <c r="CO174" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP174" s="99"/>
+      <c r="CQ174" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B175" s="100" t="s">
         <v>41</v>
       </c>
@@ -61031,16 +62238,22 @@
       <c r="CK175" s="57">
         <v>0</v>
       </c>
-      <c r="CL175" s="99"/>
+      <c r="CL175" s="57">
+        <v>0</v>
+      </c>
       <c r="CM175" s="57">
         <v>0</v>
       </c>
       <c r="CN175" s="99"/>
       <c r="CO175" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP175" s="99"/>
+      <c r="CQ175" s="57">
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B176" s="100" t="s">
         <v>41</v>
       </c>
@@ -61303,16 +62516,22 @@
       <c r="CK176" s="57">
         <v>1</v>
       </c>
-      <c r="CL176" s="99"/>
+      <c r="CL176" s="57">
+        <v>1</v>
+      </c>
       <c r="CM176" s="57">
         <v>0</v>
       </c>
       <c r="CN176" s="99"/>
       <c r="CO176" s="57">
-        <v>115</v>
+        <v>0</v>
+      </c>
+      <c r="CP176" s="99"/>
+      <c r="CQ176" s="57">
+        <v>116</v>
       </c>
     </row>
-    <row r="177" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B177" s="100" t="s">
         <v>41</v>
       </c>
@@ -61575,16 +62794,22 @@
       <c r="CK177" s="57">
         <v>0</v>
       </c>
-      <c r="CL177" s="99"/>
+      <c r="CL177" s="57">
+        <v>0</v>
+      </c>
       <c r="CM177" s="57">
         <v>0</v>
       </c>
       <c r="CN177" s="99"/>
       <c r="CO177" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP177" s="99"/>
+      <c r="CQ177" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B178" s="100" t="s">
         <v>41</v>
       </c>
@@ -61845,18 +63070,24 @@
         <v>3</v>
       </c>
       <c r="CK178" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL178" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL178" s="57">
+        <v>1</v>
+      </c>
       <c r="CM178" s="57">
         <v>0</v>
       </c>
       <c r="CN178" s="99"/>
       <c r="CO178" s="57">
-        <v>235</v>
+        <v>0</v>
+      </c>
+      <c r="CP178" s="99"/>
+      <c r="CQ178" s="57">
+        <v>237</v>
       </c>
     </row>
-    <row r="179" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B179" s="100" t="s">
         <v>42</v>
       </c>
@@ -62119,16 +63350,22 @@
       <c r="CK179" s="57">
         <v>0</v>
       </c>
-      <c r="CL179" s="99"/>
+      <c r="CL179" s="57">
+        <v>0</v>
+      </c>
       <c r="CM179" s="57">
         <v>0</v>
       </c>
       <c r="CN179" s="99"/>
       <c r="CO179" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP179" s="99"/>
+      <c r="CQ179" s="57">
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B180" s="100" t="s">
         <v>42</v>
       </c>
@@ -62391,16 +63628,22 @@
       <c r="CK180" s="57">
         <v>0</v>
       </c>
-      <c r="CL180" s="99"/>
+      <c r="CL180" s="57">
+        <v>0</v>
+      </c>
       <c r="CM180" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN180" s="99"/>
       <c r="CO180" s="57">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="CP180" s="99"/>
+      <c r="CQ180" s="57">
+        <v>17</v>
       </c>
     </row>
-    <row r="181" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B181" s="105" t="s">
         <v>42</v>
       </c>
@@ -62663,16 +63906,22 @@
       <c r="CK181" s="57">
         <v>0</v>
       </c>
-      <c r="CL181" s="99"/>
+      <c r="CL181" s="57">
+        <v>0</v>
+      </c>
       <c r="CM181" s="57">
         <v>0</v>
       </c>
       <c r="CN181" s="99"/>
       <c r="CO181" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP181" s="99"/>
+      <c r="CQ181" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B182" s="100" t="s">
         <v>42</v>
       </c>
@@ -62935,16 +64184,22 @@
       <c r="CK182" s="57">
         <v>0</v>
       </c>
-      <c r="CL182" s="99"/>
+      <c r="CL182" s="57">
+        <v>0</v>
+      </c>
       <c r="CM182" s="57">
         <v>0</v>
       </c>
       <c r="CN182" s="99"/>
       <c r="CO182" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP182" s="99"/>
+      <c r="CQ182" s="57">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B183" s="100" t="s">
         <v>42</v>
       </c>
@@ -63205,18 +64460,24 @@
         <v>0</v>
       </c>
       <c r="CK183" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL183" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL183" s="57">
+        <v>0</v>
+      </c>
       <c r="CM183" s="57">
         <v>0</v>
       </c>
       <c r="CN183" s="99"/>
       <c r="CO183" s="57">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="CP183" s="99"/>
+      <c r="CQ183" s="57">
+        <v>113</v>
       </c>
     </row>
-    <row r="184" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B184" s="100" t="s">
         <v>42</v>
       </c>
@@ -63479,16 +64740,22 @@
       <c r="CK184" s="57">
         <v>0</v>
       </c>
-      <c r="CL184" s="99"/>
+      <c r="CL184" s="57">
+        <v>0</v>
+      </c>
       <c r="CM184" s="57">
         <v>0</v>
       </c>
       <c r="CN184" s="99"/>
       <c r="CO184" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP184" s="99"/>
+      <c r="CQ184" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B185" s="100" t="s">
         <v>42</v>
       </c>
@@ -63751,16 +65018,22 @@
       <c r="CK185" s="57">
         <v>0</v>
       </c>
-      <c r="CL185" s="99"/>
+      <c r="CL185" s="57">
+        <v>0</v>
+      </c>
       <c r="CM185" s="57">
         <v>0</v>
       </c>
       <c r="CN185" s="99"/>
       <c r="CO185" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP185" s="99"/>
+      <c r="CQ185" s="57">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B186" s="100" t="s">
         <v>42</v>
       </c>
@@ -64023,16 +65296,22 @@
       <c r="CK186" s="57">
         <v>2</v>
       </c>
-      <c r="CL186" s="99"/>
+      <c r="CL186" s="57">
+        <v>0</v>
+      </c>
       <c r="CM186" s="57">
         <v>0</v>
       </c>
       <c r="CN186" s="99"/>
       <c r="CO186" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP186" s="99"/>
+      <c r="CQ186" s="57">
         <v>264</v>
       </c>
     </row>
-    <row r="187" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B187" s="100" t="s">
         <v>42</v>
       </c>
@@ -64295,16 +65574,22 @@
       <c r="CK187" s="57">
         <v>0</v>
       </c>
-      <c r="CL187" s="99"/>
+      <c r="CL187" s="57">
+        <v>0</v>
+      </c>
       <c r="CM187" s="57">
         <v>0</v>
       </c>
       <c r="CN187" s="99"/>
       <c r="CO187" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP187" s="99"/>
+      <c r="CQ187" s="57">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B188" s="100" t="s">
         <v>42</v>
       </c>
@@ -64508,7 +65793,7 @@
         <v>7</v>
       </c>
       <c r="BR188" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS188" s="57">
         <v>1</v>
@@ -64562,21 +65847,27 @@
         <v>0</v>
       </c>
       <c r="CJ188" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK188" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL188" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL188" s="57">
+        <v>0</v>
+      </c>
       <c r="CM188" s="57">
         <v>0</v>
       </c>
       <c r="CN188" s="99"/>
       <c r="CO188" s="57">
-        <v>329</v>
+        <v>0</v>
+      </c>
+      <c r="CP188" s="99"/>
+      <c r="CQ188" s="57">
+        <v>333</v>
       </c>
     </row>
-    <row r="189" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B189" s="100" t="s">
         <v>42</v>
       </c>
@@ -64837,18 +66128,24 @@
         <v>0</v>
       </c>
       <c r="CK189" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL189" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL189" s="57">
+        <v>0</v>
+      </c>
       <c r="CM189" s="57">
         <v>0</v>
       </c>
       <c r="CN189" s="99"/>
       <c r="CO189" s="57">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="CP189" s="99"/>
+      <c r="CQ189" s="57">
+        <v>152</v>
       </c>
     </row>
-    <row r="190" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B190" s="100" t="s">
         <v>42</v>
       </c>
@@ -65111,16 +66408,22 @@
       <c r="CK190" s="57">
         <v>0</v>
       </c>
-      <c r="CL190" s="99"/>
+      <c r="CL190" s="57">
+        <v>0</v>
+      </c>
       <c r="CM190" s="57">
         <v>0</v>
       </c>
       <c r="CN190" s="99"/>
       <c r="CO190" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP190" s="99"/>
+      <c r="CQ190" s="57">
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B191" s="100" t="s">
         <v>42</v>
       </c>
@@ -65383,16 +66686,22 @@
       <c r="CK191" s="57">
         <v>0</v>
       </c>
-      <c r="CL191" s="99"/>
+      <c r="CL191" s="57">
+        <v>0</v>
+      </c>
       <c r="CM191" s="57">
         <v>0</v>
       </c>
       <c r="CN191" s="99"/>
       <c r="CO191" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP191" s="99"/>
+      <c r="CQ191" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B192" s="100" t="s">
         <v>42</v>
       </c>
@@ -65655,16 +66964,22 @@
       <c r="CK192" s="57">
         <v>0</v>
       </c>
-      <c r="CL192" s="99"/>
+      <c r="CL192" s="57">
+        <v>0</v>
+      </c>
       <c r="CM192" s="57">
         <v>0</v>
       </c>
       <c r="CN192" s="99"/>
       <c r="CO192" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP192" s="99"/>
+      <c r="CQ192" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B193" s="100" t="s">
         <v>42</v>
       </c>
@@ -65927,16 +67242,22 @@
       <c r="CK193" s="57">
         <v>0</v>
       </c>
-      <c r="CL193" s="99"/>
+      <c r="CL193" s="57">
+        <v>0</v>
+      </c>
       <c r="CM193" s="57">
         <v>0</v>
       </c>
       <c r="CN193" s="99"/>
       <c r="CO193" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP193" s="99"/>
+      <c r="CQ193" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B194" s="100" t="s">
         <v>42</v>
       </c>
@@ -66199,16 +67520,22 @@
       <c r="CK194" s="57">
         <v>0</v>
       </c>
-      <c r="CL194" s="99"/>
+      <c r="CL194" s="57">
+        <v>0</v>
+      </c>
       <c r="CM194" s="57">
         <v>0</v>
       </c>
       <c r="CN194" s="99"/>
       <c r="CO194" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP194" s="99"/>
+      <c r="CQ194" s="57">
         <v>152</v>
       </c>
     </row>
-    <row r="195" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B195" s="100" t="s">
         <v>42</v>
       </c>
@@ -66471,16 +67798,22 @@
       <c r="CK195" s="57">
         <v>0</v>
       </c>
-      <c r="CL195" s="99"/>
+      <c r="CL195" s="57">
+        <v>0</v>
+      </c>
       <c r="CM195" s="57">
         <v>0</v>
       </c>
       <c r="CN195" s="99"/>
       <c r="CO195" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP195" s="99"/>
+      <c r="CQ195" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B196" s="100" t="s">
         <v>42</v>
       </c>
@@ -66743,16 +68076,22 @@
       <c r="CK196" s="57">
         <v>0</v>
       </c>
-      <c r="CL196" s="99"/>
+      <c r="CL196" s="57">
+        <v>0</v>
+      </c>
       <c r="CM196" s="57">
         <v>0</v>
       </c>
       <c r="CN196" s="99"/>
       <c r="CO196" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP196" s="99"/>
+      <c r="CQ196" s="57">
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B197" s="100" t="s">
         <v>42</v>
       </c>
@@ -67015,16 +68354,22 @@
       <c r="CK197" s="57">
         <v>0</v>
       </c>
-      <c r="CL197" s="99"/>
+      <c r="CL197" s="57">
+        <v>0</v>
+      </c>
       <c r="CM197" s="57">
         <v>0</v>
       </c>
       <c r="CN197" s="99"/>
       <c r="CO197" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP197" s="99"/>
+      <c r="CQ197" s="57">
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B198" s="100" t="s">
         <v>42</v>
       </c>
@@ -67285,18 +68630,24 @@
         <v>0</v>
       </c>
       <c r="CK198" s="57">
-        <v>0</v>
-      </c>
-      <c r="CL198" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="CL198" s="57">
+        <v>0</v>
+      </c>
       <c r="CM198" s="57">
         <v>0</v>
       </c>
       <c r="CN198" s="99"/>
       <c r="CO198" s="57">
-        <v>221</v>
+        <v>0</v>
+      </c>
+      <c r="CP198" s="99"/>
+      <c r="CQ198" s="57">
+        <v>222</v>
       </c>
     </row>
-    <row r="199" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B199" s="100" t="s">
         <v>42</v>
       </c>
@@ -67559,16 +68910,22 @@
       <c r="CK199" s="57">
         <v>0</v>
       </c>
-      <c r="CL199" s="99"/>
+      <c r="CL199" s="57">
+        <v>1</v>
+      </c>
       <c r="CM199" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN199" s="99"/>
       <c r="CO199" s="57">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="CP199" s="99"/>
+      <c r="CQ199" s="57">
+        <v>172</v>
       </c>
     </row>
-    <row r="200" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B200" s="100" t="s">
         <v>42</v>
       </c>
@@ -67831,16 +69188,22 @@
       <c r="CK200" s="57">
         <v>0</v>
       </c>
-      <c r="CL200" s="99"/>
+      <c r="CL200" s="57">
+        <v>0</v>
+      </c>
       <c r="CM200" s="57">
         <v>0</v>
       </c>
       <c r="CN200" s="99"/>
       <c r="CO200" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP200" s="99"/>
+      <c r="CQ200" s="57">
         <v>94</v>
       </c>
     </row>
-    <row r="201" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B201" s="100" t="s">
         <v>42</v>
       </c>
@@ -68103,16 +69466,22 @@
       <c r="CK201" s="57">
         <v>0</v>
       </c>
-      <c r="CL201" s="99"/>
+      <c r="CL201" s="57">
+        <v>0</v>
+      </c>
       <c r="CM201" s="57">
         <v>0</v>
       </c>
       <c r="CN201" s="99"/>
       <c r="CO201" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP201" s="99"/>
+      <c r="CQ201" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B202" s="100" t="s">
         <v>42</v>
       </c>
@@ -68375,16 +69744,22 @@
       <c r="CK202" s="57">
         <v>0</v>
       </c>
-      <c r="CL202" s="99"/>
+      <c r="CL202" s="57">
+        <v>0</v>
+      </c>
       <c r="CM202" s="57">
         <v>0</v>
       </c>
       <c r="CN202" s="99"/>
       <c r="CO202" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP202" s="99"/>
+      <c r="CQ202" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B203" s="100" t="s">
         <v>42</v>
       </c>
@@ -68630,7 +70005,7 @@
         <v>0</v>
       </c>
       <c r="CF203" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG203" s="57">
         <v>1</v>
@@ -68645,18 +70020,24 @@
         <v>1</v>
       </c>
       <c r="CK203" s="57">
-        <v>1</v>
-      </c>
-      <c r="CL203" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="CL203" s="57">
+        <v>2</v>
+      </c>
       <c r="CM203" s="57">
         <v>0</v>
       </c>
       <c r="CN203" s="99"/>
       <c r="CO203" s="57">
-        <v>236</v>
+        <v>0</v>
+      </c>
+      <c r="CP203" s="99"/>
+      <c r="CQ203" s="57">
+        <v>240</v>
       </c>
     </row>
-    <row r="204" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B204" s="100" t="s">
         <v>42</v>
       </c>
@@ -68919,16 +70300,22 @@
       <c r="CK204" s="57">
         <v>0</v>
       </c>
-      <c r="CL204" s="99"/>
+      <c r="CL204" s="57">
+        <v>0</v>
+      </c>
       <c r="CM204" s="57">
         <v>0</v>
       </c>
       <c r="CN204" s="99"/>
       <c r="CO204" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP204" s="99"/>
+      <c r="CQ204" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B205" s="100" t="s">
         <v>42</v>
       </c>
@@ -69191,7 +70578,9 @@
       <c r="CK205" s="57">
         <v>0</v>
       </c>
-      <c r="CL205" s="99"/>
+      <c r="CL205" s="57">
+        <v>0</v>
+      </c>
       <c r="CM205" s="57">
         <v>0</v>
       </c>
@@ -69199,8 +70588,12 @@
       <c r="CO205" s="57">
         <v>0</v>
       </c>
+      <c r="CP205" s="99"/>
+      <c r="CQ205" s="57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B206" s="100" t="s">
         <v>42</v>
       </c>
@@ -69463,16 +70856,22 @@
       <c r="CK206" s="57">
         <v>1</v>
       </c>
-      <c r="CL206" s="99"/>
+      <c r="CL206" s="57">
+        <v>0</v>
+      </c>
       <c r="CM206" s="57">
         <v>0</v>
       </c>
       <c r="CN206" s="99"/>
       <c r="CO206" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP206" s="99"/>
+      <c r="CQ206" s="57">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B207" s="100" t="s">
         <v>42</v>
       </c>
@@ -69735,16 +71134,22 @@
       <c r="CK207" s="57">
         <v>0</v>
       </c>
-      <c r="CL207" s="99"/>
+      <c r="CL207" s="57">
+        <v>0</v>
+      </c>
       <c r="CM207" s="57">
         <v>0</v>
       </c>
       <c r="CN207" s="99"/>
       <c r="CO207" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP207" s="99"/>
+      <c r="CQ207" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B208" s="100" t="s">
         <v>42</v>
       </c>
@@ -70007,16 +71412,22 @@
       <c r="CK208" s="57">
         <v>0</v>
       </c>
-      <c r="CL208" s="99"/>
+      <c r="CL208" s="57">
+        <v>0</v>
+      </c>
       <c r="CM208" s="57">
         <v>0</v>
       </c>
       <c r="CN208" s="99"/>
       <c r="CO208" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP208" s="99"/>
+      <c r="CQ208" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B209" s="100" t="s">
         <v>42</v>
       </c>
@@ -70271,7 +71682,7 @@
         <v>0</v>
       </c>
       <c r="CI209" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CJ209" s="57">
         <v>0</v>
@@ -70279,16 +71690,22 @@
       <c r="CK209" s="57">
         <v>0</v>
       </c>
-      <c r="CL209" s="99"/>
+      <c r="CL209" s="57">
+        <v>0</v>
+      </c>
       <c r="CM209" s="57">
         <v>0</v>
       </c>
       <c r="CN209" s="99"/>
       <c r="CO209" s="57">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="CP209" s="99"/>
+      <c r="CQ209" s="57">
+        <v>101</v>
       </c>
     </row>
-    <row r="210" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B210" s="100" t="s">
         <v>43</v>
       </c>
@@ -70551,16 +71968,22 @@
       <c r="CK210" s="57">
         <v>0</v>
       </c>
-      <c r="CL210" s="99"/>
+      <c r="CL210" s="57">
+        <v>0</v>
+      </c>
       <c r="CM210" s="57">
         <v>0</v>
       </c>
       <c r="CN210" s="99"/>
       <c r="CO210" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP210" s="99"/>
+      <c r="CQ210" s="57">
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B211" s="100" t="s">
         <v>43</v>
       </c>
@@ -70823,16 +72246,22 @@
       <c r="CK211" s="57">
         <v>0</v>
       </c>
-      <c r="CL211" s="99"/>
+      <c r="CL211" s="57">
+        <v>0</v>
+      </c>
       <c r="CM211" s="57">
         <v>0</v>
       </c>
       <c r="CN211" s="99"/>
       <c r="CO211" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP211" s="99"/>
+      <c r="CQ211" s="57">
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B212" s="100" t="s">
         <v>43</v>
       </c>
@@ -71095,16 +72524,22 @@
       <c r="CK212" s="57">
         <v>0</v>
       </c>
-      <c r="CL212" s="99"/>
+      <c r="CL212" s="57">
+        <v>0</v>
+      </c>
       <c r="CM212" s="57">
         <v>0</v>
       </c>
       <c r="CN212" s="99"/>
       <c r="CO212" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP212" s="99"/>
+      <c r="CQ212" s="57">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B213" s="100" t="s">
         <v>43</v>
       </c>
@@ -71367,16 +72802,22 @@
       <c r="CK213" s="57">
         <v>0</v>
       </c>
-      <c r="CL213" s="99"/>
+      <c r="CL213" s="57">
+        <v>0</v>
+      </c>
       <c r="CM213" s="57">
         <v>0</v>
       </c>
       <c r="CN213" s="99"/>
       <c r="CO213" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP213" s="99"/>
+      <c r="CQ213" s="57">
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B214" s="100" t="s">
         <v>43</v>
       </c>
@@ -71639,16 +73080,22 @@
       <c r="CK214" s="57">
         <v>0</v>
       </c>
-      <c r="CL214" s="99"/>
+      <c r="CL214" s="57">
+        <v>1</v>
+      </c>
       <c r="CM214" s="57">
         <v>0</v>
       </c>
       <c r="CN214" s="99"/>
       <c r="CO214" s="57">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="CP214" s="99"/>
+      <c r="CQ214" s="57">
+        <v>187</v>
       </c>
     </row>
-    <row r="215" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B215" s="100" t="s">
         <v>43</v>
       </c>
@@ -71911,16 +73358,22 @@
       <c r="CK215" s="57">
         <v>0</v>
       </c>
-      <c r="CL215" s="99"/>
+      <c r="CL215" s="57">
+        <v>0</v>
+      </c>
       <c r="CM215" s="57">
         <v>0</v>
       </c>
       <c r="CN215" s="99"/>
       <c r="CO215" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP215" s="99"/>
+      <c r="CQ215" s="57">
         <v>111</v>
       </c>
     </row>
-    <row r="216" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B216" s="100" t="s">
         <v>43</v>
       </c>
@@ -72183,16 +73636,22 @@
       <c r="CK216" s="57">
         <v>0</v>
       </c>
-      <c r="CL216" s="99"/>
+      <c r="CL216" s="57">
+        <v>0</v>
+      </c>
       <c r="CM216" s="57">
         <v>0</v>
       </c>
       <c r="CN216" s="99"/>
       <c r="CO216" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP216" s="99"/>
+      <c r="CQ216" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B217" s="100" t="s">
         <v>43</v>
       </c>
@@ -72455,16 +73914,22 @@
       <c r="CK217" s="57">
         <v>0</v>
       </c>
-      <c r="CL217" s="99"/>
+      <c r="CL217" s="57">
+        <v>1</v>
+      </c>
       <c r="CM217" s="57">
         <v>0</v>
       </c>
       <c r="CN217" s="99"/>
       <c r="CO217" s="57">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="CP217" s="99"/>
+      <c r="CQ217" s="57">
+        <v>113</v>
       </c>
     </row>
-    <row r="218" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B218" s="100" t="s">
         <v>43</v>
       </c>
@@ -72727,16 +74192,22 @@
       <c r="CK218" s="57">
         <v>0</v>
       </c>
-      <c r="CL218" s="99"/>
+      <c r="CL218" s="57">
+        <v>0</v>
+      </c>
       <c r="CM218" s="57">
         <v>0</v>
       </c>
       <c r="CN218" s="99"/>
       <c r="CO218" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP218" s="99"/>
+      <c r="CQ218" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B219" s="100" t="s">
         <v>43</v>
       </c>
@@ -72999,16 +74470,22 @@
       <c r="CK219" s="57">
         <v>0</v>
       </c>
-      <c r="CL219" s="99"/>
+      <c r="CL219" s="57">
+        <v>0</v>
+      </c>
       <c r="CM219" s="57">
         <v>0</v>
       </c>
       <c r="CN219" s="99"/>
       <c r="CO219" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP219" s="99"/>
+      <c r="CQ219" s="57">
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B220" s="100" t="s">
         <v>43</v>
       </c>
@@ -73271,16 +74748,22 @@
       <c r="CK220" s="57">
         <v>0</v>
       </c>
-      <c r="CL220" s="99"/>
+      <c r="CL220" s="57">
+        <v>0</v>
+      </c>
       <c r="CM220" s="57">
         <v>0</v>
       </c>
       <c r="CN220" s="99"/>
       <c r="CO220" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP220" s="99"/>
+      <c r="CQ220" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B221" s="100" t="s">
         <v>43</v>
       </c>
@@ -73543,16 +75026,22 @@
       <c r="CK221" s="57">
         <v>0</v>
       </c>
-      <c r="CL221" s="99"/>
+      <c r="CL221" s="57">
+        <v>0</v>
+      </c>
       <c r="CM221" s="57">
         <v>0</v>
       </c>
       <c r="CN221" s="99"/>
       <c r="CO221" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP221" s="99"/>
+      <c r="CQ221" s="57">
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B222" s="100" t="s">
         <v>43</v>
       </c>
@@ -73815,16 +75304,22 @@
       <c r="CK222" s="57">
         <v>0</v>
       </c>
-      <c r="CL222" s="99"/>
+      <c r="CL222" s="57">
+        <v>0</v>
+      </c>
       <c r="CM222" s="57">
         <v>0</v>
       </c>
       <c r="CN222" s="99"/>
       <c r="CO222" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP222" s="99"/>
+      <c r="CQ222" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B223" s="100" t="s">
         <v>43</v>
       </c>
@@ -74087,16 +75582,22 @@
       <c r="CK223" s="57">
         <v>0</v>
       </c>
-      <c r="CL223" s="99"/>
+      <c r="CL223" s="57">
+        <v>0</v>
+      </c>
       <c r="CM223" s="57">
         <v>0</v>
       </c>
       <c r="CN223" s="99"/>
       <c r="CO223" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP223" s="99"/>
+      <c r="CQ223" s="57">
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B224" s="100" t="s">
         <v>43</v>
       </c>
@@ -74359,16 +75860,22 @@
       <c r="CK224" s="57">
         <v>0</v>
       </c>
-      <c r="CL224" s="99"/>
+      <c r="CL224" s="57">
+        <v>0</v>
+      </c>
       <c r="CM224" s="57">
         <v>0</v>
       </c>
       <c r="CN224" s="99"/>
       <c r="CO224" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP224" s="99"/>
+      <c r="CQ224" s="57">
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B225" s="100" t="s">
         <v>43</v>
       </c>
@@ -74631,16 +76138,22 @@
       <c r="CK225" s="57">
         <v>0</v>
       </c>
-      <c r="CL225" s="99"/>
+      <c r="CL225" s="57">
+        <v>0</v>
+      </c>
       <c r="CM225" s="57">
         <v>0</v>
       </c>
       <c r="CN225" s="99"/>
       <c r="CO225" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP225" s="99"/>
+      <c r="CQ225" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B226" s="100" t="s">
         <v>43</v>
       </c>
@@ -74903,16 +76416,22 @@
       <c r="CK226" s="57">
         <v>0</v>
       </c>
-      <c r="CL226" s="99"/>
+      <c r="CL226" s="57">
+        <v>0</v>
+      </c>
       <c r="CM226" s="57">
         <v>0</v>
       </c>
       <c r="CN226" s="99"/>
       <c r="CO226" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP226" s="99"/>
+      <c r="CQ226" s="57">
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B227" s="100" t="s">
         <v>43</v>
       </c>
@@ -75175,16 +76694,22 @@
       <c r="CK227" s="57">
         <v>1</v>
       </c>
-      <c r="CL227" s="99"/>
+      <c r="CL227" s="57">
+        <v>0</v>
+      </c>
       <c r="CM227" s="57">
         <v>0</v>
       </c>
       <c r="CN227" s="99"/>
       <c r="CO227" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP227" s="99"/>
+      <c r="CQ227" s="57">
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B228" s="100" t="s">
         <v>43</v>
       </c>
@@ -75436,7 +76961,7 @@
         <v>1</v>
       </c>
       <c r="CH228" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI228" s="57">
         <v>0</v>
@@ -75445,18 +76970,24 @@
         <v>2</v>
       </c>
       <c r="CK228" s="57">
-        <v>2</v>
-      </c>
-      <c r="CL228" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="CL228" s="57">
+        <v>1</v>
+      </c>
       <c r="CM228" s="57">
         <v>0</v>
       </c>
       <c r="CN228" s="99"/>
       <c r="CO228" s="57">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="CP228" s="99"/>
+      <c r="CQ228" s="57">
+        <v>115</v>
       </c>
     </row>
-    <row r="229" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B229" s="100" t="s">
         <v>43</v>
       </c>
@@ -75719,16 +77250,22 @@
       <c r="CK229" s="57">
         <v>0</v>
       </c>
-      <c r="CL229" s="99"/>
+      <c r="CL229" s="57">
+        <v>0</v>
+      </c>
       <c r="CM229" s="57">
         <v>0</v>
       </c>
       <c r="CN229" s="99"/>
       <c r="CO229" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP229" s="99"/>
+      <c r="CQ229" s="57">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B230" s="100" t="s">
         <v>43</v>
       </c>
@@ -75991,16 +77528,22 @@
       <c r="CK230" s="57">
         <v>0</v>
       </c>
-      <c r="CL230" s="99"/>
+      <c r="CL230" s="57">
+        <v>0</v>
+      </c>
       <c r="CM230" s="57">
         <v>0</v>
       </c>
       <c r="CN230" s="99"/>
       <c r="CO230" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP230" s="99"/>
+      <c r="CQ230" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B231" s="100" t="s">
         <v>43</v>
       </c>
@@ -76263,16 +77806,22 @@
       <c r="CK231" s="57">
         <v>0</v>
       </c>
-      <c r="CL231" s="99"/>
+      <c r="CL231" s="57">
+        <v>0</v>
+      </c>
       <c r="CM231" s="57">
         <v>0</v>
       </c>
       <c r="CN231" s="99"/>
       <c r="CO231" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP231" s="99"/>
+      <c r="CQ231" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B232" s="100" t="s">
         <v>43</v>
       </c>
@@ -76535,16 +78084,22 @@
       <c r="CK232" s="57">
         <v>0</v>
       </c>
-      <c r="CL232" s="99"/>
+      <c r="CL232" s="57">
+        <v>0</v>
+      </c>
       <c r="CM232" s="57">
         <v>0</v>
       </c>
       <c r="CN232" s="99"/>
       <c r="CO232" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP232" s="99"/>
+      <c r="CQ232" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B233" s="100" t="s">
         <v>43</v>
       </c>
@@ -76807,16 +78362,22 @@
       <c r="CK233" s="57">
         <v>0</v>
       </c>
-      <c r="CL233" s="99"/>
+      <c r="CL233" s="57">
+        <v>0</v>
+      </c>
       <c r="CM233" s="57">
         <v>0</v>
       </c>
       <c r="CN233" s="99"/>
       <c r="CO233" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP233" s="99"/>
+      <c r="CQ233" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B234" s="100" t="s">
         <v>43</v>
       </c>
@@ -77079,16 +78640,22 @@
       <c r="CK234" s="109">
         <v>0</v>
       </c>
-      <c r="CL234" s="99"/>
+      <c r="CL234" s="109">
+        <v>0</v>
+      </c>
       <c r="CM234" s="109">
         <v>0</v>
       </c>
       <c r="CN234" s="99"/>
       <c r="CO234" s="109">
+        <v>0</v>
+      </c>
+      <c r="CP234" s="99"/>
+      <c r="CQ234" s="109">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B235" s="100" t="s">
         <v>43</v>
       </c>
@@ -77351,16 +78918,22 @@
       <c r="CK235" s="109">
         <v>0</v>
       </c>
-      <c r="CL235" s="99"/>
+      <c r="CL235" s="109">
+        <v>0</v>
+      </c>
       <c r="CM235" s="109">
         <v>0</v>
       </c>
       <c r="CN235" s="99"/>
       <c r="CO235" s="109">
+        <v>0</v>
+      </c>
+      <c r="CP235" s="99"/>
+      <c r="CQ235" s="109">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="2:93" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B236" s="110" t="s">
         <v>43</v>
       </c>
@@ -77623,13 +79196,19 @@
       <c r="CK236" s="62">
         <v>0</v>
       </c>
-      <c r="CL236" s="99"/>
+      <c r="CL236" s="62">
+        <v>1</v>
+      </c>
       <c r="CM236" s="62">
         <v>0</v>
       </c>
       <c r="CN236" s="99"/>
       <c r="CO236" s="62">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="CP236" s="99"/>
+      <c r="CQ236" s="62">
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:60" s="81" customFormat="1" x14ac:dyDescent="0.3">
@@ -77698,7 +79277,7 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F16:CK236">
+  <conditionalFormatting sqref="F16:CM236">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TODAY()-F$16&lt;6</formula>
     </cfRule>

--- a/Covid_19_Plots/data/COVID-19-total-announced-deaths.xlsx
+++ b/Covid_19_Plots/data/COVID-19-total-announced-deaths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\25 May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\26 May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CBD853-6493-4527-8535-D1BAED773849}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0C31C5-3237-4338-848D-7DF9999AD5F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{8BEB2997-66E4-4B38-A415-05FC96273E7A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FA12FE9-E422-4820-88FC-1147F552E8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="501">
   <si>
     <t>Title:</t>
   </si>
@@ -1546,10 +1546,10 @@
     <t>YEOVIL DISTRICT HOSPITAL NHS FOUNDATION TRUST</t>
   </si>
   <si>
-    <t>All data up to 5pm 24 May 2020</t>
+    <t>All data up to 5pm 25 May 2020</t>
   </si>
   <si>
-    <t>25 May 2020</t>
+    <t>26 May 2020</t>
   </si>
 </sst>
 </file>
@@ -2393,60 +2393,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1006928</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>802821</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>227774</xdr:colOff>
+      <xdr:colOff>365488</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>105047</xdr:rowOff>
+      <xdr:rowOff>9839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94BFFDF-042F-44E2-AABB-5B1B99D2989D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD54E44-216A-46E4-89D4-6F24565C41F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1144088" y="2705100"/>
-          <a:ext cx="9589761" cy="5717177"/>
+          <a:off x="936171" y="2539637"/>
+          <a:ext cx="9931582" cy="5783622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2777,11 +2760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB7D27-5137-459B-A25C-EEEF8131EFEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F4E48-93AC-427F-993C-6CAF12352AA0}">
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3599,11 +3582,11 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{4CF1B563-3F88-4AFD-8666-DA7035E8C25D}"/>
-    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{2A657305-8CA3-4279-BB58-A932ED92B1B7}"/>
-    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{66B1A4B2-F474-4581-BBCF-835B436C8388}"/>
-    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{BE6A1AC3-1403-455D-9B40-A662E0168C60}"/>
-    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{C41B0C93-FC84-4BAE-8E46-F834CD016628}"/>
+    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{D3AD63E3-F093-4348-8ED3-C1AF515BBC7B}"/>
+    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{A9B583F3-20A3-47C4-90B0-48AF11643CC5}"/>
+    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{69BE8D0E-84F0-4046-8DCA-4B427159EE80}"/>
+    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{6DADCE7C-1D45-4373-B4DF-714CDD5BF9E2}"/>
+    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{411EFDFF-9AA7-4773-805D-693322B8A198}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3611,10 +3594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4929A5-D55C-4C60-BACF-B335661A6473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB11C0B0-CA73-47F5-95B6-6AFB6B59D82A}">
   <dimension ref="A1:CT13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4895,12 +4880,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B781B317-EE21-4892-A3E2-0774FF984A3D}">
-  <dimension ref="A1:DD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9113046-2EE3-471C-8EE0-AE4159AEACD7}">
+  <dimension ref="A1:DE25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4908,17 +4891,17 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
-    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
-    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
-    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
-    <col min="94" max="100" width="15.33203125" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.109375" style="27"/>
+    <col min="5" max="90" width="15.44140625" style="27" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="27" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="27" customWidth="1"/>
+    <col min="94" max="94" width="15.44140625" style="27" customWidth="1"/>
+    <col min="95" max="101" width="15.33203125" style="27" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:94" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -5018,12 +5001,13 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
-      <c r="CL2" s="10"/>
+      <c r="CL2" s="3"/>
       <c r="CM2" s="10"/>
       <c r="CN2" s="10"/>
       <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
     </row>
-    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5117,12 +5101,13 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
-      <c r="CL3" s="10"/>
+      <c r="CL3" s="3"/>
       <c r="CM3" s="10"/>
       <c r="CN3" s="10"/>
       <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
     </row>
-    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -5216,12 +5201,13 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
-      <c r="CL4" s="10"/>
+      <c r="CL4" s="3"/>
       <c r="CM4" s="10"/>
       <c r="CN4" s="10"/>
       <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
     </row>
-    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -5315,12 +5301,13 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
-      <c r="CL5" s="10"/>
+      <c r="CL5" s="3"/>
       <c r="CM5" s="10"/>
       <c r="CN5" s="10"/>
       <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
     </row>
-    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -5414,12 +5401,13 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CL6" s="10"/>
+      <c r="CL6" s="3"/>
       <c r="CM6" s="10"/>
       <c r="CN6" s="10"/>
       <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -5513,12 +5501,13 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="10"/>
+      <c r="CL7" s="3"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -5612,12 +5601,13 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="10"/>
+      <c r="CL8" s="3"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -5711,12 +5701,13 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="10"/>
+      <c r="CL9" s="3"/>
       <c r="CM9" s="10"/>
       <c r="CN9" s="10"/>
       <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -5810,12 +5801,13 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
-      <c r="CL10" s="10"/>
+      <c r="CL10" s="3"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="10"/>
       <c r="CO10" s="10"/>
+      <c r="CP10" s="10"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5905,12 +5897,13 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="10"/>
+      <c r="CL11" s="3"/>
       <c r="CM11" s="10"/>
       <c r="CN11" s="10"/>
       <c r="CO11" s="10"/>
+      <c r="CP11" s="10"/>
     </row>
-    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -6002,12 +5995,13 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="26"/>
+      <c r="CL12" s="25"/>
       <c r="CM12" s="26"/>
       <c r="CN12" s="26"/>
       <c r="CO12" s="26"/>
+      <c r="CP12" s="26"/>
     </row>
-    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6097,12 +6091,13 @@
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
-      <c r="CL13" s="26"/>
+      <c r="CL13" s="25"/>
       <c r="CM13" s="26"/>
       <c r="CN13" s="26"/>
       <c r="CO13" s="26"/>
+      <c r="CP13" s="26"/>
     </row>
-    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -6194,12 +6189,13 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="26"/>
+      <c r="CL14" s="25"/>
       <c r="CM14" s="26"/>
       <c r="CN14" s="26"/>
       <c r="CO14" s="26"/>
+      <c r="CP14" s="26"/>
     </row>
-    <row r="15" spans="1:93" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6429,18 +6425,22 @@
         <v>30</v>
       </c>
       <c r="CC15" s="40"/>
-      <c r="CG15" s="40" t="s">
+      <c r="CG15" s="40"/>
+      <c r="CH15" s="40" t="s">
         <v>31</v>
       </c>
       <c r="CK15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="CL15" s="28"/>
+      <c r="CL15" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="CM15" s="28"/>
       <c r="CN15" s="28"/>
       <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
     </row>
-    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -6704,14 +6704,17 @@
       <c r="CK16" s="43">
         <v>43975</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CL16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CN16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CP16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -6834,13 +6837,13 @@
         <v>807</v>
       </c>
       <c r="AQ17" s="47">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AR17" s="47">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AS17" s="47">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AT17" s="47">
         <v>771</v>
@@ -6900,7 +6903,7 @@
         <v>319</v>
       </c>
       <c r="BM17" s="47">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BN17" s="47">
         <v>304</v>
@@ -6909,22 +6912,22 @@
         <v>264</v>
       </c>
       <c r="BP17" s="47">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BQ17" s="47">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BR17" s="47">
         <v>247</v>
       </c>
       <c r="BS17" s="47">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BT17" s="47">
         <v>242</v>
       </c>
       <c r="BU17" s="47">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="47">
         <v>194</v>
@@ -6936,7 +6939,7 @@
         <v>156</v>
       </c>
       <c r="BY17" s="47">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BZ17" s="47">
         <v>156</v>
@@ -6945,10 +6948,10 @@
         <v>168</v>
       </c>
       <c r="CB17" s="47">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CC17" s="47">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CD17" s="47">
         <v>131</v>
@@ -6957,33 +6960,36 @@
         <v>131</v>
       </c>
       <c r="CF17" s="47">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CG17" s="47">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CH17" s="47">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CI17" s="47">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="CJ17" s="47">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="CK17" s="47">
-        <v>19</v>
-      </c>
-      <c r="CL17" s="40"/>
-      <c r="CM17" s="48">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="40"/>
-      <c r="CO17" s="48">
-        <v>25751</v>
+        <v>59</v>
+      </c>
+      <c r="CL17" s="47">
+        <v>23</v>
+      </c>
+      <c r="CM17" s="40"/>
+      <c r="CN17" s="48">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="40"/>
+      <c r="CP17" s="48">
+        <v>25867</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -7088,8 +7094,9 @@
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -7336,31 +7343,34 @@
         <v>16</v>
       </c>
       <c r="CF19" s="53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CG19" s="53">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CH19" s="53">
         <v>18</v>
       </c>
       <c r="CI19" s="53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ19" s="53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK19" s="53">
-        <v>4</v>
-      </c>
-      <c r="CM19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CO19" s="53">
-        <v>2992</v>
+        <v>9</v>
+      </c>
+      <c r="CL19" s="53">
+        <v>6</v>
+      </c>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="53">
+        <v>3007</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -7568,7 +7578,7 @@
         <v>25</v>
       </c>
       <c r="BS20" s="58">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BT20" s="58">
         <v>35</v>
@@ -7586,7 +7596,7 @@
         <v>16</v>
       </c>
       <c r="BY20" s="58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BZ20" s="58">
         <v>16</v>
@@ -7595,10 +7605,10 @@
         <v>20</v>
       </c>
       <c r="CB20" s="58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CC20" s="58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CD20" s="58">
         <v>15</v>
@@ -7607,7 +7617,7 @@
         <v>9</v>
       </c>
       <c r="CF20" s="58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CG20" s="58">
         <v>18</v>
@@ -7619,19 +7629,22 @@
         <v>5</v>
       </c>
       <c r="CJ20" s="58">
+        <v>5</v>
+      </c>
+      <c r="CK20" s="58">
         <v>4</v>
       </c>
-      <c r="CK20" s="58">
-        <v>1</v>
-      </c>
-      <c r="CM20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO20" s="57">
-        <v>5882</v>
+      <c r="CL20" s="58">
+        <v>1</v>
+      </c>
+      <c r="CN20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="57">
+        <v>5892</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -7821,7 +7834,7 @@
         <v>53</v>
       </c>
       <c r="BM21" s="58">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BN21" s="58">
         <v>64</v>
@@ -7830,10 +7843,10 @@
         <v>51</v>
       </c>
       <c r="BP21" s="58">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BQ21" s="58">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BR21" s="58">
         <v>58</v>
@@ -7884,25 +7897,28 @@
         <v>33</v>
       </c>
       <c r="CH21" s="58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CI21" s="58">
         <v>16</v>
       </c>
       <c r="CJ21" s="58">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="CK21" s="58">
-        <v>3</v>
-      </c>
-      <c r="CM21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="57">
-        <v>5067</v>
+        <v>11</v>
+      </c>
+      <c r="CL21" s="58">
+        <v>3</v>
+      </c>
+      <c r="CN21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="57">
+        <v>5090</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -8164,16 +8180,19 @@
         <v>14</v>
       </c>
       <c r="CK22" s="58">
-        <v>7</v>
-      </c>
-      <c r="CM22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO22" s="57">
-        <v>3691</v>
+        <v>16</v>
+      </c>
+      <c r="CL22" s="58">
+        <v>9</v>
+      </c>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="57">
+        <v>3709</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -8297,13 +8316,13 @@
         <v>133</v>
       </c>
       <c r="AQ23" s="58">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AR23" s="58">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AS23" s="58">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AT23" s="58">
         <v>135</v>
@@ -8387,7 +8406,7 @@
         <v>44</v>
       </c>
       <c r="BU23" s="58">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BV23" s="58">
         <v>28</v>
@@ -8429,22 +8448,25 @@
         <v>20</v>
       </c>
       <c r="CI23" s="58">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CJ23" s="58">
+        <v>21</v>
+      </c>
+      <c r="CK23" s="58">
         <v>12</v>
       </c>
-      <c r="CK23" s="58">
-        <v>2</v>
-      </c>
-      <c r="CM23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO23" s="57">
-        <v>3976</v>
+      <c r="CL23" s="58">
+        <v>2</v>
+      </c>
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="57">
+        <v>4006</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -8700,22 +8722,25 @@
         <v>10</v>
       </c>
       <c r="CI24" s="58">
+        <v>14</v>
+      </c>
+      <c r="CJ24" s="58">
         <v>9</v>
       </c>
-      <c r="CJ24" s="58">
-        <v>3</v>
-      </c>
       <c r="CK24" s="58">
-        <v>2</v>
-      </c>
-      <c r="CM24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO24" s="57">
-        <v>2982</v>
+        <v>5</v>
+      </c>
+      <c r="CL24" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="57">
+        <v>2996</v>
       </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -8971,19 +8996,22 @@
         <v>8</v>
       </c>
       <c r="CI25" s="63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ25" s="63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK25" s="63">
-        <v>0</v>
-      </c>
-      <c r="CM25" s="62">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="62">
-        <v>1161</v>
+        <v>2</v>
+      </c>
+      <c r="CL25" s="63">
+        <v>2</v>
+      </c>
+      <c r="CN25" s="62">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="62">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -9000,7 +9028,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="BX16:CK25">
+  <conditionalFormatting sqref="BX16:CL25">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>TODAY()-BX$16&lt;6</formula>
     </cfRule>
@@ -9011,8 +9039,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878EF2F9-8DDA-4A56-BD88-CB387A47DDF3}">
-  <dimension ref="A1:DD26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E4F811-5F16-40B7-93A3-B665F2B76D5A}">
+  <dimension ref="A1:DE26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -9022,16 +9050,16 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
-    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
-    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
-    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.109375" style="27"/>
+    <col min="5" max="90" width="15.44140625" style="27" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="27" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="27" customWidth="1"/>
+    <col min="94" max="101" width="15.33203125" style="27" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:94" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -9129,12 +9157,13 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
-      <c r="CL2" s="10"/>
+      <c r="CL2" s="3"/>
       <c r="CM2" s="10"/>
       <c r="CN2" s="10"/>
       <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
     </row>
-    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -9228,12 +9257,13 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
-      <c r="CL3" s="10"/>
+      <c r="CL3" s="3"/>
       <c r="CM3" s="10"/>
       <c r="CN3" s="10"/>
       <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
     </row>
-    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -9327,12 +9357,13 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
-      <c r="CL4" s="10"/>
+      <c r="CL4" s="3"/>
       <c r="CM4" s="10"/>
       <c r="CN4" s="10"/>
       <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
     </row>
-    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -9426,12 +9457,13 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
-      <c r="CL5" s="10"/>
+      <c r="CL5" s="3"/>
       <c r="CM5" s="10"/>
       <c r="CN5" s="10"/>
       <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
     </row>
-    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -9525,12 +9557,13 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CL6" s="10"/>
+      <c r="CL6" s="3"/>
       <c r="CM6" s="10"/>
       <c r="CN6" s="10"/>
       <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -9624,12 +9657,13 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="10"/>
+      <c r="CL7" s="3"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -9723,12 +9757,13 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="10"/>
+      <c r="CL8" s="3"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -9822,12 +9857,13 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="10"/>
+      <c r="CL9" s="3"/>
       <c r="CM9" s="10"/>
       <c r="CN9" s="10"/>
       <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -9921,12 +9957,13 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
-      <c r="CL10" s="10"/>
+      <c r="CL10" s="3"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="10"/>
       <c r="CO10" s="10"/>
+      <c r="CP10" s="10"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10016,12 +10053,13 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="10"/>
+      <c r="CL11" s="3"/>
       <c r="CM11" s="10"/>
       <c r="CN11" s="10"/>
       <c r="CO11" s="10"/>
+      <c r="CP11" s="10"/>
     </row>
-    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -10113,12 +10151,13 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="26"/>
+      <c r="CL12" s="25"/>
       <c r="CM12" s="26"/>
       <c r="CN12" s="26"/>
       <c r="CO12" s="26"/>
+      <c r="CP12" s="26"/>
     </row>
-    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -10208,12 +10247,13 @@
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
-      <c r="CL13" s="26"/>
+      <c r="CL13" s="25"/>
       <c r="CM13" s="26"/>
       <c r="CN13" s="26"/>
       <c r="CO13" s="26"/>
+      <c r="CP13" s="26"/>
     </row>
-    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -10305,12 +10345,13 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="26"/>
+      <c r="CL14" s="25"/>
       <c r="CM14" s="26"/>
       <c r="CN14" s="26"/>
       <c r="CO14" s="26"/>
+      <c r="CP14" s="26"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10368,19 +10409,20 @@
       <c r="BZ15" s="3"/>
       <c r="CA15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CG15" s="3" t="s">
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
       <c r="CJ15" s="23"/>
       <c r="CK15" s="23"/>
-      <c r="CL15" s="28"/>
+      <c r="CL15" s="23"/>
       <c r="CM15" s="28"/>
       <c r="CN15" s="28"/>
       <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
     </row>
-    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -10644,14 +10686,17 @@
       <c r="CK16" s="43">
         <v>43975</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CL16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CN16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CP16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -10879,51 +10924,54 @@
         <v>23</v>
       </c>
       <c r="BZ17" s="47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA17" s="47">
         <v>19</v>
       </c>
       <c r="CB17" s="47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CC17" s="47">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CD17" s="47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE17" s="47">
         <v>16</v>
       </c>
       <c r="CF17" s="47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CG17" s="47">
+        <v>13</v>
+      </c>
+      <c r="CH17" s="47">
+        <v>17</v>
+      </c>
+      <c r="CI17" s="47">
         <v>12</v>
       </c>
-      <c r="CH17" s="47">
-        <v>16</v>
-      </c>
-      <c r="CI17" s="47">
-        <v>10</v>
-      </c>
       <c r="CJ17" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK17" s="47">
-        <v>0</v>
-      </c>
-      <c r="CL17" s="40"/>
-      <c r="CM17" s="48">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="40"/>
-      <c r="CO17" s="48">
-        <v>664</v>
+        <v>4</v>
+      </c>
+      <c r="CL17" s="47">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="40"/>
+      <c r="CN17" s="48">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="40"/>
+      <c r="CP17" s="48">
+        <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -11028,8 +11076,9 @@
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -11293,14 +11342,17 @@
       <c r="CK19" s="53">
         <v>0</v>
       </c>
-      <c r="CM19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CO19" s="53">
+      <c r="CL19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="53">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -11535,19 +11587,19 @@
         <v>2</v>
       </c>
       <c r="CB20" s="58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC20" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD20" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE20" s="58">
         <v>3</v>
       </c>
       <c r="CF20" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG20" s="58">
         <v>5</v>
@@ -11556,22 +11608,25 @@
         <v>1</v>
       </c>
       <c r="CI20" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ20" s="58">
         <v>1</v>
       </c>
       <c r="CK20" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO20" s="57">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="CL20" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="57">
+        <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -11800,7 +11855,7 @@
         <v>10</v>
       </c>
       <c r="BZ21" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA21" s="58">
         <v>1</v>
@@ -11835,14 +11890,17 @@
       <c r="CK21" s="58">
         <v>0</v>
       </c>
-      <c r="CM21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="57">
-        <v>117</v>
+      <c r="CL21" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="57">
+        <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -12104,16 +12162,19 @@
         <v>0</v>
       </c>
       <c r="CK22" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO22" s="57">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="CL22" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="57">
+        <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -12354,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="CD23" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE23" s="58">
         <v>1</v>
@@ -12372,19 +12433,22 @@
         <v>0</v>
       </c>
       <c r="CJ23" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK23" s="58">
         <v>0</v>
       </c>
-      <c r="CM23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO23" s="57">
-        <v>80</v>
+      <c r="CL23" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="57">
+        <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -12622,7 +12686,7 @@
         <v>2</v>
       </c>
       <c r="CC24" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD24" s="58">
         <v>5</v>
@@ -12634,28 +12698,31 @@
         <v>1</v>
       </c>
       <c r="CG24" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CH24" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CI24" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ24" s="58">
         <v>1</v>
       </c>
       <c r="CK24" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO24" s="57">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="CL24" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="57">
+        <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -12917,16 +12984,19 @@
         <v>0</v>
       </c>
       <c r="CK25" s="63">
-        <v>0</v>
-      </c>
-      <c r="CM25" s="62">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="62">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="CL25" s="63">
+        <v>0</v>
+      </c>
+      <c r="CN25" s="62">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="62">
+        <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.3">
       <c r="BZ26" s="68"/>
       <c r="CA26" s="68"/>
     </row>
@@ -12944,7 +13014,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CK25">
+  <conditionalFormatting sqref="D16:CL25">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -12955,8 +13025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365FAC8-0E09-4847-BB6B-FEFD1FDE74A6}">
-  <dimension ref="A1:DD35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBED350-B5EB-4495-88C9-B10B580E3A42}">
+  <dimension ref="A1:DE35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -12966,16 +13036,16 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" style="27" customWidth="1"/>
-    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
-    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
-    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.109375" style="27"/>
+    <col min="5" max="90" width="15.44140625" style="27" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="27" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="27" customWidth="1"/>
+    <col min="94" max="101" width="15.33203125" style="27" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:94" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -13075,11 +13145,12 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
-      <c r="CL2" s="10"/>
+      <c r="CL2" s="3"/>
       <c r="CM2" s="10"/>
-      <c r="CO2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CP2" s="10"/>
     </row>
-    <row r="3" spans="1:93" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -13173,11 +13244,12 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
-      <c r="CL3" s="10"/>
+      <c r="CL3" s="3"/>
       <c r="CM3" s="10"/>
-      <c r="CO3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CP3" s="10"/>
     </row>
-    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -13271,11 +13343,12 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
-      <c r="CL4" s="10"/>
+      <c r="CL4" s="3"/>
       <c r="CM4" s="10"/>
-      <c r="CO4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CP4" s="10"/>
     </row>
-    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -13369,11 +13442,12 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
-      <c r="CL5" s="10"/>
+      <c r="CL5" s="3"/>
       <c r="CM5" s="10"/>
-      <c r="CO5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CP5" s="10"/>
     </row>
-    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -13467,11 +13541,12 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CL6" s="10"/>
+      <c r="CL6" s="3"/>
       <c r="CM6" s="10"/>
-      <c r="CO6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CP6" s="10"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -13565,11 +13640,12 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="10"/>
+      <c r="CL7" s="3"/>
       <c r="CM7" s="10"/>
-      <c r="CO7" s="10"/>
+      <c r="CN7" s="10"/>
+      <c r="CP7" s="10"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -13663,11 +13739,12 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="10"/>
+      <c r="CL8" s="3"/>
       <c r="CM8" s="10"/>
-      <c r="CO8" s="10"/>
+      <c r="CN8" s="10"/>
+      <c r="CP8" s="10"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -13761,11 +13838,12 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="10"/>
+      <c r="CL9" s="3"/>
       <c r="CM9" s="10"/>
-      <c r="CO9" s="10"/>
+      <c r="CN9" s="10"/>
+      <c r="CP9" s="10"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -13859,11 +13937,12 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
-      <c r="CL10" s="10"/>
+      <c r="CL10" s="3"/>
       <c r="CM10" s="10"/>
-      <c r="CO10" s="10"/>
+      <c r="CN10" s="10"/>
+      <c r="CP10" s="10"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13953,11 +14032,12 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="10"/>
-      <c r="CM11" s="35"/>
-      <c r="CO11" s="35"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="10"/>
+      <c r="CN11" s="35"/>
+      <c r="CP11" s="35"/>
     </row>
-    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>48</v>
@@ -14049,11 +14129,12 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="26"/>
+      <c r="CL12" s="25"/>
       <c r="CM12" s="26"/>
-      <c r="CO12" s="26"/>
+      <c r="CN12" s="26"/>
+      <c r="CP12" s="26"/>
     </row>
-    <row r="13" spans="1:93" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -14143,11 +14224,12 @@
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
-      <c r="CL13" s="26"/>
+      <c r="CL13" s="25"/>
       <c r="CM13" s="26"/>
-      <c r="CO13" s="26"/>
+      <c r="CN13" s="26"/>
+      <c r="CP13" s="26"/>
     </row>
-    <row r="14" spans="1:93" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -14239,11 +14321,12 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="26"/>
+      <c r="CL14" s="25"/>
       <c r="CM14" s="26"/>
-      <c r="CO14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CP14" s="26"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14297,18 +14380,18 @@
       <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CG15" s="3" t="s">
+      <c r="CH15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
       <c r="CJ15" s="23"/>
       <c r="CK15" s="23"/>
-      <c r="CL15" s="28"/>
+      <c r="CL15" s="23"/>
       <c r="CM15" s="28"/>
-      <c r="CO15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CP15" s="28"/>
     </row>
-    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>49</v>
@@ -14572,14 +14655,17 @@
       <c r="CK16" s="43">
         <v>43975</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CL16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CN16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CP16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>35</v>
       </c>
@@ -14702,13 +14788,13 @@
         <v>807</v>
       </c>
       <c r="AQ17" s="71">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AR17" s="71">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AS17" s="71">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AT17" s="71">
         <v>771</v>
@@ -14768,7 +14854,7 @@
         <v>319</v>
       </c>
       <c r="BM17" s="71">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BN17" s="71">
         <v>304</v>
@@ -14777,22 +14863,22 @@
         <v>264</v>
       </c>
       <c r="BP17" s="71">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BQ17" s="71">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BR17" s="71">
         <v>247</v>
       </c>
       <c r="BS17" s="71">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BT17" s="71">
         <v>242</v>
       </c>
       <c r="BU17" s="71">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="71">
         <v>194</v>
@@ -14804,7 +14890,7 @@
         <v>156</v>
       </c>
       <c r="BY17" s="71">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BZ17" s="71">
         <v>156</v>
@@ -14813,10 +14899,10 @@
         <v>168</v>
       </c>
       <c r="CB17" s="71">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CC17" s="71">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CD17" s="71">
         <v>131</v>
@@ -14825,31 +14911,34 @@
         <v>131</v>
       </c>
       <c r="CF17" s="71">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CG17" s="71">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CH17" s="71">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CI17" s="71">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="CJ17" s="71">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="CK17" s="71">
-        <v>19</v>
-      </c>
-      <c r="CM17" s="71">
-        <v>0</v>
-      </c>
-      <c r="CO17" s="71">
-        <v>25751</v>
+        <v>59</v>
+      </c>
+      <c r="CL17" s="71">
+        <v>23</v>
+      </c>
+      <c r="CN17" s="71">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="71">
+        <v>25867</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -14954,8 +15043,9 @@
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="72" t="s">
         <v>50</v>
@@ -15219,14 +15309,17 @@
       <c r="CK19" s="53">
         <v>0</v>
       </c>
-      <c r="CM19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CO19" s="53">
+      <c r="CL19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="53">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="74" t="s">
         <v>51</v>
@@ -15490,14 +15583,17 @@
       <c r="CK20" s="57">
         <v>0</v>
       </c>
-      <c r="CM20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO20" s="57">
+      <c r="CL20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="57">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="74" t="s">
         <v>52</v>
@@ -15756,19 +15852,22 @@
         <v>2</v>
       </c>
       <c r="CJ21" s="57">
+        <v>5</v>
+      </c>
+      <c r="CK21" s="57">
         <v>4</v>
       </c>
-      <c r="CK21" s="57">
-        <v>1</v>
-      </c>
-      <c r="CM21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="57">
-        <v>2036</v>
+      <c r="CL21" s="57">
+        <v>2</v>
+      </c>
+      <c r="CN21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="57">
+        <v>2042</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="74" t="s">
         <v>53</v>
@@ -15892,13 +15991,13 @@
         <v>344</v>
       </c>
       <c r="AQ22" s="58">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AR22" s="58">
         <v>328</v>
       </c>
       <c r="AS22" s="58">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AT22" s="58">
         <v>316</v>
@@ -15967,7 +16066,7 @@
         <v>97</v>
       </c>
       <c r="BP22" s="58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BQ22" s="58">
         <v>89</v>
@@ -15994,7 +16093,7 @@
         <v>47</v>
       </c>
       <c r="BY22" s="58">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BZ22" s="58">
         <v>54</v>
@@ -16015,31 +16114,34 @@
         <v>56</v>
       </c>
       <c r="CF22" s="58">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CG22" s="57">
         <v>43</v>
       </c>
       <c r="CH22" s="57">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CI22" s="57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CJ22" s="57">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="CK22" s="57">
-        <v>1</v>
-      </c>
-      <c r="CM22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO22" s="57">
-        <v>9881</v>
+        <v>16</v>
+      </c>
+      <c r="CL22" s="57">
+        <v>9</v>
+      </c>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="57">
+        <v>9923</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="74" t="s">
         <v>54</v>
@@ -16166,7 +16268,7 @@
         <v>462</v>
       </c>
       <c r="AR23" s="58">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AS23" s="58">
         <v>369</v>
@@ -16229,7 +16331,7 @@
         <v>185</v>
       </c>
       <c r="BM23" s="58">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BN23" s="58">
         <v>163</v>
@@ -16238,22 +16340,22 @@
         <v>144</v>
       </c>
       <c r="BP23" s="58">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BQ23" s="58">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BR23" s="58">
         <v>130</v>
       </c>
       <c r="BS23" s="58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BT23" s="58">
         <v>139</v>
       </c>
       <c r="BU23" s="58">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BV23" s="58">
         <v>116</v>
@@ -16274,10 +16376,10 @@
         <v>99</v>
       </c>
       <c r="CB23" s="58">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CC23" s="58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CD23" s="58">
         <v>75</v>
@@ -16286,31 +16388,34 @@
         <v>63</v>
       </c>
       <c r="CF23" s="58">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CG23" s="57">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CH23" s="57">
         <v>67</v>
       </c>
       <c r="CI23" s="57">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="CJ23" s="57">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="CK23" s="57">
-        <v>17</v>
-      </c>
-      <c r="CM23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO23" s="57">
-        <v>13636</v>
+        <v>39</v>
+      </c>
+      <c r="CL23" s="57">
+        <v>12</v>
+      </c>
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="57">
+        <v>13704</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="76" t="s">
         <v>55</v>
@@ -16402,10 +16507,11 @@
       <c r="CI24" s="62"/>
       <c r="CJ24" s="62"/>
       <c r="CK24" s="62"/>
-      <c r="CM24" s="62"/>
-      <c r="CO24" s="62"/>
+      <c r="CL24" s="62"/>
+      <c r="CN24" s="62"/>
+      <c r="CP24" s="62"/>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.3">
       <c r="C28" s="80"/>
     </row>
     <row r="35" spans="4:44" x14ac:dyDescent="0.3">
@@ -16457,7 +16563,7 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CK24">
+  <conditionalFormatting sqref="D16:CL24">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -16468,10 +16574,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CC4CE5-8236-4BCA-92B8-B11B5664E971}">
-  <dimension ref="A1:DF248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFABA55-A365-465B-B41A-1D30E2E6F187}">
+  <dimension ref="A1:DG248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16481,16 +16587,16 @@
     <col min="4" max="4" width="9.6640625" style="27" customWidth="1"/>
     <col min="5" max="5" width="91.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="91" width="15.44140625" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.6640625" style="27" customWidth="1"/>
-    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
-    <col min="94" max="94" width="2.6640625" style="27" customWidth="1"/>
-    <col min="95" max="102" width="15.33203125" style="27" customWidth="1"/>
-    <col min="103" max="16384" width="9.109375" style="27"/>
+    <col min="7" max="92" width="15.44140625" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.6640625" style="27" customWidth="1"/>
+    <col min="94" max="94" width="15.44140625" style="27" customWidth="1"/>
+    <col min="95" max="95" width="2.6640625" style="27" customWidth="1"/>
+    <col min="96" max="103" width="15.33203125" style="27" customWidth="1"/>
+    <col min="104" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:95" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:96" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:96" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -16592,12 +16698,13 @@
       <c r="CK2" s="21"/>
       <c r="CL2" s="21"/>
       <c r="CM2" s="21"/>
-      <c r="CN2" s="10"/>
+      <c r="CN2" s="21"/>
       <c r="CO2" s="10"/>
       <c r="CP2" s="10"/>
       <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
     </row>
-    <row r="3" spans="1:95" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:96" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -16693,12 +16800,13 @@
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
       <c r="CM3" s="3"/>
-      <c r="CN3" s="10"/>
+      <c r="CN3" s="3"/>
       <c r="CO3" s="10"/>
       <c r="CP3" s="10"/>
       <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
     </row>
-    <row r="4" spans="1:95" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:96" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -16794,12 +16902,13 @@
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
       <c r="CM4" s="3"/>
-      <c r="CN4" s="10"/>
+      <c r="CN4" s="3"/>
       <c r="CO4" s="10"/>
       <c r="CP4" s="10"/>
       <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
     </row>
-    <row r="5" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -16895,12 +17004,13 @@
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
       <c r="CM5" s="3"/>
-      <c r="CN5" s="10"/>
+      <c r="CN5" s="3"/>
       <c r="CO5" s="10"/>
       <c r="CP5" s="10"/>
       <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
     </row>
-    <row r="6" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -16996,12 +17106,13 @@
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
       <c r="CM6" s="3"/>
-      <c r="CN6" s="10"/>
+      <c r="CN6" s="3"/>
       <c r="CO6" s="10"/>
       <c r="CP6" s="10"/>
       <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
     </row>
-    <row r="7" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -17097,12 +17208,13 @@
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
       <c r="CM7" s="3"/>
-      <c r="CN7" s="10"/>
+      <c r="CN7" s="3"/>
       <c r="CO7" s="10"/>
       <c r="CP7" s="10"/>
       <c r="CQ7" s="10"/>
+      <c r="CR7" s="10"/>
     </row>
-    <row r="8" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -17198,12 +17310,13 @@
       <c r="CK8" s="3"/>
       <c r="CL8" s="3"/>
       <c r="CM8" s="3"/>
-      <c r="CN8" s="10"/>
+      <c r="CN8" s="3"/>
       <c r="CO8" s="10"/>
       <c r="CP8" s="10"/>
       <c r="CQ8" s="10"/>
+      <c r="CR8" s="10"/>
     </row>
-    <row r="9" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -17299,12 +17412,13 @@
       <c r="CK9" s="3"/>
       <c r="CL9" s="3"/>
       <c r="CM9" s="3"/>
-      <c r="CN9" s="10"/>
+      <c r="CN9" s="3"/>
       <c r="CO9" s="10"/>
       <c r="CP9" s="10"/>
       <c r="CQ9" s="10"/>
+      <c r="CR9" s="10"/>
     </row>
-    <row r="10" spans="1:95" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -17400,12 +17514,13 @@
       <c r="CK10" s="3"/>
       <c r="CL10" s="3"/>
       <c r="CM10" s="3"/>
-      <c r="CN10" s="10"/>
-      <c r="CO10" s="35"/>
-      <c r="CP10" s="10"/>
-      <c r="CQ10" s="35"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="10"/>
+      <c r="CP10" s="35"/>
+      <c r="CQ10" s="10"/>
+      <c r="CR10" s="35"/>
     </row>
-    <row r="11" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -17497,12 +17612,13 @@
       <c r="CK11" s="3"/>
       <c r="CL11" s="3"/>
       <c r="CM11" s="3"/>
-      <c r="CN11" s="10"/>
+      <c r="CN11" s="3"/>
       <c r="CO11" s="10"/>
       <c r="CP11" s="10"/>
       <c r="CQ11" s="10"/>
+      <c r="CR11" s="10"/>
     </row>
-    <row r="12" spans="1:95" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:96" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>58</v>
@@ -17596,12 +17712,13 @@
       <c r="CK12" s="25"/>
       <c r="CL12" s="25"/>
       <c r="CM12" s="25"/>
-      <c r="CN12" s="26"/>
+      <c r="CN12" s="25"/>
       <c r="CO12" s="26"/>
       <c r="CP12" s="26"/>
       <c r="CQ12" s="26"/>
+      <c r="CR12" s="26"/>
     </row>
-    <row r="13" spans="1:95" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:96" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -17693,12 +17810,13 @@
       <c r="CK13" s="25"/>
       <c r="CL13" s="25"/>
       <c r="CM13" s="25"/>
-      <c r="CN13" s="26"/>
+      <c r="CN13" s="25"/>
       <c r="CO13" s="26"/>
       <c r="CP13" s="26"/>
       <c r="CQ13" s="26"/>
+      <c r="CR13" s="26"/>
     </row>
-    <row r="14" spans="1:95" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:96" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -17792,12 +17910,13 @@
       <c r="CK14" s="25"/>
       <c r="CL14" s="25"/>
       <c r="CM14" s="25"/>
-      <c r="CN14" s="26"/>
+      <c r="CN14" s="25"/>
       <c r="CO14" s="26"/>
       <c r="CP14" s="26"/>
       <c r="CQ14" s="26"/>
+      <c r="CR14" s="26"/>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17877,19 +17996,19 @@
       <c r="CB15" s="3"/>
       <c r="CC15" s="3"/>
       <c r="CE15" s="3"/>
-      <c r="CI15" s="3" t="s">
+      <c r="CJ15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
-      <c r="CN15" s="28"/>
+      <c r="CN15" s="3"/>
       <c r="CO15" s="28"/>
       <c r="CP15" s="28"/>
       <c r="CQ15" s="28"/>
+      <c r="CR15" s="28"/>
     </row>
-    <row r="16" spans="1:95" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:96" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="86" t="s">
         <v>32</v>
@@ -18159,14 +18278,17 @@
       <c r="CM16" s="43">
         <v>43975</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CN16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CP16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CQ16" s="43" t="s">
+      <c r="CR16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
@@ -18295,13 +18417,13 @@
         <v>807</v>
       </c>
       <c r="AS17" s="71">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AT17" s="71">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AU17" s="71">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AV17" s="71">
         <v>771</v>
@@ -18361,7 +18483,7 @@
         <v>319</v>
       </c>
       <c r="BO17" s="71">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BP17" s="71">
         <v>304</v>
@@ -18370,22 +18492,22 @@
         <v>264</v>
       </c>
       <c r="BR17" s="71">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BS17" s="71">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BT17" s="71">
         <v>247</v>
       </c>
       <c r="BU17" s="71">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BV17" s="71">
         <v>242</v>
       </c>
       <c r="BW17" s="71">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BX17" s="71">
         <v>194</v>
@@ -18397,7 +18519,7 @@
         <v>156</v>
       </c>
       <c r="CA17" s="71">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CB17" s="71">
         <v>156</v>
@@ -18406,10 +18528,10 @@
         <v>168</v>
       </c>
       <c r="CD17" s="71">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CE17" s="71">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CF17" s="71">
         <v>131</v>
@@ -18418,33 +18540,36 @@
         <v>131</v>
       </c>
       <c r="CH17" s="71">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CI17" s="71">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CJ17" s="71">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CK17" s="71">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="CL17" s="71">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="CM17" s="71">
-        <v>19</v>
-      </c>
-      <c r="CN17" s="91"/>
-      <c r="CO17" s="71">
-        <v>0</v>
-      </c>
-      <c r="CQ17" s="71">
-        <v>25751</v>
-      </c>
-      <c r="CS17" s="92"/>
+        <v>59</v>
+      </c>
+      <c r="CN17" s="71">
+        <v>23</v>
+      </c>
+      <c r="CO17" s="91"/>
+      <c r="CP17" s="71">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="71">
+        <v>25867</v>
+      </c>
+      <c r="CT17" s="92"/>
     </row>
-    <row r="18" spans="1:110" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:111" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -18530,8 +18655,8 @@
       <c r="CK18" s="49"/>
       <c r="CL18" s="49"/>
       <c r="CM18" s="49"/>
-      <c r="CN18" s="93"/>
-      <c r="CO18" s="49"/>
+      <c r="CN18" s="49"/>
+      <c r="CO18" s="93"/>
       <c r="CP18" s="49"/>
       <c r="CQ18" s="49"/>
       <c r="CR18" s="49"/>
@@ -18549,8 +18674,9 @@
       <c r="DD18" s="49"/>
       <c r="DE18" s="49"/>
       <c r="DF18" s="49"/>
+      <c r="DG18" s="49"/>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="94" t="s">
         <v>37</v>
@@ -18820,17 +18946,20 @@
       <c r="CM19" s="53">
         <v>0</v>
       </c>
-      <c r="CN19" s="98"/>
-      <c r="CO19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CP19" s="99"/>
-      <c r="CQ19" s="53">
-        <v>3</v>
-      </c>
-      <c r="CS19" s="92"/>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="98"/>
+      <c r="CP19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="99"/>
+      <c r="CR19" s="53">
+        <v>3</v>
+      </c>
+      <c r="CT19" s="92"/>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="100" t="s">
         <v>37</v>
@@ -19095,22 +19224,25 @@
         <v>0</v>
       </c>
       <c r="CL20" s="104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM20" s="104">
         <v>0</v>
       </c>
-      <c r="CN20" s="99"/>
-      <c r="CO20" s="104">
-        <v>0</v>
-      </c>
-      <c r="CP20" s="99"/>
-      <c r="CQ20" s="104">
-        <v>21</v>
-      </c>
-      <c r="CS20" s="92"/>
+      <c r="CN20" s="104">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="99"/>
+      <c r="CP20" s="104">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="99"/>
+      <c r="CR20" s="104">
+        <v>22</v>
+      </c>
+      <c r="CT20" s="92"/>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="100" t="s">
         <v>37</v>
@@ -19380,17 +19512,20 @@
       <c r="CM21" s="104">
         <v>1</v>
       </c>
-      <c r="CN21" s="99"/>
-      <c r="CO21" s="104">
-        <v>0</v>
-      </c>
-      <c r="CP21" s="99"/>
-      <c r="CQ21" s="104">
+      <c r="CN21" s="104">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="99"/>
+      <c r="CP21" s="104">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="99"/>
+      <c r="CR21" s="104">
         <v>267</v>
       </c>
-      <c r="CS21" s="92"/>
+      <c r="CT21" s="92"/>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="100" t="s">
         <v>37</v>
@@ -19643,16 +19778,16 @@
         <v>1</v>
       </c>
       <c r="CH22" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CI22" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ22" s="57">
         <v>0</v>
       </c>
       <c r="CK22" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL22" s="57">
         <v>0</v>
@@ -19660,16 +19795,19 @@
       <c r="CM22" s="57">
         <v>0</v>
       </c>
-      <c r="CN22" s="99"/>
-      <c r="CO22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP22" s="99"/>
-      <c r="CQ22" s="57">
-        <v>157</v>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="99"/>
+      <c r="CP22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="99"/>
+      <c r="CR22" s="57">
+        <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="100" t="s">
         <v>37</v>
@@ -19939,16 +20077,19 @@
       <c r="CM23" s="57">
         <v>0</v>
       </c>
-      <c r="CN23" s="99"/>
-      <c r="CO23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP23" s="99"/>
-      <c r="CQ23" s="57">
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="99"/>
+      <c r="CP23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="99"/>
+      <c r="CR23" s="57">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="100" t="s">
         <v>37</v>
@@ -20218,16 +20359,19 @@
       <c r="CM24" s="57">
         <v>0</v>
       </c>
-      <c r="CN24" s="99"/>
-      <c r="CO24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP24" s="99"/>
-      <c r="CQ24" s="57">
+      <c r="CN24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO24" s="99"/>
+      <c r="CP24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="99"/>
+      <c r="CR24" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="100" t="s">
         <v>37</v>
@@ -20497,16 +20641,19 @@
       <c r="CM25" s="57">
         <v>0</v>
       </c>
-      <c r="CN25" s="99"/>
-      <c r="CO25" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP25" s="99"/>
-      <c r="CQ25" s="57">
+      <c r="CN25" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="99"/>
+      <c r="CP25" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="99"/>
+      <c r="CR25" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="100" t="s">
         <v>37</v>
@@ -20776,16 +20923,19 @@
       <c r="CM26" s="57">
         <v>0</v>
       </c>
-      <c r="CN26" s="99"/>
-      <c r="CO26" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP26" s="99"/>
-      <c r="CQ26" s="57">
+      <c r="CN26" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO26" s="99"/>
+      <c r="CP26" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="99"/>
+      <c r="CR26" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A27" s="27"/>
       <c r="B27" s="100" t="s">
         <v>37</v>
@@ -21053,18 +21203,21 @@
         <v>2</v>
       </c>
       <c r="CM27" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN27" s="99"/>
-      <c r="CO27" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP27" s="99"/>
-      <c r="CQ27" s="57">
-        <v>318</v>
+        <v>2</v>
+      </c>
+      <c r="CN27" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO27" s="99"/>
+      <c r="CP27" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ27" s="99"/>
+      <c r="CR27" s="57">
+        <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="100" t="s">
         <v>37</v>
@@ -21334,16 +21487,19 @@
       <c r="CM28" s="57">
         <v>0</v>
       </c>
-      <c r="CN28" s="99"/>
-      <c r="CO28" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP28" s="99"/>
-      <c r="CQ28" s="57">
+      <c r="CN28" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO28" s="99"/>
+      <c r="CP28" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="99"/>
+      <c r="CR28" s="57">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="100" t="s">
         <v>37</v>
@@ -21613,16 +21769,19 @@
       <c r="CM29" s="57">
         <v>0</v>
       </c>
-      <c r="CN29" s="99"/>
-      <c r="CO29" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP29" s="99"/>
-      <c r="CQ29" s="57">
+      <c r="CN29" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO29" s="99"/>
+      <c r="CP29" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="99"/>
+      <c r="CR29" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="100" t="s">
         <v>37</v>
@@ -21892,16 +22051,19 @@
       <c r="CM30" s="57">
         <v>0</v>
       </c>
-      <c r="CN30" s="99"/>
-      <c r="CO30" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP30" s="99"/>
-      <c r="CQ30" s="57">
+      <c r="CN30" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO30" s="99"/>
+      <c r="CP30" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ30" s="99"/>
+      <c r="CR30" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="100" t="s">
         <v>37</v>
@@ -22171,16 +22333,19 @@
       <c r="CM31" s="57">
         <v>1</v>
       </c>
-      <c r="CN31" s="99"/>
-      <c r="CO31" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP31" s="99"/>
-      <c r="CQ31" s="57">
-        <v>109</v>
+      <c r="CN31" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO31" s="99"/>
+      <c r="CP31" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ31" s="99"/>
+      <c r="CR31" s="57">
+        <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
       <c r="B32" s="100" t="s">
         <v>37</v>
@@ -22450,16 +22615,19 @@
       <c r="CM32" s="57">
         <v>0</v>
       </c>
-      <c r="CN32" s="99"/>
-      <c r="CO32" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP32" s="99"/>
-      <c r="CQ32" s="57">
+      <c r="CN32" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO32" s="99"/>
+      <c r="CP32" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ32" s="99"/>
+      <c r="CR32" s="57">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="100" t="s">
         <v>37</v>
@@ -22729,16 +22897,19 @@
       <c r="CM33" s="57">
         <v>0</v>
       </c>
-      <c r="CN33" s="99"/>
-      <c r="CO33" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP33" s="99"/>
-      <c r="CQ33" s="57">
+      <c r="CN33" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO33" s="99"/>
+      <c r="CP33" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ33" s="99"/>
+      <c r="CR33" s="57">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="100" t="s">
         <v>37</v>
@@ -23008,16 +23179,19 @@
       <c r="CM34" s="57">
         <v>0</v>
       </c>
-      <c r="CN34" s="99"/>
-      <c r="CO34" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP34" s="99"/>
-      <c r="CQ34" s="57">
+      <c r="CN34" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO34" s="99"/>
+      <c r="CP34" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ34" s="99"/>
+      <c r="CR34" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="100" t="s">
         <v>37</v>
@@ -23285,18 +23459,21 @@
         <v>0</v>
       </c>
       <c r="CM35" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN35" s="99"/>
-      <c r="CO35" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP35" s="99"/>
-      <c r="CQ35" s="57">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="CN35" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="99"/>
+      <c r="CP35" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="99"/>
+      <c r="CR35" s="57">
+        <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="100" t="s">
         <v>37</v>
@@ -23566,16 +23743,19 @@
       <c r="CM36" s="57">
         <v>0</v>
       </c>
-      <c r="CN36" s="99"/>
-      <c r="CO36" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP36" s="99"/>
-      <c r="CQ36" s="57">
+      <c r="CN36" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO36" s="99"/>
+      <c r="CP36" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ36" s="99"/>
+      <c r="CR36" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="100" t="s">
         <v>37</v>
@@ -23845,16 +24025,19 @@
       <c r="CM37" s="57">
         <v>0</v>
       </c>
-      <c r="CN37" s="99"/>
-      <c r="CO37" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP37" s="99"/>
-      <c r="CQ37" s="57">
+      <c r="CN37" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO37" s="99"/>
+      <c r="CP37" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ37" s="99"/>
+      <c r="CR37" s="57">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="100" t="s">
         <v>37</v>
@@ -24122,18 +24305,21 @@
         <v>0</v>
       </c>
       <c r="CM38" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN38" s="99"/>
-      <c r="CO38" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP38" s="99"/>
-      <c r="CQ38" s="57">
-        <v>191</v>
+        <v>2</v>
+      </c>
+      <c r="CN38" s="57">
+        <v>3</v>
+      </c>
+      <c r="CO38" s="99"/>
+      <c r="CP38" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ38" s="99"/>
+      <c r="CR38" s="57">
+        <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="100" t="s">
         <v>37</v>
@@ -24403,16 +24589,19 @@
       <c r="CM39" s="57">
         <v>0</v>
       </c>
-      <c r="CN39" s="99"/>
-      <c r="CO39" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP39" s="99"/>
-      <c r="CQ39" s="57">
+      <c r="CN39" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO39" s="99"/>
+      <c r="CP39" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ39" s="99"/>
+      <c r="CR39" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="100" t="s">
         <v>37</v>
@@ -24682,16 +24871,19 @@
       <c r="CM40" s="57">
         <v>0</v>
       </c>
-      <c r="CN40" s="99"/>
-      <c r="CO40" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP40" s="99"/>
-      <c r="CQ40" s="57">
+      <c r="CN40" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO40" s="99"/>
+      <c r="CP40" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ40" s="99"/>
+      <c r="CR40" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="100" t="s">
         <v>37</v>
@@ -24961,16 +25153,19 @@
       <c r="CM41" s="57">
         <v>0</v>
       </c>
-      <c r="CN41" s="99"/>
-      <c r="CO41" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP41" s="99"/>
-      <c r="CQ41" s="57">
+      <c r="CN41" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO41" s="99"/>
+      <c r="CP41" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ41" s="99"/>
+      <c r="CR41" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="100" t="s">
         <v>37</v>
@@ -25240,16 +25435,19 @@
       <c r="CM42" s="57">
         <v>0</v>
       </c>
-      <c r="CN42" s="99"/>
-      <c r="CO42" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP42" s="99"/>
-      <c r="CQ42" s="57">
+      <c r="CN42" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO42" s="99"/>
+      <c r="CP42" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ42" s="99"/>
+      <c r="CR42" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="100" t="s">
         <v>37</v>
@@ -25519,16 +25717,19 @@
       <c r="CM43" s="57">
         <v>0</v>
       </c>
-      <c r="CN43" s="99"/>
-      <c r="CO43" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP43" s="99"/>
-      <c r="CQ43" s="57">
+      <c r="CN43" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO43" s="99"/>
+      <c r="CP43" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ43" s="99"/>
+      <c r="CR43" s="57">
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
       <c r="B44" s="100" t="s">
         <v>37</v>
@@ -25798,16 +25999,19 @@
       <c r="CM44" s="57">
         <v>0</v>
       </c>
-      <c r="CN44" s="99"/>
-      <c r="CO44" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP44" s="99"/>
-      <c r="CQ44" s="57">
+      <c r="CN44" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO44" s="99"/>
+      <c r="CP44" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ44" s="99"/>
+      <c r="CR44" s="57">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="100" t="s">
         <v>37</v>
@@ -26077,16 +26281,19 @@
       <c r="CM45" s="57">
         <v>0</v>
       </c>
-      <c r="CN45" s="99"/>
-      <c r="CO45" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP45" s="99"/>
-      <c r="CQ45" s="57">
+      <c r="CN45" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO45" s="99"/>
+      <c r="CP45" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ45" s="99"/>
+      <c r="CR45" s="57">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="100" t="s">
         <v>37</v>
@@ -26356,16 +26563,19 @@
       <c r="CM46" s="57">
         <v>1</v>
       </c>
-      <c r="CN46" s="99"/>
-      <c r="CO46" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP46" s="99"/>
-      <c r="CQ46" s="57">
+      <c r="CN46" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO46" s="99"/>
+      <c r="CP46" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ46" s="99"/>
+      <c r="CR46" s="57">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="100" t="s">
         <v>37</v>
@@ -26635,16 +26845,19 @@
       <c r="CM47" s="57">
         <v>1</v>
       </c>
-      <c r="CN47" s="99"/>
-      <c r="CO47" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP47" s="99"/>
-      <c r="CQ47" s="57">
-        <v>66</v>
+      <c r="CN47" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO47" s="99"/>
+      <c r="CP47" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ47" s="99"/>
+      <c r="CR47" s="57">
+        <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="B48" s="100" t="s">
         <v>38</v>
@@ -26914,16 +27127,19 @@
       <c r="CM48" s="57">
         <v>0</v>
       </c>
-      <c r="CN48" s="99"/>
-      <c r="CO48" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP48" s="99"/>
-      <c r="CQ48" s="57">
+      <c r="CN48" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO48" s="99"/>
+      <c r="CP48" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ48" s="99"/>
+      <c r="CR48" s="57">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="100" t="s">
         <v>38</v>
@@ -27167,7 +27383,7 @@
         <v>2</v>
       </c>
       <c r="CE49" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF49" s="57">
         <v>4</v>
@@ -27193,16 +27409,19 @@
       <c r="CM49" s="57">
         <v>0</v>
       </c>
-      <c r="CN49" s="99"/>
-      <c r="CO49" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP49" s="99"/>
-      <c r="CQ49" s="57">
-        <v>593</v>
+      <c r="CN49" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO49" s="99"/>
+      <c r="CP49" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ49" s="99"/>
+      <c r="CR49" s="57">
+        <v>594</v>
       </c>
     </row>
-    <row r="50" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B50" s="100" t="s">
         <v>38</v>
       </c>
@@ -27471,16 +27690,19 @@
       <c r="CM50" s="57">
         <v>0</v>
       </c>
-      <c r="CN50" s="99"/>
-      <c r="CO50" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP50" s="99"/>
-      <c r="CQ50" s="57">
+      <c r="CN50" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO50" s="99"/>
+      <c r="CP50" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ50" s="99"/>
+      <c r="CR50" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="105" t="s">
         <v>38</v>
@@ -27750,16 +27972,19 @@
       <c r="CM51" s="57">
         <v>0</v>
       </c>
-      <c r="CN51" s="99"/>
-      <c r="CO51" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP51" s="99"/>
-      <c r="CQ51" s="57">
+      <c r="CN51" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO51" s="99"/>
+      <c r="CP51" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ51" s="99"/>
+      <c r="CR51" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="105" t="s">
         <v>38</v>
@@ -28029,16 +28254,19 @@
       <c r="CM52" s="57">
         <v>0</v>
       </c>
-      <c r="CN52" s="99"/>
-      <c r="CO52" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP52" s="99"/>
-      <c r="CQ52" s="57">
+      <c r="CN52" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO52" s="99"/>
+      <c r="CP52" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ52" s="99"/>
+      <c r="CR52" s="57">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:110" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:111" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="105" t="s">
         <v>38</v>
@@ -28306,18 +28534,21 @@
         <v>0</v>
       </c>
       <c r="CM53" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN53" s="99"/>
-      <c r="CO53" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP53" s="99"/>
-      <c r="CQ53" s="57">
-        <v>296</v>
+        <v>1</v>
+      </c>
+      <c r="CN53" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO53" s="99"/>
+      <c r="CP53" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ53" s="99"/>
+      <c r="CR53" s="57">
+        <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B54" s="105" t="s">
         <v>38</v>
       </c>
@@ -28530,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="BU54" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV54" s="57">
         <v>0</v>
@@ -28586,16 +28817,19 @@
       <c r="CM54" s="57">
         <v>0</v>
       </c>
-      <c r="CN54" s="99"/>
-      <c r="CO54" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP54" s="99"/>
-      <c r="CQ54" s="57">
-        <v>15</v>
+      <c r="CN54" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO54" s="99"/>
+      <c r="CP54" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ54" s="99"/>
+      <c r="CR54" s="57">
+        <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:110" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:111" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="100" t="s">
         <v>38</v>
       </c>
@@ -28864,15 +29098,17 @@
       <c r="CM55" s="57">
         <v>0</v>
       </c>
-      <c r="CN55" s="99"/>
-      <c r="CO55" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP55" s="99"/>
-      <c r="CQ55" s="57">
+      <c r="CN55" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO55" s="99"/>
+      <c r="CP55" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ55" s="99"/>
+      <c r="CR55" s="57">
         <v>255</v>
       </c>
-      <c r="CR55" s="49"/>
       <c r="CS55" s="49"/>
       <c r="CT55" s="49"/>
       <c r="CU55" s="49"/>
@@ -28887,8 +29123,9 @@
       <c r="DD55" s="49"/>
       <c r="DE55" s="49"/>
       <c r="DF55" s="49"/>
+      <c r="DG55" s="49"/>
     </row>
-    <row r="56" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="100" t="s">
         <v>38</v>
@@ -29158,16 +29395,19 @@
       <c r="CM56" s="57">
         <v>0</v>
       </c>
-      <c r="CN56" s="99"/>
-      <c r="CO56" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP56" s="99"/>
-      <c r="CQ56" s="57">
+      <c r="CN56" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO56" s="99"/>
+      <c r="CP56" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ56" s="99"/>
+      <c r="CR56" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="100" t="s">
         <v>138</v>
@@ -29437,16 +29677,19 @@
       <c r="CM57" s="57">
         <v>0</v>
       </c>
-      <c r="CN57" s="99"/>
-      <c r="CO57" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP57" s="99"/>
-      <c r="CQ57" s="57">
+      <c r="CN57" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO57" s="99"/>
+      <c r="CP57" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ57" s="99"/>
+      <c r="CR57" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="100" t="s">
         <v>38</v>
@@ -29716,16 +29959,19 @@
       <c r="CM58" s="57">
         <v>0</v>
       </c>
-      <c r="CN58" s="99"/>
-      <c r="CO58" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP58" s="99"/>
-      <c r="CQ58" s="57">
+      <c r="CN58" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO58" s="99"/>
+      <c r="CP58" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ58" s="99"/>
+      <c r="CR58" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="100" t="s">
         <v>38</v>
@@ -29995,16 +30241,19 @@
       <c r="CM59" s="57">
         <v>0</v>
       </c>
-      <c r="CN59" s="99"/>
-      <c r="CO59" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP59" s="99"/>
-      <c r="CQ59" s="57">
+      <c r="CN59" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO59" s="99"/>
+      <c r="CP59" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ59" s="99"/>
+      <c r="CR59" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="100" t="s">
         <v>38</v>
@@ -30274,16 +30523,19 @@
       <c r="CM60" s="57">
         <v>0</v>
       </c>
-      <c r="CN60" s="99"/>
-      <c r="CO60" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP60" s="99"/>
-      <c r="CQ60" s="57">
+      <c r="CN60" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO60" s="99"/>
+      <c r="CP60" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ60" s="99"/>
+      <c r="CR60" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B61" s="100" t="s">
         <v>38</v>
       </c>
@@ -30552,16 +30804,19 @@
       <c r="CM61" s="57">
         <v>0</v>
       </c>
-      <c r="CN61" s="99"/>
-      <c r="CO61" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP61" s="99"/>
-      <c r="CQ61" s="57">
+      <c r="CN61" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO61" s="99"/>
+      <c r="CP61" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ61" s="99"/>
+      <c r="CR61" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B62" s="100" t="s">
         <v>138</v>
       </c>
@@ -30830,16 +31085,19 @@
       <c r="CM62" s="57">
         <v>0</v>
       </c>
-      <c r="CN62" s="99"/>
-      <c r="CO62" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP62" s="99"/>
-      <c r="CQ62" s="57">
+      <c r="CN62" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO62" s="99"/>
+      <c r="CP62" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ62" s="99"/>
+      <c r="CR62" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B63" s="100" t="s">
         <v>38</v>
       </c>
@@ -31103,21 +31361,24 @@
         <v>0</v>
       </c>
       <c r="CL63" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM63" s="57">
         <v>0</v>
       </c>
-      <c r="CN63" s="99"/>
-      <c r="CO63" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP63" s="99"/>
-      <c r="CQ63" s="57">
-        <v>413</v>
+      <c r="CN63" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO63" s="99"/>
+      <c r="CP63" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ63" s="99"/>
+      <c r="CR63" s="57">
+        <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B64" s="100" t="s">
         <v>38</v>
       </c>
@@ -31386,16 +31647,19 @@
       <c r="CM64" s="57">
         <v>0</v>
       </c>
-      <c r="CN64" s="99"/>
-      <c r="CO64" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP64" s="99"/>
-      <c r="CQ64" s="57">
+      <c r="CN64" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO64" s="99"/>
+      <c r="CP64" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ64" s="99"/>
+      <c r="CR64" s="57">
         <v>489</v>
       </c>
     </row>
-    <row r="65" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B65" s="100" t="s">
         <v>38</v>
       </c>
@@ -31662,18 +31926,21 @@
         <v>0</v>
       </c>
       <c r="CM65" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN65" s="99"/>
-      <c r="CO65" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP65" s="99"/>
-      <c r="CQ65" s="57">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="CN65" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO65" s="99"/>
+      <c r="CP65" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ65" s="99"/>
+      <c r="CR65" s="57">
+        <v>159</v>
       </c>
     </row>
-    <row r="66" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B66" s="100" t="s">
         <v>38</v>
       </c>
@@ -31940,18 +32207,21 @@
         <v>1</v>
       </c>
       <c r="CM66" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN66" s="99"/>
-      <c r="CO66" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP66" s="99"/>
-      <c r="CQ66" s="57">
-        <v>392</v>
+        <v>1</v>
+      </c>
+      <c r="CN66" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO66" s="99"/>
+      <c r="CP66" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ66" s="99"/>
+      <c r="CR66" s="57">
+        <v>393</v>
       </c>
     </row>
-    <row r="67" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B67" s="100" t="s">
         <v>38</v>
       </c>
@@ -32220,16 +32490,19 @@
       <c r="CM67" s="57">
         <v>0</v>
       </c>
-      <c r="CN67" s="99"/>
-      <c r="CO67" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP67" s="99"/>
-      <c r="CQ67" s="57">
+      <c r="CN67" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO67" s="99"/>
+      <c r="CP67" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ67" s="99"/>
+      <c r="CR67" s="57">
         <v>576</v>
       </c>
     </row>
-    <row r="68" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B68" s="100" t="s">
         <v>38</v>
       </c>
@@ -32498,16 +32771,19 @@
       <c r="CM68" s="57">
         <v>0</v>
       </c>
-      <c r="CN68" s="99"/>
-      <c r="CO68" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP68" s="99"/>
-      <c r="CQ68" s="57">
+      <c r="CN68" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO68" s="99"/>
+      <c r="CP68" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ68" s="99"/>
+      <c r="CR68" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B69" s="100" t="s">
         <v>38</v>
       </c>
@@ -32776,16 +33052,19 @@
       <c r="CM69" s="57">
         <v>0</v>
       </c>
-      <c r="CN69" s="99"/>
-      <c r="CO69" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP69" s="99"/>
-      <c r="CQ69" s="57">
+      <c r="CN69" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO69" s="99"/>
+      <c r="CP69" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ69" s="99"/>
+      <c r="CR69" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B70" s="100" t="s">
         <v>38</v>
       </c>
@@ -33054,16 +33333,19 @@
       <c r="CM70" s="57">
         <v>0</v>
       </c>
-      <c r="CN70" s="99"/>
-      <c r="CO70" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP70" s="99"/>
-      <c r="CQ70" s="57">
+      <c r="CN70" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO70" s="99"/>
+      <c r="CP70" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ70" s="99"/>
+      <c r="CR70" s="57">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B71" s="100" t="s">
         <v>38</v>
       </c>
@@ -33332,16 +33614,19 @@
       <c r="CM71" s="57">
         <v>0</v>
       </c>
-      <c r="CN71" s="99"/>
-      <c r="CO71" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP71" s="99"/>
-      <c r="CQ71" s="57">
+      <c r="CN71" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO71" s="99"/>
+      <c r="CP71" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ71" s="99"/>
+      <c r="CR71" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B72" s="100" t="s">
         <v>38</v>
       </c>
@@ -33610,16 +33895,19 @@
       <c r="CM72" s="57">
         <v>0</v>
       </c>
-      <c r="CN72" s="99"/>
-      <c r="CO72" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP72" s="99"/>
-      <c r="CQ72" s="57">
+      <c r="CN72" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO72" s="99"/>
+      <c r="CP72" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ72" s="99"/>
+      <c r="CR72" s="57">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B73" s="100" t="s">
         <v>38</v>
       </c>
@@ -33888,16 +34176,19 @@
       <c r="CM73" s="57">
         <v>0</v>
       </c>
-      <c r="CN73" s="99"/>
-      <c r="CO73" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP73" s="99"/>
-      <c r="CQ73" s="57">
+      <c r="CN73" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO73" s="99"/>
+      <c r="CP73" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ73" s="99"/>
+      <c r="CR73" s="57">
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B74" s="100" t="s">
         <v>38</v>
       </c>
@@ -34166,16 +34457,19 @@
       <c r="CM74" s="57">
         <v>0</v>
       </c>
-      <c r="CN74" s="99"/>
-      <c r="CO74" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP74" s="99"/>
-      <c r="CQ74" s="57">
+      <c r="CN74" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO74" s="99"/>
+      <c r="CP74" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ74" s="99"/>
+      <c r="CR74" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B75" s="100" t="s">
         <v>38</v>
       </c>
@@ -34444,16 +34738,19 @@
       <c r="CM75" s="57">
         <v>0</v>
       </c>
-      <c r="CN75" s="99"/>
-      <c r="CO75" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP75" s="99"/>
-      <c r="CQ75" s="57">
+      <c r="CN75" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO75" s="99"/>
+      <c r="CP75" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ75" s="99"/>
+      <c r="CR75" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B76" s="100" t="s">
         <v>38</v>
       </c>
@@ -34722,16 +35019,19 @@
       <c r="CM76" s="57">
         <v>0</v>
       </c>
-      <c r="CN76" s="99"/>
-      <c r="CO76" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP76" s="99"/>
-      <c r="CQ76" s="57">
+      <c r="CN76" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO76" s="99"/>
+      <c r="CP76" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ76" s="99"/>
+      <c r="CR76" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B77" s="100" t="s">
         <v>38</v>
       </c>
@@ -35000,16 +35300,19 @@
       <c r="CM77" s="57">
         <v>0</v>
       </c>
-      <c r="CN77" s="99"/>
-      <c r="CO77" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP77" s="99"/>
-      <c r="CQ77" s="57">
+      <c r="CN77" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO77" s="99"/>
+      <c r="CP77" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ77" s="99"/>
+      <c r="CR77" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B78" s="100" t="s">
         <v>38</v>
       </c>
@@ -35278,16 +35581,19 @@
       <c r="CM78" s="57">
         <v>0</v>
       </c>
-      <c r="CN78" s="99"/>
-      <c r="CO78" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP78" s="99"/>
-      <c r="CQ78" s="57">
+      <c r="CN78" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO78" s="99"/>
+      <c r="CP78" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ78" s="99"/>
+      <c r="CR78" s="57">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B79" s="100" t="s">
         <v>38</v>
       </c>
@@ -35556,16 +35862,19 @@
       <c r="CM79" s="57">
         <v>0</v>
       </c>
-      <c r="CN79" s="99"/>
-      <c r="CO79" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP79" s="99"/>
-      <c r="CQ79" s="57">
+      <c r="CN79" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO79" s="99"/>
+      <c r="CP79" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ79" s="99"/>
+      <c r="CR79" s="57">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B80" s="100" t="s">
         <v>38</v>
       </c>
@@ -35834,16 +36143,19 @@
       <c r="CM80" s="57">
         <v>0</v>
       </c>
-      <c r="CN80" s="99"/>
-      <c r="CO80" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP80" s="99"/>
-      <c r="CQ80" s="57">
+      <c r="CN80" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO80" s="99"/>
+      <c r="CP80" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ80" s="99"/>
+      <c r="CR80" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B81" s="100" t="s">
         <v>38</v>
       </c>
@@ -36112,16 +36424,19 @@
       <c r="CM81" s="57">
         <v>0</v>
       </c>
-      <c r="CN81" s="99"/>
-      <c r="CO81" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP81" s="99"/>
-      <c r="CQ81" s="57">
+      <c r="CN81" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO81" s="99"/>
+      <c r="CP81" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ81" s="99"/>
+      <c r="CR81" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B82" s="100" t="s">
         <v>38</v>
       </c>
@@ -36352,7 +36667,7 @@
         <v>1</v>
       </c>
       <c r="CA82" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB82" s="57">
         <v>0</v>
@@ -36361,7 +36676,7 @@
         <v>1</v>
       </c>
       <c r="CD82" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE82" s="57">
         <v>1</v>
@@ -36373,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="CH82" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI82" s="57">
         <v>1</v>
@@ -36390,16 +36705,19 @@
       <c r="CM82" s="57">
         <v>0</v>
       </c>
-      <c r="CN82" s="99"/>
-      <c r="CO82" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP82" s="99"/>
-      <c r="CQ82" s="57">
-        <v>168</v>
+      <c r="CN82" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO82" s="99"/>
+      <c r="CP82" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ82" s="99"/>
+      <c r="CR82" s="57">
+        <v>171</v>
       </c>
     </row>
-    <row r="83" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B83" s="100" t="s">
         <v>38</v>
       </c>
@@ -36668,16 +36986,19 @@
       <c r="CM83" s="57">
         <v>0</v>
       </c>
-      <c r="CN83" s="99"/>
-      <c r="CO83" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP83" s="99"/>
-      <c r="CQ83" s="57">
+      <c r="CN83" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO83" s="99"/>
+      <c r="CP83" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ83" s="99"/>
+      <c r="CR83" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B84" s="100" t="s">
         <v>38</v>
       </c>
@@ -36946,16 +37267,19 @@
       <c r="CM84" s="57">
         <v>0</v>
       </c>
-      <c r="CN84" s="99"/>
-      <c r="CO84" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP84" s="99"/>
-      <c r="CQ84" s="57">
+      <c r="CN84" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO84" s="99"/>
+      <c r="CP84" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ84" s="99"/>
+      <c r="CR84" s="57">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B85" s="100" t="s">
         <v>39</v>
       </c>
@@ -37219,21 +37543,24 @@
         <v>0</v>
       </c>
       <c r="CL85" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM85" s="57">
         <v>0</v>
       </c>
-      <c r="CN85" s="99"/>
-      <c r="CO85" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP85" s="99"/>
-      <c r="CQ85" s="57">
-        <v>35</v>
+      <c r="CN85" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO85" s="99"/>
+      <c r="CP85" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ85" s="99"/>
+      <c r="CR85" s="57">
+        <v>36</v>
       </c>
     </row>
-    <row r="86" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B86" s="100" t="s">
         <v>39</v>
       </c>
@@ -37500,18 +37827,21 @@
         <v>1</v>
       </c>
       <c r="CM86" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN86" s="99"/>
-      <c r="CO86" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP86" s="99"/>
-      <c r="CQ86" s="57">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="CN86" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO86" s="99"/>
+      <c r="CP86" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ86" s="99"/>
+      <c r="CR86" s="57">
+        <v>118</v>
       </c>
     </row>
-    <row r="87" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B87" s="100" t="s">
         <v>39</v>
       </c>
@@ -37780,16 +38110,19 @@
       <c r="CM87" s="57">
         <v>0</v>
       </c>
-      <c r="CN87" s="99"/>
-      <c r="CO87" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP87" s="99"/>
-      <c r="CQ87" s="57">
+      <c r="CN87" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO87" s="99"/>
+      <c r="CP87" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ87" s="99"/>
+      <c r="CR87" s="57">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B88" s="100" t="s">
         <v>39</v>
       </c>
@@ -38058,16 +38391,19 @@
       <c r="CM88" s="57">
         <v>0</v>
       </c>
-      <c r="CN88" s="99"/>
-      <c r="CO88" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP88" s="99"/>
-      <c r="CQ88" s="57">
+      <c r="CN88" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO88" s="99"/>
+      <c r="CP88" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ88" s="99"/>
+      <c r="CR88" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B89" s="100" t="s">
         <v>39</v>
       </c>
@@ -38336,16 +38672,19 @@
       <c r="CM89" s="57">
         <v>0</v>
       </c>
-      <c r="CN89" s="99"/>
-      <c r="CO89" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP89" s="99"/>
-      <c r="CQ89" s="57">
+      <c r="CN89" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO89" s="99"/>
+      <c r="CP89" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ89" s="99"/>
+      <c r="CR89" s="57">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B90" s="100" t="s">
         <v>39</v>
       </c>
@@ -38614,16 +38953,19 @@
       <c r="CM90" s="57">
         <v>0</v>
       </c>
-      <c r="CN90" s="99"/>
-      <c r="CO90" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP90" s="99"/>
-      <c r="CQ90" s="57">
+      <c r="CN90" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO90" s="99"/>
+      <c r="CP90" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ90" s="99"/>
+      <c r="CR90" s="57">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B91" s="100" t="s">
         <v>39</v>
       </c>
@@ -38892,16 +39234,19 @@
       <c r="CM91" s="57">
         <v>0</v>
       </c>
-      <c r="CN91" s="99"/>
-      <c r="CO91" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP91" s="99"/>
-      <c r="CQ91" s="57">
+      <c r="CN91" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO91" s="99"/>
+      <c r="CP91" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ91" s="99"/>
+      <c r="CR91" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B92" s="100" t="s">
         <v>39</v>
       </c>
@@ -39170,16 +39515,19 @@
       <c r="CM92" s="57">
         <v>0</v>
       </c>
-      <c r="CN92" s="99"/>
-      <c r="CO92" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP92" s="99"/>
-      <c r="CQ92" s="57">
+      <c r="CN92" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO92" s="99"/>
+      <c r="CP92" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ92" s="99"/>
+      <c r="CR92" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B93" s="100" t="s">
         <v>39</v>
       </c>
@@ -39448,16 +39796,19 @@
       <c r="CM93" s="57">
         <v>0</v>
       </c>
-      <c r="CN93" s="99"/>
-      <c r="CO93" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP93" s="99"/>
-      <c r="CQ93" s="57">
+      <c r="CN93" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO93" s="99"/>
+      <c r="CP93" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ93" s="99"/>
+      <c r="CR93" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B94" s="100" t="s">
         <v>39</v>
       </c>
@@ -39726,16 +40077,19 @@
       <c r="CM94" s="57">
         <v>0</v>
       </c>
-      <c r="CN94" s="99"/>
-      <c r="CO94" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP94" s="99"/>
-      <c r="CQ94" s="57">
+      <c r="CN94" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO94" s="99"/>
+      <c r="CP94" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ94" s="99"/>
+      <c r="CR94" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B95" s="100" t="s">
         <v>39</v>
       </c>
@@ -40004,16 +40358,19 @@
       <c r="CM95" s="57">
         <v>1</v>
       </c>
-      <c r="CN95" s="99"/>
-      <c r="CO95" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP95" s="99"/>
-      <c r="CQ95" s="57">
+      <c r="CN95" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO95" s="99"/>
+      <c r="CP95" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ95" s="99"/>
+      <c r="CR95" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B96" s="100" t="s">
         <v>39</v>
       </c>
@@ -40277,21 +40634,24 @@
         <v>1</v>
       </c>
       <c r="CL96" s="57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM96" s="57">
         <v>0</v>
       </c>
-      <c r="CN96" s="99"/>
-      <c r="CO96" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP96" s="99"/>
-      <c r="CQ96" s="57">
-        <v>223</v>
+      <c r="CN96" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO96" s="99"/>
+      <c r="CP96" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ96" s="99"/>
+      <c r="CR96" s="57">
+        <v>226</v>
       </c>
     </row>
-    <row r="97" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B97" s="100" t="s">
         <v>39</v>
       </c>
@@ -40560,16 +40920,19 @@
       <c r="CM97" s="57">
         <v>1</v>
       </c>
-      <c r="CN97" s="99"/>
-      <c r="CO97" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP97" s="99"/>
-      <c r="CQ97" s="57">
+      <c r="CN97" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO97" s="99"/>
+      <c r="CP97" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ97" s="99"/>
+      <c r="CR97" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B98" s="100" t="s">
         <v>39</v>
       </c>
@@ -40838,16 +41201,19 @@
       <c r="CM98" s="57">
         <v>0</v>
       </c>
-      <c r="CN98" s="99"/>
-      <c r="CO98" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP98" s="99"/>
-      <c r="CQ98" s="57">
+      <c r="CN98" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO98" s="99"/>
+      <c r="CP98" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ98" s="99"/>
+      <c r="CR98" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B99" s="100" t="s">
         <v>39</v>
       </c>
@@ -41114,18 +41480,21 @@
         <v>1</v>
       </c>
       <c r="CM99" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN99" s="99"/>
-      <c r="CO99" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP99" s="99"/>
-      <c r="CQ99" s="57">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="CN99" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO99" s="99"/>
+      <c r="CP99" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ99" s="99"/>
+      <c r="CR99" s="57">
+        <v>245</v>
       </c>
     </row>
-    <row r="100" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B100" s="100" t="s">
         <v>39</v>
       </c>
@@ -41394,16 +41763,19 @@
       <c r="CM100" s="57">
         <v>0</v>
       </c>
-      <c r="CN100" s="99"/>
-      <c r="CO100" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP100" s="99"/>
-      <c r="CQ100" s="57">
+      <c r="CN100" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO100" s="99"/>
+      <c r="CP100" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ100" s="99"/>
+      <c r="CR100" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B101" s="100" t="s">
         <v>39</v>
       </c>
@@ -41661,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="CJ101" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK101" s="57">
         <v>0</v>
@@ -41672,16 +42044,19 @@
       <c r="CM101" s="57">
         <v>0</v>
       </c>
-      <c r="CN101" s="99"/>
-      <c r="CO101" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP101" s="99"/>
-      <c r="CQ101" s="57">
-        <v>336</v>
+      <c r="CN101" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO101" s="99"/>
+      <c r="CP101" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ101" s="99"/>
+      <c r="CR101" s="57">
+        <v>337</v>
       </c>
     </row>
-    <row r="102" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B102" s="100" t="s">
         <v>39</v>
       </c>
@@ -41950,16 +42325,19 @@
       <c r="CM102" s="57">
         <v>0</v>
       </c>
-      <c r="CN102" s="99"/>
-      <c r="CO102" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP102" s="99"/>
-      <c r="CQ102" s="57">
+      <c r="CN102" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO102" s="99"/>
+      <c r="CP102" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ102" s="99"/>
+      <c r="CR102" s="57">
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B103" s="100" t="s">
         <v>39</v>
       </c>
@@ -42163,10 +42541,10 @@
         <v>1</v>
       </c>
       <c r="BR103" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS103" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT103" s="57">
         <v>8</v>
@@ -42226,18 +42604,21 @@
         <v>2</v>
       </c>
       <c r="CM103" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN103" s="99"/>
-      <c r="CO103" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP103" s="99"/>
-      <c r="CQ103" s="57">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="CN103" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO103" s="99"/>
+      <c r="CP103" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ103" s="99"/>
+      <c r="CR103" s="57">
+        <v>140</v>
       </c>
     </row>
-    <row r="104" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B104" s="100" t="s">
         <v>39</v>
       </c>
@@ -42506,16 +42887,19 @@
       <c r="CM104" s="57">
         <v>0</v>
       </c>
-      <c r="CN104" s="99"/>
-      <c r="CO104" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP104" s="99"/>
-      <c r="CQ104" s="57">
+      <c r="CN104" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO104" s="99"/>
+      <c r="CP104" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ104" s="99"/>
+      <c r="CR104" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B105" s="100" t="s">
         <v>39</v>
       </c>
@@ -42784,16 +43168,19 @@
       <c r="CM105" s="57">
         <v>0</v>
       </c>
-      <c r="CN105" s="99"/>
-      <c r="CO105" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP105" s="99"/>
-      <c r="CQ105" s="57">
+      <c r="CN105" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO105" s="99"/>
+      <c r="CP105" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ105" s="99"/>
+      <c r="CR105" s="57">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B106" s="100" t="s">
         <v>39</v>
       </c>
@@ -42997,7 +43384,7 @@
         <v>1</v>
       </c>
       <c r="BR106" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS106" s="57">
         <v>1</v>
@@ -43062,16 +43449,19 @@
       <c r="CM106" s="57">
         <v>0</v>
       </c>
-      <c r="CN106" s="99"/>
-      <c r="CO106" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP106" s="99"/>
-      <c r="CQ106" s="57">
-        <v>245</v>
+      <c r="CN106" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO106" s="99"/>
+      <c r="CP106" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ106" s="99"/>
+      <c r="CR106" s="57">
+        <v>246</v>
       </c>
     </row>
-    <row r="107" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B107" s="100" t="s">
         <v>39</v>
       </c>
@@ -43340,16 +43730,19 @@
       <c r="CM107" s="57">
         <v>0</v>
       </c>
-      <c r="CN107" s="99"/>
-      <c r="CO107" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP107" s="99"/>
-      <c r="CQ107" s="57">
+      <c r="CN107" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO107" s="99"/>
+      <c r="CP107" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ107" s="99"/>
+      <c r="CR107" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B108" s="100" t="s">
         <v>39</v>
       </c>
@@ -43618,16 +44011,19 @@
       <c r="CM108" s="57">
         <v>0</v>
       </c>
-      <c r="CN108" s="99"/>
-      <c r="CO108" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP108" s="99"/>
-      <c r="CQ108" s="57">
+      <c r="CN108" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO108" s="99"/>
+      <c r="CP108" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ108" s="99"/>
+      <c r="CR108" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B109" s="100" t="s">
         <v>39</v>
       </c>
@@ -43891,21 +44287,24 @@
         <v>0</v>
       </c>
       <c r="CL109" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM109" s="57">
         <v>0</v>
       </c>
-      <c r="CN109" s="99"/>
-      <c r="CO109" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP109" s="99"/>
-      <c r="CQ109" s="57">
-        <v>262</v>
+      <c r="CN109" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO109" s="99"/>
+      <c r="CP109" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ109" s="99"/>
+      <c r="CR109" s="57">
+        <v>264</v>
       </c>
     </row>
-    <row r="110" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B110" s="100" t="s">
         <v>39</v>
       </c>
@@ -44174,16 +44573,19 @@
       <c r="CM110" s="57">
         <v>1</v>
       </c>
-      <c r="CN110" s="99"/>
-      <c r="CO110" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP110" s="99"/>
-      <c r="CQ110" s="57">
+      <c r="CN110" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO110" s="99"/>
+      <c r="CP110" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ110" s="99"/>
+      <c r="CR110" s="57">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B111" s="100" t="s">
         <v>39</v>
       </c>
@@ -44378,7 +44780,7 @@
         <v>7</v>
       </c>
       <c r="BO111" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP111" s="57">
         <v>10</v>
@@ -44447,21 +44849,24 @@
         <v>1</v>
       </c>
       <c r="CL111" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM111" s="57">
         <v>0</v>
       </c>
-      <c r="CN111" s="99"/>
-      <c r="CO111" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP111" s="99"/>
-      <c r="CQ111" s="57">
-        <v>896</v>
+      <c r="CN111" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO111" s="99"/>
+      <c r="CP111" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ111" s="99"/>
+      <c r="CR111" s="57">
+        <v>899</v>
       </c>
     </row>
-    <row r="112" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B112" s="100" t="s">
         <v>39</v>
       </c>
@@ -44728,18 +45133,21 @@
         <v>0</v>
       </c>
       <c r="CM112" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN112" s="99"/>
-      <c r="CO112" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP112" s="99"/>
-      <c r="CQ112" s="57">
-        <v>229</v>
+        <v>1</v>
+      </c>
+      <c r="CN112" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO112" s="99"/>
+      <c r="CP112" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ112" s="99"/>
+      <c r="CR112" s="57">
+        <v>230</v>
       </c>
     </row>
-    <row r="113" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B113" s="100" t="s">
         <v>39</v>
       </c>
@@ -45008,16 +45416,19 @@
       <c r="CM113" s="57">
         <v>0</v>
       </c>
-      <c r="CN113" s="99"/>
-      <c r="CO113" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP113" s="99"/>
-      <c r="CQ113" s="57">
+      <c r="CN113" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO113" s="99"/>
+      <c r="CP113" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ113" s="99"/>
+      <c r="CR113" s="57">
         <v>467</v>
       </c>
     </row>
-    <row r="114" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B114" s="100" t="s">
         <v>39</v>
       </c>
@@ -45286,16 +45697,19 @@
       <c r="CM114" s="57">
         <v>0</v>
       </c>
-      <c r="CN114" s="99"/>
-      <c r="CO114" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP114" s="99"/>
-      <c r="CQ114" s="57">
+      <c r="CN114" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO114" s="99"/>
+      <c r="CP114" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ114" s="99"/>
+      <c r="CR114" s="57">
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B115" s="100" t="s">
         <v>39</v>
       </c>
@@ -45562,18 +45976,21 @@
         <v>2</v>
       </c>
       <c r="CM115" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN115" s="99"/>
-      <c r="CO115" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP115" s="99"/>
-      <c r="CQ115" s="57">
-        <v>292</v>
+        <v>3</v>
+      </c>
+      <c r="CN115" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO115" s="99"/>
+      <c r="CP115" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ115" s="99"/>
+      <c r="CR115" s="57">
+        <v>295</v>
       </c>
     </row>
-    <row r="116" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B116" s="100" t="s">
         <v>39</v>
       </c>
@@ -45842,16 +46259,19 @@
       <c r="CM116" s="57">
         <v>0</v>
       </c>
-      <c r="CN116" s="99"/>
-      <c r="CO116" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP116" s="99"/>
-      <c r="CQ116" s="57">
+      <c r="CN116" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO116" s="99"/>
+      <c r="CP116" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ116" s="99"/>
+      <c r="CR116" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B117" s="100" t="s">
         <v>39</v>
       </c>
@@ -46120,16 +46540,19 @@
       <c r="CM117" s="57">
         <v>0</v>
       </c>
-      <c r="CN117" s="99"/>
-      <c r="CO117" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP117" s="99"/>
-      <c r="CQ117" s="57">
+      <c r="CN117" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO117" s="99"/>
+      <c r="CP117" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ117" s="99"/>
+      <c r="CR117" s="57">
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B118" s="100" t="s">
         <v>39</v>
       </c>
@@ -46398,16 +46821,19 @@
       <c r="CM118" s="57">
         <v>0</v>
       </c>
-      <c r="CN118" s="99"/>
-      <c r="CO118" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP118" s="99"/>
-      <c r="CQ118" s="57">
+      <c r="CN118" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO118" s="99"/>
+      <c r="CP118" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ118" s="99"/>
+      <c r="CR118" s="57">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B119" s="100" t="s">
         <v>39</v>
       </c>
@@ -46676,16 +47102,19 @@
       <c r="CM119" s="57">
         <v>0</v>
       </c>
-      <c r="CN119" s="99"/>
-      <c r="CO119" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP119" s="99"/>
-      <c r="CQ119" s="57">
+      <c r="CN119" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO119" s="99"/>
+      <c r="CP119" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ119" s="99"/>
+      <c r="CR119" s="57">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B120" s="100" t="s">
         <v>40</v>
       </c>
@@ -46954,16 +47383,19 @@
       <c r="CM120" s="57">
         <v>0</v>
       </c>
-      <c r="CN120" s="99"/>
-      <c r="CO120" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP120" s="99"/>
-      <c r="CQ120" s="57">
+      <c r="CN120" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO120" s="99"/>
+      <c r="CP120" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ120" s="99"/>
+      <c r="CR120" s="57">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B121" s="100" t="s">
         <v>40</v>
       </c>
@@ -47230,18 +47662,21 @@
         <v>1</v>
       </c>
       <c r="CM121" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN121" s="99"/>
-      <c r="CO121" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP121" s="99"/>
-      <c r="CQ121" s="57">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="CN121" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO121" s="99"/>
+      <c r="CP121" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ121" s="99"/>
+      <c r="CR121" s="57">
+        <v>116</v>
       </c>
     </row>
-    <row r="122" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B122" s="100" t="s">
         <v>40</v>
       </c>
@@ -47510,16 +47945,19 @@
       <c r="CM122" s="57">
         <v>0</v>
       </c>
-      <c r="CN122" s="99"/>
-      <c r="CO122" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP122" s="99"/>
-      <c r="CQ122" s="57">
+      <c r="CN122" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO122" s="99"/>
+      <c r="CP122" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ122" s="99"/>
+      <c r="CR122" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B123" s="100" t="s">
         <v>40</v>
       </c>
@@ -47788,16 +48226,19 @@
       <c r="CM123" s="57">
         <v>0</v>
       </c>
-      <c r="CN123" s="99"/>
-      <c r="CO123" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP123" s="99"/>
-      <c r="CQ123" s="57">
+      <c r="CN123" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO123" s="99"/>
+      <c r="CP123" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ123" s="99"/>
+      <c r="CR123" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B124" s="100" t="s">
         <v>40</v>
       </c>
@@ -48066,16 +48507,19 @@
       <c r="CM124" s="57">
         <v>0</v>
       </c>
-      <c r="CN124" s="99"/>
-      <c r="CO124" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP124" s="99"/>
-      <c r="CQ124" s="57">
-        <v>191</v>
+      <c r="CN124" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO124" s="99"/>
+      <c r="CP124" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ124" s="99"/>
+      <c r="CR124" s="57">
+        <v>193</v>
       </c>
     </row>
-    <row r="125" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B125" s="100" t="s">
         <v>40</v>
       </c>
@@ -48342,18 +48786,21 @@
         <v>0</v>
       </c>
       <c r="CM125" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN125" s="99"/>
-      <c r="CO125" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP125" s="99"/>
-      <c r="CQ125" s="57">
-        <v>143</v>
+        <v>1</v>
+      </c>
+      <c r="CN125" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO125" s="99"/>
+      <c r="CP125" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ125" s="99"/>
+      <c r="CR125" s="57">
+        <v>146</v>
       </c>
     </row>
-    <row r="126" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B126" s="100" t="s">
         <v>40</v>
       </c>
@@ -48622,16 +49069,19 @@
       <c r="CM126" s="57">
         <v>0</v>
       </c>
-      <c r="CN126" s="99"/>
-      <c r="CO126" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP126" s="99"/>
-      <c r="CQ126" s="57">
+      <c r="CN126" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO126" s="99"/>
+      <c r="CP126" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ126" s="99"/>
+      <c r="CR126" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B127" s="100" t="s">
         <v>40</v>
       </c>
@@ -48900,16 +49350,19 @@
       <c r="CM127" s="57">
         <v>0</v>
       </c>
-      <c r="CN127" s="99"/>
-      <c r="CO127" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP127" s="99"/>
-      <c r="CQ127" s="57">
+      <c r="CN127" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO127" s="99"/>
+      <c r="CP127" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ127" s="99"/>
+      <c r="CR127" s="57">
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B128" s="100" t="s">
         <v>40</v>
       </c>
@@ -49178,16 +49631,19 @@
       <c r="CM128" s="57">
         <v>0</v>
       </c>
-      <c r="CN128" s="99"/>
-      <c r="CO128" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP128" s="99"/>
-      <c r="CQ128" s="57">
+      <c r="CN128" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO128" s="99"/>
+      <c r="CP128" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ128" s="99"/>
+      <c r="CR128" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B129" s="100" t="s">
         <v>40</v>
       </c>
@@ -49456,16 +49912,19 @@
       <c r="CM129" s="57">
         <v>0</v>
       </c>
-      <c r="CN129" s="99"/>
-      <c r="CO129" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP129" s="99"/>
-      <c r="CQ129" s="57">
+      <c r="CN129" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO129" s="99"/>
+      <c r="CP129" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ129" s="99"/>
+      <c r="CR129" s="57">
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B130" s="100" t="s">
         <v>40</v>
       </c>
@@ -49734,16 +50193,19 @@
       <c r="CM130" s="57">
         <v>0</v>
       </c>
-      <c r="CN130" s="99"/>
-      <c r="CO130" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP130" s="99"/>
-      <c r="CQ130" s="57">
+      <c r="CN130" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO130" s="99"/>
+      <c r="CP130" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ130" s="99"/>
+      <c r="CR130" s="57">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B131" s="100" t="s">
         <v>40</v>
       </c>
@@ -50010,18 +50472,21 @@
         <v>0</v>
       </c>
       <c r="CM131" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN131" s="99"/>
-      <c r="CO131" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP131" s="99"/>
-      <c r="CQ131" s="57">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="CN131" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO131" s="99"/>
+      <c r="CP131" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ131" s="99"/>
+      <c r="CR131" s="57">
+        <v>63</v>
       </c>
     </row>
-    <row r="132" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B132" s="100" t="s">
         <v>40</v>
       </c>
@@ -50290,16 +50755,19 @@
       <c r="CM132" s="57">
         <v>0</v>
       </c>
-      <c r="CN132" s="99"/>
-      <c r="CO132" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP132" s="99"/>
-      <c r="CQ132" s="57">
+      <c r="CN132" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO132" s="99"/>
+      <c r="CP132" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ132" s="99"/>
+      <c r="CR132" s="57">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B133" s="100" t="s">
         <v>40</v>
       </c>
@@ -50568,16 +51036,19 @@
       <c r="CM133" s="57">
         <v>0</v>
       </c>
-      <c r="CN133" s="99"/>
-      <c r="CO133" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP133" s="99"/>
-      <c r="CQ133" s="57">
+      <c r="CN133" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO133" s="99"/>
+      <c r="CP133" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ133" s="99"/>
+      <c r="CR133" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B134" s="100" t="s">
         <v>40</v>
       </c>
@@ -50846,16 +51317,19 @@
       <c r="CM134" s="57">
         <v>0</v>
       </c>
-      <c r="CN134" s="99"/>
-      <c r="CO134" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP134" s="99"/>
-      <c r="CQ134" s="57">
+      <c r="CN134" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO134" s="99"/>
+      <c r="CP134" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ134" s="99"/>
+      <c r="CR134" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B135" s="100" t="s">
         <v>40</v>
       </c>
@@ -51124,16 +51598,19 @@
       <c r="CM135" s="57">
         <v>0</v>
       </c>
-      <c r="CN135" s="99"/>
-      <c r="CO135" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP135" s="99"/>
-      <c r="CQ135" s="57">
+      <c r="CN135" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO135" s="99"/>
+      <c r="CP135" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ135" s="99"/>
+      <c r="CR135" s="57">
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B136" s="100" t="s">
         <v>40</v>
       </c>
@@ -51400,18 +51877,21 @@
         <v>2</v>
       </c>
       <c r="CM136" s="57">
-        <v>2</v>
-      </c>
-      <c r="CN136" s="99"/>
-      <c r="CO136" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP136" s="99"/>
-      <c r="CQ136" s="57">
-        <v>276</v>
+        <v>3</v>
+      </c>
+      <c r="CN136" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO136" s="99"/>
+      <c r="CP136" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ136" s="99"/>
+      <c r="CR136" s="57">
+        <v>277</v>
       </c>
     </row>
-    <row r="137" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B137" s="100" t="s">
         <v>40</v>
       </c>
@@ -51680,16 +52160,19 @@
       <c r="CM137" s="57">
         <v>0</v>
       </c>
-      <c r="CN137" s="99"/>
-      <c r="CO137" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP137" s="99"/>
-      <c r="CQ137" s="57">
+      <c r="CN137" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO137" s="99"/>
+      <c r="CP137" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ137" s="99"/>
+      <c r="CR137" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B138" s="100" t="s">
         <v>40</v>
       </c>
@@ -51956,18 +52439,21 @@
         <v>3</v>
       </c>
       <c r="CM138" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN138" s="99"/>
-      <c r="CO138" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP138" s="99"/>
-      <c r="CQ138" s="57">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="CN138" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO138" s="99"/>
+      <c r="CP138" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ138" s="99"/>
+      <c r="CR138" s="57">
+        <v>114</v>
       </c>
     </row>
-    <row r="139" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B139" s="100" t="s">
         <v>40</v>
       </c>
@@ -52236,16 +52722,19 @@
       <c r="CM139" s="57">
         <v>1</v>
       </c>
-      <c r="CN139" s="99"/>
-      <c r="CO139" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP139" s="99"/>
-      <c r="CQ139" s="57">
-        <v>95</v>
+      <c r="CN139" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO139" s="99"/>
+      <c r="CP139" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ139" s="99"/>
+      <c r="CR139" s="57">
+        <v>97</v>
       </c>
     </row>
-    <row r="140" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B140" s="100" t="s">
         <v>40</v>
       </c>
@@ -52514,16 +53003,19 @@
       <c r="CM140" s="57">
         <v>0</v>
       </c>
-      <c r="CN140" s="99"/>
-      <c r="CO140" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP140" s="99"/>
-      <c r="CQ140" s="57">
+      <c r="CN140" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO140" s="99"/>
+      <c r="CP140" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ140" s="99"/>
+      <c r="CR140" s="57">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B141" s="100" t="s">
         <v>40</v>
       </c>
@@ -52792,16 +53284,19 @@
       <c r="CM141" s="57">
         <v>0</v>
       </c>
-      <c r="CN141" s="99"/>
-      <c r="CO141" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP141" s="99"/>
-      <c r="CQ141" s="57">
+      <c r="CN141" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO141" s="99"/>
+      <c r="CP141" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ141" s="99"/>
+      <c r="CR141" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B142" s="100" t="s">
         <v>40</v>
       </c>
@@ -53070,16 +53565,19 @@
       <c r="CM142" s="57">
         <v>0</v>
       </c>
-      <c r="CN142" s="99"/>
-      <c r="CO142" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP142" s="99"/>
-      <c r="CQ142" s="57">
+      <c r="CN142" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO142" s="99"/>
+      <c r="CP142" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ142" s="99"/>
+      <c r="CR142" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B143" s="100" t="s">
         <v>40</v>
       </c>
@@ -53346,18 +53844,21 @@
         <v>1</v>
       </c>
       <c r="CM143" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN143" s="99"/>
-      <c r="CO143" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP143" s="99"/>
-      <c r="CQ143" s="57">
-        <v>258</v>
+        <v>2</v>
+      </c>
+      <c r="CN143" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO143" s="99"/>
+      <c r="CP143" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ143" s="99"/>
+      <c r="CR143" s="57">
+        <v>260</v>
       </c>
     </row>
-    <row r="144" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B144" s="100" t="s">
         <v>40</v>
       </c>
@@ -53626,16 +54127,19 @@
       <c r="CM144" s="57">
         <v>0</v>
       </c>
-      <c r="CN144" s="99"/>
-      <c r="CO144" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP144" s="99"/>
-      <c r="CQ144" s="57">
+      <c r="CN144" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO144" s="99"/>
+      <c r="CP144" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ144" s="99"/>
+      <c r="CR144" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B145" s="100" t="s">
         <v>40</v>
       </c>
@@ -53902,18 +54406,21 @@
         <v>0</v>
       </c>
       <c r="CM145" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN145" s="99"/>
-      <c r="CO145" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP145" s="99"/>
-      <c r="CQ145" s="57">
-        <v>316</v>
+        <v>2</v>
+      </c>
+      <c r="CN145" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO145" s="99"/>
+      <c r="CP145" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ145" s="99"/>
+      <c r="CR145" s="57">
+        <v>317</v>
       </c>
     </row>
-    <row r="146" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B146" s="100" t="s">
         <v>40</v>
       </c>
@@ -54182,16 +54689,19 @@
       <c r="CM146" s="57">
         <v>0</v>
       </c>
-      <c r="CN146" s="99"/>
-      <c r="CO146" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP146" s="99"/>
-      <c r="CQ146" s="57">
+      <c r="CN146" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO146" s="99"/>
+      <c r="CP146" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ146" s="99"/>
+      <c r="CR146" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B147" s="100" t="s">
         <v>40</v>
       </c>
@@ -54460,16 +54970,19 @@
       <c r="CM147" s="57">
         <v>0</v>
       </c>
-      <c r="CN147" s="99"/>
-      <c r="CO147" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP147" s="99"/>
-      <c r="CQ147" s="57">
+      <c r="CN147" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO147" s="99"/>
+      <c r="CP147" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ147" s="99"/>
+      <c r="CR147" s="57">
         <v>110</v>
       </c>
     </row>
-    <row r="148" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B148" s="100" t="s">
         <v>40</v>
       </c>
@@ -54736,18 +55249,21 @@
         <v>2</v>
       </c>
       <c r="CM148" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN148" s="99"/>
-      <c r="CO148" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP148" s="99"/>
-      <c r="CQ148" s="57">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="CN148" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO148" s="99"/>
+      <c r="CP148" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ148" s="99"/>
+      <c r="CR148" s="57">
+        <v>153</v>
       </c>
     </row>
-    <row r="149" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B149" s="100" t="s">
         <v>40</v>
       </c>
@@ -55016,16 +55532,19 @@
       <c r="CM149" s="57">
         <v>0</v>
       </c>
-      <c r="CN149" s="99"/>
-      <c r="CO149" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP149" s="99"/>
-      <c r="CQ149" s="57">
+      <c r="CN149" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO149" s="99"/>
+      <c r="CP149" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ149" s="99"/>
+      <c r="CR149" s="57">
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B150" s="100" t="s">
         <v>41</v>
       </c>
@@ -55294,16 +55813,19 @@
       <c r="CM150" s="57">
         <v>0</v>
       </c>
-      <c r="CN150" s="99"/>
-      <c r="CO150" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP150" s="99"/>
-      <c r="CQ150" s="57">
+      <c r="CN150" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO150" s="99"/>
+      <c r="CP150" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ150" s="99"/>
+      <c r="CR150" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B151" s="100" t="s">
         <v>41</v>
       </c>
@@ -55570,18 +56092,21 @@
         <v>3</v>
       </c>
       <c r="CM151" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN151" s="99"/>
-      <c r="CO151" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP151" s="99"/>
-      <c r="CQ151" s="57">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="CN151" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO151" s="99"/>
+      <c r="CP151" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ151" s="99"/>
+      <c r="CR151" s="57">
+        <v>175</v>
       </c>
     </row>
-    <row r="152" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B152" s="100" t="s">
         <v>41</v>
       </c>
@@ -55842,24 +56367,27 @@
         <v>1</v>
       </c>
       <c r="CK152" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL152" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM152" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN152" s="99"/>
-      <c r="CO152" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP152" s="99"/>
-      <c r="CQ152" s="57">
-        <v>205</v>
+        <v>2</v>
+      </c>
+      <c r="CN152" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO152" s="99"/>
+      <c r="CP152" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ152" s="99"/>
+      <c r="CR152" s="57">
+        <v>209</v>
       </c>
     </row>
-    <row r="153" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B153" s="100" t="s">
         <v>41</v>
       </c>
@@ -56128,16 +56656,19 @@
       <c r="CM153" s="57">
         <v>0</v>
       </c>
-      <c r="CN153" s="99"/>
-      <c r="CO153" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP153" s="99"/>
-      <c r="CQ153" s="57">
+      <c r="CN153" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO153" s="99"/>
+      <c r="CP153" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ153" s="99"/>
+      <c r="CR153" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B154" s="100" t="s">
         <v>41</v>
       </c>
@@ -56401,21 +56932,24 @@
         <v>0</v>
       </c>
       <c r="CL154" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM154" s="57">
         <v>0</v>
       </c>
-      <c r="CN154" s="99"/>
-      <c r="CO154" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP154" s="99"/>
-      <c r="CQ154" s="57">
-        <v>165</v>
+      <c r="CN154" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO154" s="99"/>
+      <c r="CP154" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ154" s="99"/>
+      <c r="CR154" s="57">
+        <v>167</v>
       </c>
     </row>
-    <row r="155" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B155" s="100" t="s">
         <v>41</v>
       </c>
@@ -56684,16 +57218,19 @@
       <c r="CM155" s="57">
         <v>0</v>
       </c>
-      <c r="CN155" s="99"/>
-      <c r="CO155" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP155" s="99"/>
-      <c r="CQ155" s="57">
+      <c r="CN155" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO155" s="99"/>
+      <c r="CP155" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ155" s="99"/>
+      <c r="CR155" s="57">
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B156" s="100" t="s">
         <v>41</v>
       </c>
@@ -56954,7 +57491,7 @@
         <v>0</v>
       </c>
       <c r="CK156" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL156" s="57">
         <v>0</v>
@@ -56962,16 +57499,19 @@
       <c r="CM156" s="57">
         <v>0</v>
       </c>
-      <c r="CN156" s="99"/>
-      <c r="CO156" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP156" s="99"/>
-      <c r="CQ156" s="57">
-        <v>177</v>
+      <c r="CN156" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO156" s="99"/>
+      <c r="CP156" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ156" s="99"/>
+      <c r="CR156" s="57">
+        <v>178</v>
       </c>
     </row>
-    <row r="157" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B157" s="100" t="s">
         <v>41</v>
       </c>
@@ -57240,16 +57780,19 @@
       <c r="CM157" s="57">
         <v>0</v>
       </c>
-      <c r="CN157" s="99"/>
-      <c r="CO157" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP157" s="99"/>
-      <c r="CQ157" s="57">
+      <c r="CN157" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO157" s="99"/>
+      <c r="CP157" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ157" s="99"/>
+      <c r="CR157" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B158" s="100" t="s">
         <v>41</v>
       </c>
@@ -57510,24 +58053,27 @@
         <v>0</v>
       </c>
       <c r="CK158" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL158" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM158" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN158" s="99"/>
-      <c r="CO158" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP158" s="99"/>
-      <c r="CQ158" s="57">
-        <v>192</v>
+        <v>5</v>
+      </c>
+      <c r="CN158" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO158" s="99"/>
+      <c r="CP158" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ158" s="99"/>
+      <c r="CR158" s="57">
+        <v>199</v>
       </c>
     </row>
-    <row r="159" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B159" s="100" t="s">
         <v>41</v>
       </c>
@@ -57796,16 +58342,19 @@
       <c r="CM159" s="57">
         <v>0</v>
       </c>
-      <c r="CN159" s="99"/>
-      <c r="CO159" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP159" s="99"/>
-      <c r="CQ159" s="57">
+      <c r="CN159" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO159" s="99"/>
+      <c r="CP159" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ159" s="99"/>
+      <c r="CR159" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B160" s="100" t="s">
         <v>41</v>
       </c>
@@ -57934,13 +58483,13 @@
         <v>21</v>
       </c>
       <c r="AS160" s="57">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT160" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU160" s="57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV160" s="57">
         <v>11</v>
@@ -58024,7 +58573,7 @@
         <v>2</v>
       </c>
       <c r="BW160" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX160" s="57">
         <v>1</v>
@@ -58074,16 +58623,19 @@
       <c r="CM160" s="57">
         <v>0</v>
       </c>
-      <c r="CN160" s="99"/>
-      <c r="CO160" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP160" s="99"/>
-      <c r="CQ160" s="57">
-        <v>408</v>
+      <c r="CN160" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO160" s="99"/>
+      <c r="CP160" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ160" s="99"/>
+      <c r="CR160" s="57">
+        <v>413</v>
       </c>
     </row>
-    <row r="161" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B161" s="100" t="s">
         <v>41</v>
       </c>
@@ -58347,21 +58899,24 @@
         <v>3</v>
       </c>
       <c r="CL161" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM161" s="57">
         <v>0</v>
       </c>
-      <c r="CN161" s="99"/>
-      <c r="CO161" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP161" s="99"/>
-      <c r="CQ161" s="57">
-        <v>367</v>
+      <c r="CN161" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO161" s="99"/>
+      <c r="CP161" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ161" s="99"/>
+      <c r="CR161" s="57">
+        <v>368</v>
       </c>
     </row>
-    <row r="162" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B162" s="100" t="s">
         <v>41</v>
       </c>
@@ -58630,16 +59185,19 @@
       <c r="CM162" s="57">
         <v>0</v>
       </c>
-      <c r="CN162" s="99"/>
-      <c r="CO162" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP162" s="99"/>
-      <c r="CQ162" s="57">
+      <c r="CN162" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO162" s="99"/>
+      <c r="CP162" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ162" s="99"/>
+      <c r="CR162" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B163" s="100" t="s">
         <v>41</v>
       </c>
@@ -58908,16 +59466,19 @@
       <c r="CM163" s="57">
         <v>0</v>
       </c>
-      <c r="CN163" s="99"/>
-      <c r="CO163" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP163" s="99"/>
-      <c r="CQ163" s="57">
+      <c r="CN163" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO163" s="99"/>
+      <c r="CP163" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ163" s="99"/>
+      <c r="CR163" s="57">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B164" s="100" t="s">
         <v>41</v>
       </c>
@@ -59186,16 +59747,19 @@
       <c r="CM164" s="57">
         <v>0</v>
       </c>
-      <c r="CN164" s="99"/>
-      <c r="CO164" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP164" s="99"/>
-      <c r="CQ164" s="57">
+      <c r="CN164" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO164" s="99"/>
+      <c r="CP164" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ164" s="99"/>
+      <c r="CR164" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B165" s="100" t="s">
         <v>41</v>
       </c>
@@ -59464,16 +60028,19 @@
       <c r="CM165" s="57">
         <v>0</v>
       </c>
-      <c r="CN165" s="99"/>
-      <c r="CO165" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP165" s="99"/>
-      <c r="CQ165" s="57">
+      <c r="CN165" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO165" s="99"/>
+      <c r="CP165" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ165" s="99"/>
+      <c r="CR165" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B166" s="100" t="s">
         <v>41</v>
       </c>
@@ -59740,18 +60307,21 @@
         <v>1</v>
       </c>
       <c r="CM166" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN166" s="99"/>
-      <c r="CO166" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP166" s="99"/>
-      <c r="CQ166" s="57">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="CN166" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO166" s="99"/>
+      <c r="CP166" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ166" s="99"/>
+      <c r="CR166" s="57">
+        <v>418</v>
       </c>
     </row>
-    <row r="167" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B167" s="100" t="s">
         <v>41</v>
       </c>
@@ -60020,16 +60590,19 @@
       <c r="CM167" s="57">
         <v>0</v>
       </c>
-      <c r="CN167" s="99"/>
-      <c r="CO167" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP167" s="99"/>
-      <c r="CQ167" s="57">
+      <c r="CN167" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO167" s="99"/>
+      <c r="CP167" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ167" s="99"/>
+      <c r="CR167" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B168" s="100" t="s">
         <v>41</v>
       </c>
@@ -60298,16 +60871,19 @@
       <c r="CM168" s="57">
         <v>0</v>
       </c>
-      <c r="CN168" s="99"/>
-      <c r="CO168" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP168" s="99"/>
-      <c r="CQ168" s="57">
+      <c r="CN168" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO168" s="99"/>
+      <c r="CP168" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ168" s="99"/>
+      <c r="CR168" s="57">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B169" s="100" t="s">
         <v>41</v>
       </c>
@@ -60576,16 +61152,19 @@
       <c r="CM169" s="57">
         <v>1</v>
       </c>
-      <c r="CN169" s="99"/>
-      <c r="CO169" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP169" s="99"/>
-      <c r="CQ169" s="57">
+      <c r="CN169" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO169" s="99"/>
+      <c r="CP169" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ169" s="99"/>
+      <c r="CR169" s="57">
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B170" s="100" t="s">
         <v>41</v>
       </c>
@@ -60849,21 +61428,24 @@
         <v>0</v>
       </c>
       <c r="CL170" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM170" s="57">
         <v>0</v>
       </c>
-      <c r="CN170" s="99"/>
-      <c r="CO170" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP170" s="99"/>
-      <c r="CQ170" s="57">
-        <v>183</v>
+      <c r="CN170" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO170" s="99"/>
+      <c r="CP170" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ170" s="99"/>
+      <c r="CR170" s="57">
+        <v>185</v>
       </c>
     </row>
-    <row r="171" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B171" s="100" t="s">
         <v>41</v>
       </c>
@@ -61124,24 +61706,27 @@
         <v>1</v>
       </c>
       <c r="CK171" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL171" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM171" s="57">
         <v>0</v>
       </c>
-      <c r="CN171" s="99"/>
-      <c r="CO171" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP171" s="99"/>
-      <c r="CQ171" s="57">
-        <v>179</v>
+      <c r="CN171" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO171" s="99"/>
+      <c r="CP171" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ171" s="99"/>
+      <c r="CR171" s="57">
+        <v>181</v>
       </c>
     </row>
-    <row r="172" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B172" s="100" t="s">
         <v>41</v>
       </c>
@@ -61408,18 +61993,21 @@
         <v>0</v>
       </c>
       <c r="CM172" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN172" s="99"/>
-      <c r="CO172" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP172" s="99"/>
-      <c r="CQ172" s="57">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="CN172" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO172" s="99"/>
+      <c r="CP172" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ172" s="99"/>
+      <c r="CR172" s="57">
+        <v>148</v>
       </c>
     </row>
-    <row r="173" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B173" s="100" t="s">
         <v>41</v>
       </c>
@@ -61688,16 +62276,19 @@
       <c r="CM173" s="57">
         <v>0</v>
       </c>
-      <c r="CN173" s="99"/>
-      <c r="CO173" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP173" s="99"/>
-      <c r="CQ173" s="57">
+      <c r="CN173" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO173" s="99"/>
+      <c r="CP173" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ173" s="99"/>
+      <c r="CR173" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B174" s="100" t="s">
         <v>41</v>
       </c>
@@ -61966,16 +62557,19 @@
       <c r="CM174" s="57">
         <v>0</v>
       </c>
-      <c r="CN174" s="99"/>
-      <c r="CO174" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP174" s="99"/>
-      <c r="CQ174" s="57">
+      <c r="CN174" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO174" s="99"/>
+      <c r="CP174" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ174" s="99"/>
+      <c r="CR174" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B175" s="100" t="s">
         <v>41</v>
       </c>
@@ -62244,16 +62838,19 @@
       <c r="CM175" s="57">
         <v>0</v>
       </c>
-      <c r="CN175" s="99"/>
-      <c r="CO175" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP175" s="99"/>
-      <c r="CQ175" s="57">
-        <v>159</v>
+      <c r="CN175" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO175" s="99"/>
+      <c r="CP175" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ175" s="99"/>
+      <c r="CR175" s="57">
+        <v>160</v>
       </c>
     </row>
-    <row r="176" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B176" s="100" t="s">
         <v>41</v>
       </c>
@@ -62522,16 +63119,19 @@
       <c r="CM176" s="57">
         <v>0</v>
       </c>
-      <c r="CN176" s="99"/>
-      <c r="CO176" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP176" s="99"/>
-      <c r="CQ176" s="57">
+      <c r="CN176" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO176" s="99"/>
+      <c r="CP176" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ176" s="99"/>
+      <c r="CR176" s="57">
         <v>116</v>
       </c>
     </row>
-    <row r="177" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B177" s="100" t="s">
         <v>41</v>
       </c>
@@ -62800,16 +63400,19 @@
       <c r="CM177" s="57">
         <v>0</v>
       </c>
-      <c r="CN177" s="99"/>
-      <c r="CO177" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP177" s="99"/>
-      <c r="CQ177" s="57">
+      <c r="CN177" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO177" s="99"/>
+      <c r="CP177" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ177" s="99"/>
+      <c r="CR177" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B178" s="100" t="s">
         <v>41</v>
       </c>
@@ -63073,21 +63676,24 @@
         <v>1</v>
       </c>
       <c r="CL178" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM178" s="57">
         <v>0</v>
       </c>
-      <c r="CN178" s="99"/>
-      <c r="CO178" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP178" s="99"/>
-      <c r="CQ178" s="57">
-        <v>237</v>
+      <c r="CN178" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO178" s="99"/>
+      <c r="CP178" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ178" s="99"/>
+      <c r="CR178" s="57">
+        <v>238</v>
       </c>
     </row>
-    <row r="179" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B179" s="100" t="s">
         <v>42</v>
       </c>
@@ -63356,16 +63962,19 @@
       <c r="CM179" s="57">
         <v>0</v>
       </c>
-      <c r="CN179" s="99"/>
-      <c r="CO179" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP179" s="99"/>
-      <c r="CQ179" s="57">
+      <c r="CN179" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO179" s="99"/>
+      <c r="CP179" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ179" s="99"/>
+      <c r="CR179" s="57">
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B180" s="100" t="s">
         <v>42</v>
       </c>
@@ -63634,16 +64243,19 @@
       <c r="CM180" s="57">
         <v>1</v>
       </c>
-      <c r="CN180" s="99"/>
-      <c r="CO180" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP180" s="99"/>
-      <c r="CQ180" s="57">
+      <c r="CN180" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO180" s="99"/>
+      <c r="CP180" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ180" s="99"/>
+      <c r="CR180" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B181" s="105" t="s">
         <v>42</v>
       </c>
@@ -63912,16 +64524,19 @@
       <c r="CM181" s="57">
         <v>0</v>
       </c>
-      <c r="CN181" s="99"/>
-      <c r="CO181" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP181" s="99"/>
-      <c r="CQ181" s="57">
+      <c r="CN181" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO181" s="99"/>
+      <c r="CP181" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ181" s="99"/>
+      <c r="CR181" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B182" s="100" t="s">
         <v>42</v>
       </c>
@@ -64190,16 +64805,19 @@
       <c r="CM182" s="57">
         <v>0</v>
       </c>
-      <c r="CN182" s="99"/>
-      <c r="CO182" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP182" s="99"/>
-      <c r="CQ182" s="57">
+      <c r="CN182" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO182" s="99"/>
+      <c r="CP182" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ182" s="99"/>
+      <c r="CR182" s="57">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B183" s="100" t="s">
         <v>42</v>
       </c>
@@ -64468,16 +65086,19 @@
       <c r="CM183" s="57">
         <v>0</v>
       </c>
-      <c r="CN183" s="99"/>
-      <c r="CO183" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP183" s="99"/>
-      <c r="CQ183" s="57">
+      <c r="CN183" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO183" s="99"/>
+      <c r="CP183" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ183" s="99"/>
+      <c r="CR183" s="57">
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B184" s="100" t="s">
         <v>42</v>
       </c>
@@ -64746,16 +65367,19 @@
       <c r="CM184" s="57">
         <v>0</v>
       </c>
-      <c r="CN184" s="99"/>
-      <c r="CO184" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP184" s="99"/>
-      <c r="CQ184" s="57">
+      <c r="CN184" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO184" s="99"/>
+      <c r="CP184" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ184" s="99"/>
+      <c r="CR184" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B185" s="100" t="s">
         <v>42</v>
       </c>
@@ -65024,16 +65648,19 @@
       <c r="CM185" s="57">
         <v>0</v>
       </c>
-      <c r="CN185" s="99"/>
-      <c r="CO185" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP185" s="99"/>
-      <c r="CQ185" s="57">
+      <c r="CN185" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO185" s="99"/>
+      <c r="CP185" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ185" s="99"/>
+      <c r="CR185" s="57">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B186" s="100" t="s">
         <v>42</v>
       </c>
@@ -65294,24 +65921,27 @@
         <v>3</v>
       </c>
       <c r="CK186" s="57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CL186" s="57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM186" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN186" s="99"/>
-      <c r="CO186" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP186" s="99"/>
-      <c r="CQ186" s="57">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="CN186" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO186" s="99"/>
+      <c r="CP186" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ186" s="99"/>
+      <c r="CR186" s="57">
+        <v>273</v>
       </c>
     </row>
-    <row r="187" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B187" s="100" t="s">
         <v>42</v>
       </c>
@@ -65580,16 +66210,19 @@
       <c r="CM187" s="57">
         <v>0</v>
       </c>
-      <c r="CN187" s="99"/>
-      <c r="CO187" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP187" s="99"/>
-      <c r="CQ187" s="57">
+      <c r="CN187" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO187" s="99"/>
+      <c r="CP187" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ187" s="99"/>
+      <c r="CR187" s="57">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B188" s="100" t="s">
         <v>42</v>
       </c>
@@ -65853,21 +66486,24 @@
         <v>1</v>
       </c>
       <c r="CL188" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM188" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN188" s="99"/>
-      <c r="CO188" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP188" s="99"/>
-      <c r="CQ188" s="57">
-        <v>333</v>
+        <v>2</v>
+      </c>
+      <c r="CN188" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO188" s="99"/>
+      <c r="CP188" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ188" s="99"/>
+      <c r="CR188" s="57">
+        <v>337</v>
       </c>
     </row>
-    <row r="189" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B189" s="100" t="s">
         <v>42</v>
       </c>
@@ -66136,16 +66772,19 @@
       <c r="CM189" s="57">
         <v>0</v>
       </c>
-      <c r="CN189" s="99"/>
-      <c r="CO189" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP189" s="99"/>
-      <c r="CQ189" s="57">
+      <c r="CN189" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO189" s="99"/>
+      <c r="CP189" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ189" s="99"/>
+      <c r="CR189" s="57">
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B190" s="100" t="s">
         <v>42</v>
       </c>
@@ -66409,21 +67048,24 @@
         <v>0</v>
       </c>
       <c r="CL190" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM190" s="57">
         <v>0</v>
       </c>
-      <c r="CN190" s="99"/>
-      <c r="CO190" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP190" s="99"/>
-      <c r="CQ190" s="57">
-        <v>36</v>
+      <c r="CN190" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO190" s="99"/>
+      <c r="CP190" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ190" s="99"/>
+      <c r="CR190" s="57">
+        <v>37</v>
       </c>
     </row>
-    <row r="191" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B191" s="100" t="s">
         <v>42</v>
       </c>
@@ -66692,16 +67334,19 @@
       <c r="CM191" s="57">
         <v>0</v>
       </c>
-      <c r="CN191" s="99"/>
-      <c r="CO191" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP191" s="99"/>
-      <c r="CQ191" s="57">
+      <c r="CN191" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO191" s="99"/>
+      <c r="CP191" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ191" s="99"/>
+      <c r="CR191" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B192" s="100" t="s">
         <v>42</v>
       </c>
@@ -66970,16 +67615,19 @@
       <c r="CM192" s="57">
         <v>0</v>
       </c>
-      <c r="CN192" s="99"/>
-      <c r="CO192" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP192" s="99"/>
-      <c r="CQ192" s="57">
+      <c r="CN192" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO192" s="99"/>
+      <c r="CP192" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ192" s="99"/>
+      <c r="CR192" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B193" s="100" t="s">
         <v>42</v>
       </c>
@@ -67248,16 +67896,19 @@
       <c r="CM193" s="57">
         <v>0</v>
       </c>
-      <c r="CN193" s="99"/>
-      <c r="CO193" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP193" s="99"/>
-      <c r="CQ193" s="57">
+      <c r="CN193" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO193" s="99"/>
+      <c r="CP193" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ193" s="99"/>
+      <c r="CR193" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B194" s="100" t="s">
         <v>42</v>
       </c>
@@ -67526,16 +68177,19 @@
       <c r="CM194" s="57">
         <v>0</v>
       </c>
-      <c r="CN194" s="99"/>
-      <c r="CO194" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP194" s="99"/>
-      <c r="CQ194" s="57">
+      <c r="CN194" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO194" s="99"/>
+      <c r="CP194" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ194" s="99"/>
+      <c r="CR194" s="57">
         <v>152</v>
       </c>
     </row>
-    <row r="195" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B195" s="100" t="s">
         <v>42</v>
       </c>
@@ -67804,16 +68458,19 @@
       <c r="CM195" s="57">
         <v>0</v>
       </c>
-      <c r="CN195" s="99"/>
-      <c r="CO195" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP195" s="99"/>
-      <c r="CQ195" s="57">
+      <c r="CN195" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO195" s="99"/>
+      <c r="CP195" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ195" s="99"/>
+      <c r="CR195" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B196" s="100" t="s">
         <v>42</v>
       </c>
@@ -68082,16 +68739,19 @@
       <c r="CM196" s="57">
         <v>0</v>
       </c>
-      <c r="CN196" s="99"/>
-      <c r="CO196" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP196" s="99"/>
-      <c r="CQ196" s="57">
+      <c r="CN196" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO196" s="99"/>
+      <c r="CP196" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ196" s="99"/>
+      <c r="CR196" s="57">
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B197" s="100" t="s">
         <v>42</v>
       </c>
@@ -68360,16 +69020,19 @@
       <c r="CM197" s="57">
         <v>0</v>
       </c>
-      <c r="CN197" s="99"/>
-      <c r="CO197" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP197" s="99"/>
-      <c r="CQ197" s="57">
+      <c r="CN197" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO197" s="99"/>
+      <c r="CP197" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ197" s="99"/>
+      <c r="CR197" s="57">
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B198" s="100" t="s">
         <v>42</v>
       </c>
@@ -68638,16 +69301,19 @@
       <c r="CM198" s="57">
         <v>0</v>
       </c>
-      <c r="CN198" s="99"/>
-      <c r="CO198" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP198" s="99"/>
-      <c r="CQ198" s="57">
+      <c r="CN198" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO198" s="99"/>
+      <c r="CP198" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ198" s="99"/>
+      <c r="CR198" s="57">
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B199" s="100" t="s">
         <v>42</v>
       </c>
@@ -68916,16 +69582,19 @@
       <c r="CM199" s="57">
         <v>1</v>
       </c>
-      <c r="CN199" s="99"/>
-      <c r="CO199" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP199" s="99"/>
-      <c r="CQ199" s="57">
+      <c r="CN199" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO199" s="99"/>
+      <c r="CP199" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ199" s="99"/>
+      <c r="CR199" s="57">
         <v>172</v>
       </c>
     </row>
-    <row r="200" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B200" s="100" t="s">
         <v>42</v>
       </c>
@@ -69194,16 +69863,19 @@
       <c r="CM200" s="57">
         <v>0</v>
       </c>
-      <c r="CN200" s="99"/>
-      <c r="CO200" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP200" s="99"/>
-      <c r="CQ200" s="57">
+      <c r="CN200" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO200" s="99"/>
+      <c r="CP200" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ200" s="99"/>
+      <c r="CR200" s="57">
         <v>94</v>
       </c>
     </row>
-    <row r="201" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B201" s="100" t="s">
         <v>42</v>
       </c>
@@ -69472,16 +70144,19 @@
       <c r="CM201" s="57">
         <v>0</v>
       </c>
-      <c r="CN201" s="99"/>
-      <c r="CO201" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP201" s="99"/>
-      <c r="CQ201" s="57">
+      <c r="CN201" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO201" s="99"/>
+      <c r="CP201" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ201" s="99"/>
+      <c r="CR201" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B202" s="100" t="s">
         <v>42</v>
       </c>
@@ -69750,16 +70425,19 @@
       <c r="CM202" s="57">
         <v>0</v>
       </c>
-      <c r="CN202" s="99"/>
-      <c r="CO202" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP202" s="99"/>
-      <c r="CQ202" s="57">
+      <c r="CN202" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO202" s="99"/>
+      <c r="CP202" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ202" s="99"/>
+      <c r="CR202" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B203" s="100" t="s">
         <v>42</v>
       </c>
@@ -70028,16 +70706,19 @@
       <c r="CM203" s="57">
         <v>0</v>
       </c>
-      <c r="CN203" s="99"/>
-      <c r="CO203" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP203" s="99"/>
-      <c r="CQ203" s="57">
+      <c r="CN203" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO203" s="99"/>
+      <c r="CP203" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ203" s="99"/>
+      <c r="CR203" s="57">
         <v>240</v>
       </c>
     </row>
-    <row r="204" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B204" s="100" t="s">
         <v>42</v>
       </c>
@@ -70306,16 +70987,19 @@
       <c r="CM204" s="57">
         <v>0</v>
       </c>
-      <c r="CN204" s="99"/>
-      <c r="CO204" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP204" s="99"/>
-      <c r="CQ204" s="57">
+      <c r="CN204" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO204" s="99"/>
+      <c r="CP204" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ204" s="99"/>
+      <c r="CR204" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B205" s="100" t="s">
         <v>42</v>
       </c>
@@ -70584,16 +71268,19 @@
       <c r="CM205" s="57">
         <v>0</v>
       </c>
-      <c r="CN205" s="99"/>
-      <c r="CO205" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP205" s="99"/>
-      <c r="CQ205" s="57">
+      <c r="CN205" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO205" s="99"/>
+      <c r="CP205" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ205" s="99"/>
+      <c r="CR205" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B206" s="100" t="s">
         <v>42</v>
       </c>
@@ -70862,16 +71549,19 @@
       <c r="CM206" s="57">
         <v>0</v>
       </c>
-      <c r="CN206" s="99"/>
-      <c r="CO206" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP206" s="99"/>
-      <c r="CQ206" s="57">
+      <c r="CN206" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO206" s="99"/>
+      <c r="CP206" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ206" s="99"/>
+      <c r="CR206" s="57">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B207" s="100" t="s">
         <v>42</v>
       </c>
@@ -71140,16 +71830,19 @@
       <c r="CM207" s="57">
         <v>0</v>
       </c>
-      <c r="CN207" s="99"/>
-      <c r="CO207" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP207" s="99"/>
-      <c r="CQ207" s="57">
+      <c r="CN207" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO207" s="99"/>
+      <c r="CP207" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ207" s="99"/>
+      <c r="CR207" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B208" s="100" t="s">
         <v>42</v>
       </c>
@@ -71418,16 +72111,19 @@
       <c r="CM208" s="57">
         <v>0</v>
       </c>
-      <c r="CN208" s="99"/>
-      <c r="CO208" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP208" s="99"/>
-      <c r="CQ208" s="57">
+      <c r="CN208" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO208" s="99"/>
+      <c r="CP208" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ208" s="99"/>
+      <c r="CR208" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B209" s="100" t="s">
         <v>42</v>
       </c>
@@ -71696,16 +72392,19 @@
       <c r="CM209" s="57">
         <v>0</v>
       </c>
-      <c r="CN209" s="99"/>
-      <c r="CO209" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP209" s="99"/>
-      <c r="CQ209" s="57">
+      <c r="CN209" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO209" s="99"/>
+      <c r="CP209" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ209" s="99"/>
+      <c r="CR209" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B210" s="100" t="s">
         <v>43</v>
       </c>
@@ -71974,16 +72673,19 @@
       <c r="CM210" s="57">
         <v>0</v>
       </c>
-      <c r="CN210" s="99"/>
-      <c r="CO210" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP210" s="99"/>
-      <c r="CQ210" s="57">
+      <c r="CN210" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO210" s="99"/>
+      <c r="CP210" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ210" s="99"/>
+      <c r="CR210" s="57">
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B211" s="100" t="s">
         <v>43</v>
       </c>
@@ -72252,16 +72954,19 @@
       <c r="CM211" s="57">
         <v>0</v>
       </c>
-      <c r="CN211" s="99"/>
-      <c r="CO211" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP211" s="99"/>
-      <c r="CQ211" s="57">
-        <v>23</v>
+      <c r="CN211" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO211" s="99"/>
+      <c r="CP211" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ211" s="99"/>
+      <c r="CR211" s="57">
+        <v>24</v>
       </c>
     </row>
-    <row r="212" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B212" s="100" t="s">
         <v>43</v>
       </c>
@@ -72530,16 +73235,19 @@
       <c r="CM212" s="57">
         <v>0</v>
       </c>
-      <c r="CN212" s="99"/>
-      <c r="CO212" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP212" s="99"/>
-      <c r="CQ212" s="57">
+      <c r="CN212" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO212" s="99"/>
+      <c r="CP212" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ212" s="99"/>
+      <c r="CR212" s="57">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B213" s="100" t="s">
         <v>43</v>
       </c>
@@ -72808,16 +73516,19 @@
       <c r="CM213" s="57">
         <v>0</v>
       </c>
-      <c r="CN213" s="99"/>
-      <c r="CO213" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP213" s="99"/>
-      <c r="CQ213" s="57">
+      <c r="CN213" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO213" s="99"/>
+      <c r="CP213" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ213" s="99"/>
+      <c r="CR213" s="57">
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B214" s="100" t="s">
         <v>43</v>
       </c>
@@ -73086,16 +73797,19 @@
       <c r="CM214" s="57">
         <v>0</v>
       </c>
-      <c r="CN214" s="99"/>
-      <c r="CO214" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP214" s="99"/>
-      <c r="CQ214" s="57">
+      <c r="CN214" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO214" s="99"/>
+      <c r="CP214" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ214" s="99"/>
+      <c r="CR214" s="57">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B215" s="100" t="s">
         <v>43</v>
       </c>
@@ -73362,18 +74076,21 @@
         <v>0</v>
       </c>
       <c r="CM215" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN215" s="99"/>
-      <c r="CO215" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP215" s="99"/>
-      <c r="CQ215" s="57">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="CN215" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO215" s="99"/>
+      <c r="CP215" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ215" s="99"/>
+      <c r="CR215" s="57">
+        <v>112</v>
       </c>
     </row>
-    <row r="216" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B216" s="100" t="s">
         <v>43</v>
       </c>
@@ -73642,16 +74359,19 @@
       <c r="CM216" s="57">
         <v>0</v>
       </c>
-      <c r="CN216" s="99"/>
-      <c r="CO216" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP216" s="99"/>
-      <c r="CQ216" s="57">
+      <c r="CN216" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO216" s="99"/>
+      <c r="CP216" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ216" s="99"/>
+      <c r="CR216" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B217" s="100" t="s">
         <v>43</v>
       </c>
@@ -73920,16 +74640,19 @@
       <c r="CM217" s="57">
         <v>0</v>
       </c>
-      <c r="CN217" s="99"/>
-      <c r="CO217" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP217" s="99"/>
-      <c r="CQ217" s="57">
+      <c r="CN217" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO217" s="99"/>
+      <c r="CP217" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ217" s="99"/>
+      <c r="CR217" s="57">
         <v>113</v>
       </c>
     </row>
-    <row r="218" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B218" s="100" t="s">
         <v>43</v>
       </c>
@@ -74198,16 +74921,19 @@
       <c r="CM218" s="57">
         <v>0</v>
       </c>
-      <c r="CN218" s="99"/>
-      <c r="CO218" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP218" s="99"/>
-      <c r="CQ218" s="57">
+      <c r="CN218" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO218" s="99"/>
+      <c r="CP218" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ218" s="99"/>
+      <c r="CR218" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B219" s="100" t="s">
         <v>43</v>
       </c>
@@ -74476,16 +75202,19 @@
       <c r="CM219" s="57">
         <v>0</v>
       </c>
-      <c r="CN219" s="99"/>
-      <c r="CO219" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP219" s="99"/>
-      <c r="CQ219" s="57">
+      <c r="CN219" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO219" s="99"/>
+      <c r="CP219" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ219" s="99"/>
+      <c r="CR219" s="57">
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B220" s="100" t="s">
         <v>43</v>
       </c>
@@ -74754,16 +75483,19 @@
       <c r="CM220" s="57">
         <v>0</v>
       </c>
-      <c r="CN220" s="99"/>
-      <c r="CO220" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP220" s="99"/>
-      <c r="CQ220" s="57">
+      <c r="CN220" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO220" s="99"/>
+      <c r="CP220" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ220" s="99"/>
+      <c r="CR220" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B221" s="100" t="s">
         <v>43</v>
       </c>
@@ -75032,16 +75764,19 @@
       <c r="CM221" s="57">
         <v>0</v>
       </c>
-      <c r="CN221" s="99"/>
-      <c r="CO221" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP221" s="99"/>
-      <c r="CQ221" s="57">
+      <c r="CN221" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO221" s="99"/>
+      <c r="CP221" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ221" s="99"/>
+      <c r="CR221" s="57">
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B222" s="100" t="s">
         <v>43</v>
       </c>
@@ -75310,16 +76045,19 @@
       <c r="CM222" s="57">
         <v>0</v>
       </c>
-      <c r="CN222" s="99"/>
-      <c r="CO222" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP222" s="99"/>
-      <c r="CQ222" s="57">
+      <c r="CN222" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO222" s="99"/>
+      <c r="CP222" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ222" s="99"/>
+      <c r="CR222" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B223" s="100" t="s">
         <v>43</v>
       </c>
@@ -75580,7 +76318,7 @@
         <v>1</v>
       </c>
       <c r="CK223" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL223" s="57">
         <v>0</v>
@@ -75588,16 +76326,19 @@
       <c r="CM223" s="57">
         <v>0</v>
       </c>
-      <c r="CN223" s="99"/>
-      <c r="CO223" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP223" s="99"/>
-      <c r="CQ223" s="57">
-        <v>52</v>
+      <c r="CN223" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO223" s="99"/>
+      <c r="CP223" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ223" s="99"/>
+      <c r="CR223" s="57">
+        <v>53</v>
       </c>
     </row>
-    <row r="224" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B224" s="100" t="s">
         <v>43</v>
       </c>
@@ -75866,16 +76607,19 @@
       <c r="CM224" s="57">
         <v>0</v>
       </c>
-      <c r="CN224" s="99"/>
-      <c r="CO224" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP224" s="99"/>
-      <c r="CQ224" s="57">
+      <c r="CN224" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO224" s="99"/>
+      <c r="CP224" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ224" s="99"/>
+      <c r="CR224" s="57">
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B225" s="100" t="s">
         <v>43</v>
       </c>
@@ -76144,16 +76888,19 @@
       <c r="CM225" s="57">
         <v>0</v>
       </c>
-      <c r="CN225" s="99"/>
-      <c r="CO225" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP225" s="99"/>
-      <c r="CQ225" s="57">
+      <c r="CN225" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO225" s="99"/>
+      <c r="CP225" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ225" s="99"/>
+      <c r="CR225" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B226" s="100" t="s">
         <v>43</v>
       </c>
@@ -76422,16 +77169,19 @@
       <c r="CM226" s="57">
         <v>0</v>
       </c>
-      <c r="CN226" s="99"/>
-      <c r="CO226" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP226" s="99"/>
-      <c r="CQ226" s="57">
+      <c r="CN226" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO226" s="99"/>
+      <c r="CP226" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ226" s="99"/>
+      <c r="CR226" s="57">
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B227" s="100" t="s">
         <v>43</v>
       </c>
@@ -76700,16 +77450,19 @@
       <c r="CM227" s="57">
         <v>0</v>
       </c>
-      <c r="CN227" s="99"/>
-      <c r="CO227" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP227" s="99"/>
-      <c r="CQ227" s="57">
+      <c r="CN227" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO227" s="99"/>
+      <c r="CP227" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ227" s="99"/>
+      <c r="CR227" s="57">
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B228" s="100" t="s">
         <v>43</v>
       </c>
@@ -76973,21 +77726,24 @@
         <v>3</v>
       </c>
       <c r="CL228" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM228" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN228" s="99"/>
-      <c r="CO228" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP228" s="99"/>
-      <c r="CQ228" s="57">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="CN228" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO228" s="99"/>
+      <c r="CP228" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ228" s="99"/>
+      <c r="CR228" s="57">
+        <v>118</v>
       </c>
     </row>
-    <row r="229" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B229" s="100" t="s">
         <v>43</v>
       </c>
@@ -77256,16 +78012,19 @@
       <c r="CM229" s="57">
         <v>0</v>
       </c>
-      <c r="CN229" s="99"/>
-      <c r="CO229" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP229" s="99"/>
-      <c r="CQ229" s="57">
+      <c r="CN229" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO229" s="99"/>
+      <c r="CP229" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ229" s="99"/>
+      <c r="CR229" s="57">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B230" s="100" t="s">
         <v>43</v>
       </c>
@@ -77534,16 +78293,19 @@
       <c r="CM230" s="57">
         <v>0</v>
       </c>
-      <c r="CN230" s="99"/>
-      <c r="CO230" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP230" s="99"/>
-      <c r="CQ230" s="57">
+      <c r="CN230" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO230" s="99"/>
+      <c r="CP230" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ230" s="99"/>
+      <c r="CR230" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B231" s="100" t="s">
         <v>43</v>
       </c>
@@ -77812,16 +78574,19 @@
       <c r="CM231" s="57">
         <v>0</v>
       </c>
-      <c r="CN231" s="99"/>
-      <c r="CO231" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP231" s="99"/>
-      <c r="CQ231" s="57">
+      <c r="CN231" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO231" s="99"/>
+      <c r="CP231" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ231" s="99"/>
+      <c r="CR231" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B232" s="100" t="s">
         <v>43</v>
       </c>
@@ -78090,16 +78855,19 @@
       <c r="CM232" s="57">
         <v>0</v>
       </c>
-      <c r="CN232" s="99"/>
-      <c r="CO232" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP232" s="99"/>
-      <c r="CQ232" s="57">
+      <c r="CN232" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO232" s="99"/>
+      <c r="CP232" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ232" s="99"/>
+      <c r="CR232" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B233" s="100" t="s">
         <v>43</v>
       </c>
@@ -78368,16 +79136,19 @@
       <c r="CM233" s="57">
         <v>0</v>
       </c>
-      <c r="CN233" s="99"/>
-      <c r="CO233" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP233" s="99"/>
-      <c r="CQ233" s="57">
+      <c r="CN233" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO233" s="99"/>
+      <c r="CP233" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ233" s="99"/>
+      <c r="CR233" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B234" s="100" t="s">
         <v>43</v>
       </c>
@@ -78646,16 +79417,19 @@
       <c r="CM234" s="109">
         <v>0</v>
       </c>
-      <c r="CN234" s="99"/>
-      <c r="CO234" s="109">
-        <v>0</v>
-      </c>
-      <c r="CP234" s="99"/>
-      <c r="CQ234" s="109">
+      <c r="CN234" s="109">
+        <v>0</v>
+      </c>
+      <c r="CO234" s="99"/>
+      <c r="CP234" s="109">
+        <v>0</v>
+      </c>
+      <c r="CQ234" s="99"/>
+      <c r="CR234" s="109">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B235" s="100" t="s">
         <v>43</v>
       </c>
@@ -78924,16 +79698,19 @@
       <c r="CM235" s="109">
         <v>0</v>
       </c>
-      <c r="CN235" s="99"/>
-      <c r="CO235" s="109">
-        <v>0</v>
-      </c>
-      <c r="CP235" s="99"/>
-      <c r="CQ235" s="109">
+      <c r="CN235" s="109">
+        <v>0</v>
+      </c>
+      <c r="CO235" s="99"/>
+      <c r="CP235" s="109">
+        <v>0</v>
+      </c>
+      <c r="CQ235" s="99"/>
+      <c r="CR235" s="109">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B236" s="110" t="s">
         <v>43</v>
       </c>
@@ -79202,12 +79979,15 @@
       <c r="CM236" s="62">
         <v>0</v>
       </c>
-      <c r="CN236" s="99"/>
-      <c r="CO236" s="62">
-        <v>0</v>
-      </c>
-      <c r="CP236" s="99"/>
-      <c r="CQ236" s="62">
+      <c r="CN236" s="62">
+        <v>0</v>
+      </c>
+      <c r="CO236" s="99"/>
+      <c r="CP236" s="62">
+        <v>0</v>
+      </c>
+      <c r="CQ236" s="99"/>
+      <c r="CR236" s="62">
         <v>21</v>
       </c>
     </row>
@@ -79277,7 +80057,7 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F16:CM236">
+  <conditionalFormatting sqref="F16:CN236">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TODAY()-F$16&lt;6</formula>
     </cfRule>
